--- a/Collected_Data.xlsx
+++ b/Collected_Data.xlsx
@@ -1593,7 +1593,7 @@
   <sheetPr/>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Collected_Data.xlsx
+++ b/Collected_Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="497">
   <si>
     <t>ID</t>
   </si>
@@ -38,592 +38,2318 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Architecture Problem</t>
+  </si>
+  <si>
+    <t>Architecture Decision</t>
+  </si>
+  <si>
+    <t>Design Rationale (Human Experts)</t>
+  </si>
+  <si>
     <t>#SO 76284035</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/76284035</t>
   </si>
   <si>
+    <t>Currently I'm working in a project that will add a functionality to a legacy application.
+For a number of reasons that are completely out of my control, this functionality will resides in a different backend.
+Not only that, each backend is actually in a different programming language (legacy is ruby, using Rails, new is Python, using Django), and different architectures (legacy is a monolithic app, django will provide a Rest API for a React frontend).
+So far, so good. I've already solved how to integrate user's sessions, and mapped each table as a django model using the lifesaver command python manage.py inspectdb &gt; legacy_models.py.
+Now, I've got a bigger issue in my hands. Some of the old tables are not normalized, or there're missing fields which I'll need for the new application. I can't really mess with the old tables and create new fields, alter relationships or anything like that, since this legacy app is maintained by a separate corporation and we can't really depends on changes by their side, nor can we guarantee that changing the old tables won't mess with anything in this application.
+Therefore, I've took another route, and decided to create tables on Django that'll extend the old tables with the info I'll need.
+To make things easier to visualize, just imagine a table like Employee, but this table do not have a field productivity (that will be calculated in the new application). So I'd create a new table such as EmployeeDetails that will contain a OneToOne relationship with employee + any new field I need.
+The issue here is:
+I'd need to guarantee that any new Employee instance (that are being created in the legacy app) have a EmployeeDetails.
+I've thought of two ways to do that:
+Using a Celery Beat Task and a separate DB table to keep track of the last Employee synced, in order to verify if new employees were created.
+Create a Postgres Trigger.
+I'm tempted to use the first solution, since it's not possible for it to break anything in the legacy application (I mean, who knows what might happen in the legacy application during this employee trigger...)
+I'm seriously not confident about this approach though. This is not how I like to design my backends, but the more I look in the legacy app the more my brain screams DITCH THE LEGACY, REDO THIS IN DJANGO THE CORRECT WAY... but well, I'm not allowed to do that...
+Any thoughts about this?</t>
+  </si>
+  <si>
+    <t>My instinct in the situation is to modify the constructor, but Django really discourages changing Model constructors for various reasons. However, we can still achieve this functionality by connecting to formal signals Django fires off. You'd be looking at a pre-init signal or possibly post-init you'll have to test.</t>
+  </si>
+  <si>
+    <t>In theory if you connect code to the pre-init signal of the original model it could call out to extended model table and ensure the relationships necessary exist before any code fires to work with the model. I think this approach would much more closely achieve what you're attempting to enforce without a lot of extra hassle and dead network calls.</t>
+  </si>
+  <si>
     <t>#SO 76296961</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/76296961</t>
   </si>
   <si>
+    <t>I have some questions about creating microservices with Django.
+Let's say we have an online shop or a larger system with many database requests and users. I want to practice and simulate a simple microservice to learn something new.
+We want to create a microservices-based system with the following components:
+A Django-based microservice with its admin panel and full functionality (excluding DRF).
+One or more microservices with a React/Angular frontend.
+Several additional microservices to separate functionalities. I'm unsure about the architecture. Let's assume we want to manage data using the Django admin panel.
+The simplest solution would be to add DRF to the first microservice and extend its functionality (REST app) - instead of creating different services (3.).
+But what if we want to separate functionality into different microservices?
+Should the microservices in point 3 be connected to the same database and treated as different Django projects (with DRF)?
+Can we use GoLang, FastAPI, or Java Spring for the third microservice? If yes, should all models be duplicated and registered in the first microservice?
+Alternatively, is there a better way to approach this?
+It would be great to hear your perspective and methods on how to proceed with this.</t>
+  </si>
+  <si>
+    <t>Design your Monolithic application very well, separate out your concerns and business logic in a de-coupled design, even if it's a monolith. you have to have the mindset of: "if I want to swap this functionality for a microservice, how easily will it be to rip it out, what is the coupling, etc...)</t>
+  </si>
+  <si>
+    <t>A good design leads to scalability and maintainability which is most important. It also allows other people to contribute their expertise on a subset of the project, without needing to know the whole.</t>
+  </si>
+  <si>
     <t>#SO 76313670</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/76313670</t>
   </si>
   <si>
+    <t>We are currently developing a set of Bicep libraries as part of our infrastructure as code overally strategy and while deployments that take a few minutes to run are no issue we have to consider a slightly different approach to long running tasks.
+Take, for example, SQL Managed Instance which can take 6+ hours to deploy into a virtual network. Application Gateway which can take a couple of hours and App Service Environment that can take 4+ hours. Is there a recommended approach to segragate these long running tasks in ARM or Bicep? Does Bicep have a "don't wait for result" option when a template is submitted?
+One appraoch that we had considered is deploying the large infrastructure pieces in a DevOps pipeline that is only run when we need to make a change to the architecture and the application centric (App Services, App Config, DBs etc) are ran via a different DevOps pipeline.
+I can't see any guidance on the Microsoft docs (ARM or Bicep) website so would appreciate some input.</t>
+  </si>
+  <si>
+    <t>The best practice with Bicep is to leverage it's dependency graph.Given the services you talk about, I'd consider them infrastructure fundamentals and would put them in another pipeline stage that would have more conditionality around when it ran.</t>
+  </si>
+  <si>
+    <t>That said, when you're dealing with services that take a significant amount of time to deploy (as you've listed), if you use the standard method as I've described then you're;
+Exacerbating the "developer inner loop" by front-loading all of the services to be tightly connected.
+Adding more complexity to the bicep module structure, you need to make sure that ASE creation doesn't wait for a connection string from your SQL MI deployment.</t>
+  </si>
+  <si>
     <t>#SO 77028441</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77028441</t>
   </si>
   <si>
+    <t>For context:
+I'm working on an Angular 15 app, where I distinguish between smart and dumb components. My smart components do have connection to services, whereas the dumb components only communicate via Inputs and Outputs with the smart component and do not get any services injected.
+Within the smart components I use a reactive declarative (rxjs) approach to react to events. However, by now these smart components involve many reactive streams which makes the component bloated.
+As these smart components are kind of "collectors" of many events and the "access" to the api service, I don't see reasonable way how I could break up the component into smaller parts.
+Question:
+I was thinking about using Design Patterns, e.g. the Facade Pattern, to declutter the component by putting the reactive streams into a separate service and the component would only have to subscribe to the final observables and handle the side effects (like UI updates).
+However, I wonder if this would be a smart approach and if there are better ways to deal with this situation.</t>
+  </si>
+  <si>
+    <t>Generally using a separate service for managing data is a valid approach. You can create "MySmartService", make it non-singleton, and declare it as a provider for MySmartComponent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps it makes sense to create several additional services - one for API , one for user events, etc. So every service has one purpose and follows single responsibility principle.
+</t>
+  </si>
+  <si>
     <t>#SO 77034818</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77034818</t>
   </si>
   <si>
+    <t>I create a function who take an argument with two architecture. I do not enforce rules to give user flexibility which is my headache now. Anyway.
+I want to check if the entry has a function in first level.If Typescript found a function at first level, I want it to return the type "slice" even if function are also present in deep level. As soon as it finds the function in first level, it should stop checking and return "slice".
+If no function is present at the first level, it should return "group". No need to check other levels.
+Note: the return should be either slice or group not an union slice | group
+slice if a function is present at first level otherwise return group
+The most closer solution to pass all my test case except one, was to reverse my check like this
+type GetType&lt;S, k = keyof S&gt; = S[k &amp; keyof S] extends Exclude&lt;S[k &amp; keyof S],Function&gt; ?  "group" : "slice"Works fine but fail with an empty object as property and return group
+//  This fail and give group as type. Expected type is slice 
+const entry = {
+  data: {} // empty object,
+  upload: () =&gt; {}
+}
+// This works and give slice as type as Expected 
+const entry = {
+  data: any value // empty object,
+  upload: () =&gt; {}
+}
+So yes, we can just find a way exclude {}. And that lead to all problem. Maybe I am tired and i can't see well . Anyway, I need a fresh eye to help me.</t>
+  </si>
+  <si>
+    <t>So I propose a more verbose but easier to get right strategy. First find all properties that are functions, and then check to see if any were found.</t>
+  </si>
+  <si>
+    <t>When you want a type that only cares about a subset of the properties of an object type, then a mapped type to filter that down is usually what you want.
+In general avoid type comparisons of large, complex object types is good, and you should compare more atomic bits. This is because there's a lot that could be a tiny bit different that's hard to debug.</t>
+  </si>
+  <si>
     <t>#SO 77059954</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77059954</t>
   </si>
   <si>
+    <t>I'm working on an application where one of the modules is responsible for scheduling appointments. I have some problems with creating correct aggregate roots.
+There are DailySchedules where the owner of the business can define working slots. Customers can schedule appointments and there are two invariants:
+appointment has to fit to working slot,
+appointment cannot overlap with another scheduled appointment
+Scheduled appointments can also be cancelled or postponed in the future.
+My main problem is with ensuring mentioned invariants and fit to other ddd rules at the same time, especially modifying only single AR in a single transaction.</t>
+  </si>
+  <si>
+    <t>#3 idea is to have DailySchedule and Appointment as the two AR and break the rule that there should be only one aggregate modified in a single transaction. It will look exactly like in #1 scenario, but I will be able to use optimistic locking on DailySchedule and persist new Appointment in a single transaction.</t>
+  </si>
+  <si>
+    <t>This is how you avoid complexities like multiple, distributed transactions across aggregates. However, this only works once. When you add a second aggregate, you have to embrace either 2-phase commits, distributed transactions, or eventual consistency.</t>
+  </si>
+  <si>
     <t>#SO 77070210</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77070210</t>
   </si>
   <si>
+    <t>I encountered this system design question in a interview and I didn't have the best answer.
+The question is: we want to hold a room for 5 mins for a user, how do we do that?
+The inventory data looks like this:
+Hotel-id room_type_id date total_inventory total_reserved
+123 001 2023-09-30 100 99
+123 001 2023-10-01 100 96
+The flow is once the user in the reservation detail page, the Reservation service first checked in cache for the inventory, then now there should be some kind of locking mechanism to lock a room for 5 mins. For 2023-09-30, there's still one room available so user A can proceed to the actual booking. If at the same time user B is trying to do the same thing, the system will know somehow there's a lock on this particular room type on this date and there is no more room available to book, hence the system will show "this room is not available"</t>
+  </si>
+  <si>
+    <t>I'd actually consider a database of some sort which inserts hold rows with an explicit expiry time on them</t>
+  </si>
+  <si>
+    <t>I'd actually consider a database of some sort which inserts hold rows with an explicit expiry time on them so that you can query it efficiently. It will give you lots of downstream advantages such as being able to easily extend the hold time, and being able to do things like find out historically interesting things like conversion rates.</t>
+  </si>
+  <si>
     <t>#SO 77143661</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77143661</t>
   </si>
   <si>
+    <t>An external process calculates a timestamp related to an ID, for example:
+id timestamp
+1 1695221055
+2 1695221079
+I have a Lambda function that I want to trigger when that timestamp is reached, and I need to have the ID of the fulfilled timestamp. In other words, when the time in UTC reaches that timestamp, I want the Lambda function to be triggered having that ID of the timestamp that made it trigger. Please note that this record can be updated due to my external process, and the timestamp may be set to a further date.
+The architecture I considered was using a TTL (Time to Live) feature in DynamoDB with that timestamp column set as TTL, and DynamoDB Streams listening to it, so when deleted, trigger my lambda. However, DynamoDB can take up to 48 hours to delete the record, which would result in the deletion event arriving much more later than I require, due to I need almost real time.
+Is there a way to achieve this? It doesn't have to be in DynamoDB; another type of architecture may work for me.</t>
+  </si>
+  <si>
+    <t>For this you can use EventBridge Scheduler. So when you create the item, capture that creation in DynamoDB Streams, have a Lambda function that creates an EventBridge Scheduler that invokes a Lambda function at the time you specify and with the data you require.</t>
+  </si>
+  <si>
+    <t>EventBridge scheduler has a granularity of 1 min, instead of days compared to TTL.</t>
+  </si>
+  <si>
     <t>#SO 77159234</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77159234</t>
   </si>
   <si>
+    <t>Question - What's the mental model people use for control plane vs data plane? How should I view control plane vs data plane for different kinds of resources?</t>
+  </si>
+  <si>
+    <t>The rule of thumb for control vs data plane would be:
+data plane services do not depend on control plane ones, there is no Runtime dependency, only logical one. 
+data plane must have a better availability numbers (SLA), than control plane.
+typically, we care a bit more about latency in data plane, than control plane.</t>
+  </si>
+  <si>
+    <t>data plane services do not depend on control plane ones, there is no Runtime dependency, only logical one. In other words, if my control plane services are down, my control services are still working fine (clearly new users won't be able to create new accounts, but existing users may stream as usual)
+data plane must have a better availability numbers (SLA), than control plane. This is not to say that control plane is under designed, but if I need to make a development/support trade off, I would pick data plane priorities first
+typically, we care a bit more about latency in data plane, than control plane. If I have to make a trade off on which part to optimize, I would pick data plane features as those affect my customers day to day experience</t>
+  </si>
+  <si>
     <t>#SO 77180441</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77180441</t>
   </si>
   <si>
+    <t>I'm confused about the architecture of mirroring a topic among an AWS MKS cluster (source) to another Apache Kafka cluster (target).
+The source cluster also uses AWS Glue Schema registry, so I need to have that Avro topic decrypted as JSON topic in my target cluster.
+As for the operation, I'm using confluentic cp-kafka-connect image, which I have rebuilt including AWS jars (aws-msk-iam-auth-1.1.9-all.jar, schema-registry-serde-1.1.16.jar, schema-registry-kafkaconnect-converter-1.1.16.jar). These jars are added to classpath /usr/share/java/kafka and can be leveraged from the kafka binaries.
+My main question is which binary is proper for the operation and which connectors should be used as well (mm2, source, sink), so the deserialization also happens at target cluster.
+connect-mirror-maker (2.0)
+kafka-mirror-maker (legacy)
+connect-distributed
+connect-standalone
+P.S. A configuration example would be great.</t>
+  </si>
+  <si>
+    <t>You should always use ByteArrayConverter when mirroring</t>
+  </si>
+  <si>
+    <t>You should always use ByteArrayConverter when mirroring, so that no deserialization issues can occur and the bytes are unmodified in flight</t>
+  </si>
+  <si>
     <t>#SO 77185806</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77185806</t>
   </si>
   <si>
+    <t>Lets say we have a typical implementation of the ports/adapter pattern:
+@RestController
+private class OrderController {
+    private final CreateOrderPort createOrderPort;
+    @PostMapping
+    void createOrder(String customerId) {
+        createOrderPort.createOrder(customerId);
+    }
+}
+private class KafkaConsumer {
+    private final CreateOrderPort createOrderPort;
+    @PostMapping
+    public void createOrder(CreateOrderEvent event) {
+        createOrderPort.createOrder(event.getCustomerId());
+    }
+}
+public interface CreateOrderPort {
+    void createOrder(String customerId);
+}
+@Service
+public class CreateOrderService implements CreateOrderPort {
+    public void createOrder(String customerId){
+        orderRepository.save(new Order(customerId));
+    }
+}</t>
+  </si>
+  <si>
+    <t>having just an interface</t>
+  </si>
+  <si>
+    <t>You can test it more easily, because you need less effort to create a mock.
+In a more complex scenario you might want to create a mock class that implements the input port or you might want to create a dedicated class for better readability.</t>
+  </si>
+  <si>
     <t>#SO 77224893</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77224893</t>
   </si>
   <si>
+    <t>I have a Microservice that is having a Postgres database and I have some CRUD operations that I do with this service. For some of the insert operations, I need to pass on the newly inserted record to another service and I'm using a messaging system in between.
+The architecture pattern is like where I run several instances of this Microservice behind a load balancer and every insert is processed by one of the running instance of the Microservice. To implement the transactional outbox, I have a table where I write the intent and I have a simple polling mechanism in the Microservice itself that polls this table every minute to fetch the intent from the outbox table and sends it to a messaging system. Now I have several questions:
+If I run multiple instances of this Microservice, then I might end up having to select the same records by these multiple instances and this could result in duplicates, unnecessary resource utilization etc.,</t>
+  </si>
+  <si>
+    <t>Personally I would go with just one instance of the outbox processor (i.e. separate service for it or some infrastructural magic to have only one if the service instances to perform the processing)</t>
+  </si>
+  <si>
+    <t>Personally I would go with just one instance of the outbox processor (i.e. separate service for it or some infrastructural magic to have only one if the service instances to perform the processing) and I would argue that this should be enough in most of the cases (still you will need to have a dedupe logic on the subscriber side but this will basically solve the issues with unnecessary resource utilization).</t>
+  </si>
+  <si>
     <t>#SO 77246412</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77246412</t>
   </si>
   <si>
+    <t xml:space="preserve">I'm developing an Android application using Jetpack Compose, and I'm facing a design decision regarding handling different user types, such as admin and user, within the app. </t>
+  </si>
+  <si>
+    <t>Currently, my application follows the single activity architecture.</t>
+  </si>
+  <si>
+    <t>While it is possible to solve all those problems, handling it in a single activity where you have a clear admin state as a LiveData that allows you to quickly update the UI as needed, sounds like a much simpler approach to me.</t>
+  </si>
+  <si>
     <t>#SO 77290436</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77290436</t>
   </si>
   <si>
+    <t>Consider the following example in C# that I see in many languages of a use case that registers the user with the system, normally I always see a single execute or invoke function to perform the use case action.
+public class SignUp
+{
+    private readonly IRepository _repo;
+    public SignUp(IRepository repo)
+    {
+        _repo = repo;
+    }
+    public User Execute(UserData data) 
+    {
+        return _repo.CreateUser(data);
+    }
+}
+The user may already exist, an error may also occur, or there may be an error validating some information such as email and password, and I must pass this same information back to the controller so that it can pass the correct response code (500, 201, 200, 400...).
+Thinking like this, I don't see much point in a single function doing all this work, so if I, for example, make it return an enum with the status of the operation, and also create a GetError() function to obtain a possible error that occurred during the operation or similar Is this ok or does this violate solid's principle of single responsibility?</t>
+  </si>
+  <si>
+    <t>little is gained if you move all of that code somewhere else. It doesn't much matter whether you move that code to a private helper method on the Controller, or to a separate Signup class:
+public class SignUp
+{
+    private readonly IRepository _repo;
+    public SignUp(IRepository repo)
+    {
+        _repo = repo;
+    }
+    public ActionResult Execute(UserData data) 
+    {
+       // Lots of complicated code, including:
+        var user = _repo.CreateUser(data);
+        // More complicated code goes here...
+        return OkObjectResult(user);
+    }
+}
+This would imply that your Controller action now looks like this:
+public ActionResult SignUp(UserData data)
+{
+    return new SignUp(_repo).CreateUser(data);
+}</t>
+  </si>
+  <si>
+    <t>What would be the point of that?
+A typical motivation for introducing a class like SignUp is to separate concerns. Notice that, as shown here, the hypothetical SignUp class has more than one responsibility. It makes business decisions, but it also handles ASP.NET-specifics, which implies that it handles HTTP or user-interface concerns. This is manifested in the return type (ActionResult) as well as the use of Ok or OkObjectResult.</t>
+  </si>
+  <si>
     <t>#SO 77337477_1</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77337477</t>
   </si>
   <si>
+    <t>Some Android multi-module architecture examples show that domain layer depends on data. Others are vice versa.
+Android Developers site says:
+The domain layer is an optional layer that sits between the UI layer and the data layer.
+Also it shows picture where domain depends on data: domain depends on data
+Meanwhile another article on proandroiddev.com says:
+1.
+Domain Layer is the most INNER part of the onion (no dependencies with other layers) and it contains Entities, Use cases &amp; Repository Interfaces. Use cases combine data from 1 or multiple Repository Interfaces.
+One of the most common mistakes is to have your app driven by your data layer/specific data system.
+Domain Layer does NOT depend on Data Layer.
+And appropriate image shown: enter image description here
+So could you please describe which approach is better for Android multi-module and why?</t>
+  </si>
+  <si>
+    <t>You want to implement a solution just &amp; just for Android, the Android developer's doc is more suitable for it.</t>
+  </si>
+  <si>
+    <t>In Android developer's doc, the Data Layer consists of Entity &amp; Repository classes. These classes are required in Usecase classes &amp; hence there is dependency of Domain layer on data layer. In this architecture, the assumption is that you are building the App only for Android, so there is no need of creating an abstraction for Repository classes, since it would create more complexity.</t>
+  </si>
+  <si>
     <t>#SO 77337477_2</t>
   </si>
   <si>
+    <t>You want to create a project which can target for Multiple platform (Android, iOS, desktop), the ProAndroidDev's architecture is more suitable.</t>
+  </si>
+  <si>
+    <t>In ProAndroid dev's doc, the assumption is that maybe you are building the App for Android for now and later you may introduce other platforms or you are targeting for multiple platforms now only. In this case, the Repository class abstraction become a lot more important, since by adding it in early stage, you may reduce your future bugs/refactor. In this doc, to achieve above purpose, instead of Data layer, the domain layer now contains the Usecase, Entity &amp; Repository interface classes &amp; Data Layer contains the Repository Impl classes. As a result, the domain layer does not need any dependency &amp; hence it should not have any dependency on other layer.</t>
+  </si>
+  <si>
     <t>#SO 77344662</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77344662</t>
   </si>
   <si>
+    <t>I had a situation where I am going to develop two android applications and lets say the first application App A will be having the different libraries in it and the second application lets say App B that I develop should be able to load the libraries from the App A. User should not move between applications using Intents, user should be in the App B and he should never know that the libraries are from App A. We need to develop the applications such that user should feel that he is loading the libraries from the same application itself but in reality those applications will be in the other application.
+I think that we can achieve this by Package Visibility but not in greater detail. It would be really helpful if someone help me step by step process.
+I had thought of Content Providers, IPC Mechanisms like Messenger and AIDL but instead of that complex architecture I found that we can implement this by using the package visibility concept. Firstly we need to register the package of App A in App B and then load the libraries from App A in the App B. If someone knows how I can do this step by step, it would be really helpful for me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you do not like IPC, do not have two apps. </t>
+  </si>
+  <si>
+    <t>In addition to the complexity for you, there is complexity for the user. App B will not work — either entirely or in part — if App A is unavailable for any reason, such as:
+It has not been installed
+It has been installed but the current user cannot run it, such as via a restricted profile
+(there might also be a scenario involving work profiles, but I don't have enough experience with those to say for certain)
+It will be much simpler for everybody if you have a single app, rather than two apps.</t>
+  </si>
+  <si>
     <t>#SO 77352234</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77352234</t>
   </si>
   <si>
+    <t>I have some doubts on overall architecture of complex, data driven UIs. Taking the usual blog page example with a sidebar, header and logo where the idea is that:
+Header and logo are static and can be server side component
+Sidebar is static and can be server side component
+Footer is static and can be server side component
+Blog posts are static and can be server side component
+Only a search functions and a like button may be interactive and would be a client side component
+In the real world, when I build this it would rather be like:
+my sidebar is collapsible. So it has user action, it needs to show or hide depending on user choice. So I need to wrap it in a client side component that answers to a state
+my blog posts sit inside tabs or accordion. I need to wrap my blog content in a client side component because again, content shows or hides depending on user interaction and state
+my blog posts component will have a toggler with layout options, say between grid and list. I would need to wrap them in a client side layout component that answers to user input and state
+my logo depends on device/window size. I need to access the window object to decide whether I want a mobile or desktop version of the logo. For this I need client side.
+my footer has a desktop or mobile layout, I need to decide which one to load. Again, I need to access the window object or a 3rd party library that uses hooks
+if I added a table to display data I may want to make it sortable or filterable - again content, or presentation of content, will be subject to user interaction
+In the end, everything on my page is subject to some sort of user interaction or user induced state. I cannot imagine a UI I have built over the last few years that simply loads static content in an isolated manner.
+The only thing that occurs to me is that for SEO I may load some data driven HTML as a skeleton via server side component so that SE Bots can read the data immediately, and then display with the interactive client side equivalent once it's ready. Not sure if that's possible using &lt;Suspense /&gt; I may have to do a little reading.
+Otherwise, with the above use case, am I missing something? I simply can't think of a real life use case for server side components except for data fetching because every single item on my page will always be subject to user interaction (hence: user interface).</t>
+  </si>
+  <si>
+    <t>ou also have the option of rendering SSR components as children of CSR components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you also have the option of rendering SSR components as children of CSR components, which would allow you to more dynamically choose how to structure your project.
+</t>
+  </si>
+  <si>
     <t>#SO 77361294</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77361294</t>
   </si>
   <si>
+    <t>I Developed two microservices and I integrated RabbitMQ also as a Message Broker. My concern is, Does microservice architecture allows inter-communication using direct API Calls or it totally depend on Message Broker for intercommunication?
+As a example :- Immediate important business scenarios like, Customer place a order, this should contain API Calls to customerAPI to orderAPI rather than depending on Message Broker which consider as Asynchronous operations.
+    [Route("CallOrder")]
+    [HttpGet]
+    public async Task&lt;IEnumerable&lt;Product&gt;&gt; CallOrder()
+    {
+        logger.LogInformation("Call product controller from customer and get products");
+        return  await httpClient.GetFromJsonAsync&lt;IEnumerable&lt;Product&gt;&gt;("http://shoppingapi-service/Product");
+    }
+I just want to clarify is According to Microservice Architecture, Do we actually use API Calls to communicate one microservice to another or we totally depend on Message brokers. Or we use both</t>
+  </si>
+  <si>
+    <t>In microservice architecture you are not limited to asynchronous style of communication (see Pattern: Messaging @microservices.io), in some cases synchronous RPS/RPI can be used too (Pattern: Remote Procedure Invocation (RPI) @microservices.io) though due to the nature of the microservice architecture and problems which you want to solve with it</t>
+  </si>
+  <si>
+    <t>In microservice architecture you are not limited to asynchronous style of communication (see Pattern: Messaging @microservices.io), in some cases synchronous RPS/RPI can be used too (Pattern: Remote Procedure Invocation (RPI) @microservices.io) though due to the nature of the microservice architecture and problems which you want to solve with it usually it heavily favors asynchronous options due to it's ability to provide better decoupling between services and scalability.</t>
+  </si>
+  <si>
     <t>#SO 77386644</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77386644</t>
   </si>
   <si>
+    <t>I'm developing a microservices-based system where one of the microservices is a scheduler responsible for handling a large number of dynamic jobs. These jobs are created, modified, and deleted during runtime via the microservice's API.
+My plan is to use Kubernetes CronJobs to manage these jobs. However, I'm concerned about the scalability and performance implications of potentially dealing with thousands of dynamically created CronJobs.
+Is using Kubernetes CronJobs a recommended approach for efficiently managing a large number of dynamic jobs within a microservices architecture? If not, what alternative strategies or best practices should I consider for this use case? Any insights or recommendations from the community would be greatly appreciated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The alternative is to embed this scheduling logic into the app itself, by using some scheduled services (lots of libs have this, depends on your tech stack). </t>
+  </si>
+  <si>
+    <t>This pros is that you're going to have better observability and better control.</t>
+  </si>
+  <si>
     <t>#SO 77390082</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77390082</t>
   </si>
   <si>
+    <t>I am currently facing a problem with creating an iFrame for my ChatBot.
+The Situation is as follows. User A wants to embed my ChatBot on his website www.websiteUserA.com. User A is recognized by my Backend when he accesses myapp.com and logs in securely using Google Auth.
+The problem now is that the customers of User A, that are accessing www.websiteUserA.com, need to also be identified as customers of User A. To do that, I thought of introducing a jwt, that I could use the setup claims that I can later check and validate upon making a request.
+The problem now, is that if I expose the Token in any kind of form to the frontend. Anyone, a "Hacker", would then be able to identify as "Customer of User A" and could theoretically use the ChatBot on his own Website, while having User A be accounted for all the usage.
+This is sadly not possible under any circumstances, to allow such easy impersonation.
+Can you please help me? I Don't know how I should secure my application, as whatever approach I choose, I still find myself vulnerable. Can anyone recommend me a better approach? How do big Tech companies do this? I'd imagine Google, Facebook or any other huge company would easily figure this out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First thing's first: HTTPS.
+Next, instead of sending JWT upon every request, you could make it a one-timed token, that is, you would have a blacklist of JWTs that have not expired yet, but were already used. </t>
+  </si>
+  <si>
+    <t>First thing's first: HTTPS. This way your requests use encryption for the sake of security. Hence, if JWT is a POST parameter or a bearer token under HTTPS, then you will have a fare amount of security.
+Next, instead of sending JWT upon every request, you could make it a one-timed token, that is, you would have a blacklist of JWTs that have not expired yet, but were already used. This way, if your user authenticates using a JWT that was valid at the time, then by virtue of using that JWT, the JWT will become invalid and, if an attacker even manages to steal it, it will no longer be useful.</t>
+  </si>
+  <si>
     <t>#SO 77395787</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77395787</t>
   </si>
   <si>
+    <t>I'm creating a basic CRUD application with Blazor, .NET 6 and EF Core 6 with lazy loading.
+I've noticed a lot of integration issues when creating Web Component -&gt; Service -&gt; Repository -&gt; Generic Repository pattern. The issue that bugs me the most is when creating nesting components the tracking/disposal of EF Context seems to break a lot.
+I've also seen this video on how to use it correctly and I'm not sure if that is correct that you should instantiate context every time when doing a query to DB? Also the problem rises when you want to add some custom logic to the queries, like pagination.
+So, for me this mitigates the need of having generic repository since you have to pass in the main query (context.Set()) and build up the query. This way of doing it feels very unflexible but if I don't do it this way I get a lot of tracking errors from EF.
+Also, currently I have a situation where I'm loading users in EditUser component and pushing it to another component where I'm editing Group of that User. Upon saving I get tracking errors regarding the Group Id that it is already being tracked.
+My question is mostly a comment on this and if someone has any good Blazor Serverexperience or a repository to show the architectural approach to repository pattern with Blazor Server. Also, an additional question would be again a comment on similar pitfalls that Blazor Serverseems to offer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would avoid a Generic Repository pattern. </t>
+  </si>
+  <si>
+    <t>The reason is that it either introduces complexity or ends up crippling the capabilities that EF can provide. (or both)</t>
+  </si>
+  <si>
     <t>#SO 77401552</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77401552</t>
   </si>
   <si>
+    <t>What is best practice of bloc usage with nested data, when I have a list view, a detail view of the selected record and maybe a detail view of a subrecord?
+Let's say I have an app, showing some reports.
+Option A) One bloc for each view (e.g. AllReportsBloc, ReportsDetailBloc, ContactDetailBloc)
+image of architecture option a
+Option B) One single bloc for all three views (e.g. ReportsBloc)
+image of architecture option b
+I've tried both of them but neither option a nor option b seems to be a solid solution</t>
+  </si>
+  <si>
+    <t>Option A is the ideal answer.
+Since all of the blocs depends on the same repository, you can create a stream or a variable that can hold the updated Reports inside the repository.</t>
+  </si>
+  <si>
+    <t>This will listen to the updates coming from the exposed stream of the repository. In this way, you avoided the bloc-to-bloc communications and handled the logic for single-source of data properly.</t>
+  </si>
+  <si>
     <t>#SO 77448838</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77448838</t>
   </si>
   <si>
+    <t>I have a budget entity in my domain which can be closed by the user if the budget is open. This means if the budget opens today and closes in seven days, in between this time I can close it, not before (I'd have to delete it), not after (can't do any action).
+This time constraint raised a doubt: should I add a validation in my domain code for that, like the one below, or should the validation be in the controller that will access a service which will access the domain?
+class Budget {
+  ...
+  public close(): void {
+    if (this.isOnPeriod()) {
+      this.closed = true
+    }
+  }
+  private isOnPeriod() {
+    if (new Date() &lt; this.closing_date) {
+      throw new BudgetIsClosedError()
+    }
+    if (this.opening_date &gt; new Date()) {
+      throw new BudgetIsNotYetOpen()
+    }
+    return true
+  }
+  ...
+}
+I don't know how to explain it, but it this seem like this is business logic, although it also seems like this case (of not being on the period) will never even arrive to the domain because I am going to have validation for the data that arrives in the controller (but have in mind I don't know all the business rules and requirements yet).</t>
+  </si>
+  <si>
+    <t>The stuff outside of the domain model is not responsible for business policy, but is responsible to providing information to the domain model.
+So your example might look something like this:
+  public close(Date today): void {
+    if (this.isOnPeriod(today)) {
+      this.closed = true
+    }
+And somewhere else you would have code that looks like:
+Date today = new Date();
+Budget budget = someRepository.get(/* whatever */);
+budget.close(today);</t>
+  </si>
+  <si>
+    <t>One additional advantage to this design: it is really easy to test that Budget::close handles all of its edge cases correctly because in the test you can pass whatever date you want.</t>
+  </si>
+  <si>
     <t>#SO 77476674</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77476674</t>
   </si>
   <si>
+    <t>I am trying to implement clean architecture in my blazor server project. In my application layer I have this service.
+public class GetOrganizationDetailQuery : IGetOrganizationDetailQuery
+{
+    private readonly IDatabaseService _database;
+    public GetOrganizationDetailQuery(IDatabaseService database) 
+    {
+        _database = database;
+    }
+    public OrganizationDetailModel Execute(Guid id)
+    {
+        var organization = _database.Organizations
+                        .Where(x =&gt; x.Id == id)
+                        .Select(x =&gt; new OrganizationDetailModel()
+                        {
+                            Id = x.Id,
+                            Name = x.Name
+                        })
+                        .Single();
+        return organization;
+    }
+}
+The interface is also defined in the application project.
+public interface IDatabaseService
+{
+    DbSet&lt;Domain.Organization&gt; Organizations { get; }
+    void Save();
+}
+My data layer relies on the application layer, and it defines an implementation of the above interface.
+public class DatabaseService : DbContext, IDatabaseService
+{
+    ...
+    public DbSet&lt;Organization&gt; Organizations { get; set; }
+    public void Save()
+    {
+        this.SaveChanges();
+    }
+}
+Finally in my UI layer I try to inject the query so I can use it on a page.
+Program.cs
+builder.Services.AddScoped&lt;IGetOrganizationDetailQuery, GetOrganizationDetailQuery&gt;();
+This throws an exception; the service cannot be constructed.
+Is there any way to fix this issue without adding a reference to the data layer from my UI layer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimately you need to reference all projects where interfaces and implementations are defined to be able to use dependency injection.
+My preference is to move all dependency registration into a dedicated project. </t>
+  </si>
+  <si>
+    <t>This (in my opinion) keeps the app cleaner and means that I can avoid referencing implementation projects (e.g. Entity Framework implementations).
+The downside with this approach is that you need to be able to abstract the dependency container itself, but this (again, my opinion) is a worthwhile trade-off.</t>
+  </si>
+  <si>
     <t>#SO 77482900</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77482900</t>
   </si>
   <si>
+    <t>What is the best way to go about backfilling a new column with values that are from Go application code? Ideally I would go through each row, call the Go code, and use the return value as the column value. The Go code is stateful. That is, it acts on data structure that is updated on every new row and from this information computes a value.
+What I'm thinking about doing is having a migration that would add the new column as nullable, and then after the migration, run a Go program that would backfill the rows. However, it'd be better if all of this can be done in one migration, especially since this column should be NOT NULL from the start.
+We use Flyway for migrations. Our database is Postgres 11.5.</t>
+  </si>
+  <si>
+    <t>Update the application to gracefully handle rows with a sentinel value in the new column before timestamp 123. 
+Add the new column in a migration with a non-null constraint and the default sentinel value. 
+Run the go program to update the sentinel value to a good value for rows before timestamp 123.</t>
+  </si>
+  <si>
+    <t>This approach requires a change to the application, but doesn't require a maintenance window. It also ensures that the migration cannot fail because constraints are not met at migration time.</t>
+  </si>
+  <si>
     <t>#SO 77542899</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77542899</t>
   </si>
   <si>
+    <t>I'm trying to implement repository layer of clean architecture based on SqlAlchemy. For now I'm trying to figure out how to work with filtering in different cases. The code:
+import logging
+from typing import Literal
+from faker import Faker
+from sqlalchemy import create_engine, ForeignKey, select, String, BinaryExpression
+from sqlalchemy.orm import DeclarativeBase, Mapped, mapped_column, relationship, Session, selectinload
+engine = create_engine("sqlite:///:memory:")
+fake = Faker()
+logging.basicConfig()
+logger = logging.getLogger('sqlalchemy.engine')
+logger.setLevel(logging.INFO)
+ContactTypeCode = Literal["email", "phone"]
+class Base(DeclarativeBase):
+    pass
+class User(Base):
+    __tablename__ = "users"
+    id: Mapped[int] = mapped_column(primary_key=True, autoincrement=True)
+    first_name: Mapped[str]
+    last_name: Mapped[str]
+    contacts: Mapped[list["Contact"]] = relationship(back_populates="user")
+class ContactType(Base):
+    __tablename__ = "contact_types"
+    id: Mapped[int] = mapped_column(primary_key=True, autoincrement=True)
+    code: Mapped[ContactTypeCode]
+    contacts: Mapped[list["Contact"]] = relationship(back_populates="contact_type")
+class Contact(Base):
+    __tablename__ = "contacts"
+    id: Mapped[int] = mapped_column(primary_key=True, autoincrement=True)
+    contact_type_id: Mapped[int] = mapped_column(ForeignKey("contact_types.id"))
+    value: Mapped[str]
+    user_id: Mapped[int] = mapped_column(ForeignKey("users.id"))
+    user: Mapped["User"] = relationship(back_populates="contacts")
+    contact_type: Mapped["ContactType"] = relationship(back_populates="contacts")
+Base.metadata.create_all(engine)
+def create_user():
+    return User(first_name=fake.first_name(), last_name=fake.last_name())
+def prepare(session):
+    # create user with contacts
+    user_w_contacts = create_user()
+    contact_type = ContactType(code="phone")
+    contacts = [
+        Contact(value=fake.phone_number(), user=user_w_contacts, contact_type=contact_type)
+        for _ in range(2)
+    ]
+    user_w_contacts.contacts = contacts
+    # create user without contacts
+    user_wo_contacts = create_user()
+    session.add_all([user_w_contacts, user_wo_contacts])
+    session.commit()
+class UsersRepository:
+    base_model = User
+    def __init__(self, session):
+        self._session = session
+    def filter(self, *whereclause: tuple[BinaryExpression]):
+        stmt = select(self.base_model).where(*whereclause)
+        users = self._session.scalars(stmt).all()
+        return users
+    # def get_users_with_contacts(self):
+    #     stmt = select(self.base_model).join(self.base_model.contacts)
+    #     users = self._session.scalars(stmt).all()
+    #
+    #     return users
+    #
+    # def get_users_with_contacts_selected(self, *whereclause: tuple[BinaryExpression]):
+    #     stmt = select(self.base_model).options(selectinload(self.base_model.contacts)).where(*whereclause)
+    #     users = self._session.scalars(stmt).all()
+    #
+    #     return users
+    #
+    # def get_users_without_contacts(self, *whereclause: tuple[BinaryExpression]):
+    #     pass
+    #
+    # another combinations of joining, options, filters, etc
+According to clean architecture should I have for every case separate list filter method? I see it convenient for maintaining and testing. Or should I develop single filter method?</t>
+  </si>
+  <si>
+    <t>So if you want to follow Clean Architecture very strict you would create separate "filter" methods, one for each use case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This would not only allow you to completely hide the database schema but would also allow you to create perfectly optimized database queries.
+</t>
+  </si>
+  <si>
     <t>#SO 77579165</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77579165</t>
   </si>
   <si>
+    <t>This Repository I'm learning how to develop apps along clean architecture while using Riverpod with Flutter. However, there are implementation methods for which the benefits are unclear.
+I can see the advantage of creating an abstract class for the Datasource layer part and directing dependencies to the abstract class rather than the concrete class. (Useful for improving the ease of refactoring when changing the package used or changing the concrete Datasource class for each platform) However, I don't understand the benefit of dividing the Repository layer class into abstract classes and concrete classes. I'm using Reiverpod so it shouldn't be for DI purposes. Also, I don't understand the benefit of creating an abstract class over a concrete class, such as in the Usecase layer.
+Why is the Repository class implemented with an abstract class and a concrete class? What are the benefits?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think the pattern is learned from Java, where "implements" (for mocking during testing) can only be used on abstract classes.
+But in Dart, we can use "implements" on a concrete class, so it is now my general pattern to make a concrete class for the repository, and merely "implement" that for my mock repository for testing. </t>
+  </si>
+  <si>
+    <t>Then, there's only two files to keep in sync, not three. Simple economy without loss of responsibility.</t>
+  </si>
+  <si>
     <t>#SO 77596691</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77596691</t>
   </si>
   <si>
+    <t>Following a tutorial on JWT HttpOnly cookie authorization in Spring boot, I have built a simple app that registers, logs in and logs out a user. It maps only post requests to /login /signup and /logout as a result. The Spring Security configuration in the app filters all incoming requests and populate the SecurityContext with authenticated object if the token is of a valid authenticated user.
+Now the problem is that I want to build a separate Spring Boot app that handles other logic so that I can follow the microservice architecture paradigm. As the already built app's security config already handles the authorization in the HTTP request itself, I want to utilize this service to automatically authorize each request before it is forwarded to the next service.
+I read about API Gateaways and the solution makes sense but seems too abstract to me to start building an implementation. Also I have a couple of questions: should the request first go to the intended service then to the auth service and then back to the intended one OR go to the auth service and then to the intended service? Which way is best practice? How to effectively connect the two services?</t>
+  </si>
+  <si>
+    <t>1.Design the API Gateway: Determine the responsibilities of the API Gateway, such as authentication, authorization, rate limiting, and request routing. In your case, the API Gateway will handle authentication and authorization.
+2.Create a new Spring Boot app: Start by creating a new Spring Boot app that will serve as your API Gateway. This app will be responsible for receiving all incoming requests and forwarding them to the appropriate microservice.
+3.Configure the API Gateway: In the API Gateway app, configure the routes for each microservice. For example, you can define routes like /users that will be forwarded to the user service. You can also configure the authentication and authorization filters to validate the incoming requests using the existing security configuration from your already built app.
+4.Implement request forwarding: Once the request is authenticated and authorized, forward it to the intended microservice. You can use Spring's RestTemplate or WebClient to make HTTP requests to the microservices.
+5.Handle responses: Receive the response from the microservice and return it to the client. You can also handle any error scenarios and provide appropriate error messages.</t>
+  </si>
+  <si>
+    <t>for your order of request flow - it is generally recommended to first authenticate and authorize the request in the API Gateway before forwarding it to the intended microservice. it will ensures that only authenticated and authorized requests are processed by the microservices. and to effectively connect the two services, you can use service discovery mechanisms like Netflix Eureka or HashiCorp Consul. these tools allow services to register themselves and discover other services dynamically. You can also use load balancers to distribute the incoming requests across multiple instances of the microservices. and by implementing an API Gateway, you can centralize the authentication and authorization logic and ensure consistent security across your microservices. It also provides a single entry point for clients to interact with your microservices, simplifying the overall architecture.</t>
+  </si>
+  <si>
     <t>#SO 77615623</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77615623</t>
   </si>
   <si>
+    <t>I'm currently developing 2 different multiplayer games on Unity where the user has to register (and subsequently log in) to be able to play.
+The way I would like it to work would be to only have a single account, thus being able to register only once and then play both games with the same account (think Battle.net for WoW, HS, ...).
+Of course, each of the 2 games has its own specific items, coins, etc. that would be stored in their database. What I need is a good way to lay down the DB architecture (I'm using SQL).
+I figured that could use a single database in the back-end with a table for authentication and then multiple tables for each game, but I see some problems with this:
+the single DB would look already confusing with 2 games, let alone if I want to add more games in the future
+if one game was to gain popularity, I couldn't scale its part of the DB on its own, but would need to scale the whole DB
+Another idea would be to have a single DB dedicated to authentication (with the users' accounts) and then one DB per game with objects, coins, etc. This would of course make the architecture more complicated.
+Do my concerns make sense? Is one of those 2 ideas the way things are made in the industry? Are there better ways? What are those and what would be a way to implement them correctly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If each game requires registration, and uses the same registration, then the registration should be separate from the games. </t>
+  </si>
+  <si>
+    <t>This prevents the two games from duplicating registration functionality. Since registration is logically separate, the data should be separate as well, meaning that you have an authentication service that stores player identities and an ID. Then in the games, store this ID for each player. Players authenticate against your service with their credentials and receive a JWT encoding their player ID. This is so separate from the games that you can just buy it off the shelf. You can maximize your chances of making a successfuly game by allowing your game devs to concentrate on game dev.</t>
+  </si>
+  <si>
     <t>#SO 77631866</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77631866</t>
   </si>
   <si>
+    <t>I was looking for some general advice for the following situation. Here is some context:
+An organization has an API that is used by multiple internal consuming applications to create, update and view specific information that is an important part of the calculations that these applications provide to end users, the data that this API provides is an input by the user which basically represents facts data about their org (sets of POST, PUT, GET endpoints). At the same time, it is important for the end users that this information they input is the SAME across applications which is why the central database is a big benefit as it offers a source of truth (this is why this API and its database have multiple consumers).</t>
+  </si>
+  <si>
+    <t>The organization has recently decided that increasing performance of these consuming applications, as well as removing an over-reliance on this centralized database and API, is something that should be pursued. One approach being discussed is to continue to publish data to the central source of truth but instead of always retrieving the data from it via GET (which is where performance issues happen), to store a local database which is a copy of the central source which then gets continuously updated by change Events that this API generates. Specifically the retrieval of information (not publishing it) is where these issues come up.</t>
+  </si>
+  <si>
+    <t>I would argue that this solution is not the fragile, this is actually quite a common approach in microservice/async architectures and there are options to negate effect caused by sync failures by using appropriate message handling. The main problem with it is that you are switching to eventual consistency from so called strong consistency which based on the question is still desired (though you need to make sure that it actually is, there are quite a lot of cases when those requirements can be relaxed)</t>
+  </si>
+  <si>
     <t>#SO 77638871</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77638871</t>
   </si>
   <si>
+    <t>I am developing a Vertx-Spring based Java microservice that will handle creation, updates and deletion of auctions. It will also close auctions based on a timer. What are my options on achieving this functionality? Should I use the vertx.setTimer() methods to set timer events to close such auctions?</t>
+  </si>
+  <si>
+    <t>Instead, when you create a new auction you should add a closed_at timestamp field. Your backend services should dynamically generate an is_closed flag such that is_closed = now() &gt;= closed_at.</t>
+  </si>
+  <si>
+    <t>This way your backend services can validate any operations against the auction (bids, cancels, etc...) and your frontend will report the state of the auction, but the closed condition will have millisecond precision and you'll never try to close the same auction twice.</t>
+  </si>
+  <si>
     <t>#SO 77652717</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77652717</t>
   </si>
   <si>
+    <t xml:space="preserve">Our backend follows a three-layer architecture:
+- Presentation: This layer contains the endpoints.
+- Services: Here, we implement the business logic.
+- Data: This layer includes the Data Access Objects (DAOs) 
+    responsible for communicating with the database.
+In addition to this structure, we have some folders:
+- Models: This folder contains interfaces that represent our business objects.
+- Utils: Here, we manage logic that is not directly related to 
+    the business domain, such as handling dates, strings, and numbers.
+Now, regarding the placement of classes that implement the strategy pattern in this architecture:
+Considering that the implementation of the strategies involves business logic that may require access to different services, it can be challenging to avoid circular dependencies
+</t>
+  </si>
+  <si>
+    <t>It is possible to create a layer which can be called as Common and put all classes that may be required by different services.</t>
+  </si>
+  <si>
+    <t>Having such a library, it is possible to avoid circular dependencies.</t>
+  </si>
+  <si>
     <t>#SO 77726069</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77726069</t>
   </si>
   <si>
+    <t>As shown in the figure, following the hexagonal architecture pattern, the storage interface seems to be placed in the application layer. But according to the DDD specification, the data storage interface should belong to the domain layer. So what is to be done?</t>
+  </si>
+  <si>
+    <t>We design an application layer to address some concerns (like opening db connections, starting and committing transactions, etc)</t>
+  </si>
+  <si>
+    <t>We design an application layer to address some concerns (like opening db connections, starting and committing transactions, etc) that can be reused on many presentation layer methods (separation of concerns). The application layer exposes use case scenarios. The presentation layer initiates the application layer use cases.</t>
+  </si>
+  <si>
     <t>#SO 77745340</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77745340</t>
   </si>
   <si>
+    <t>We are developing a C# program that utilizes a third party backend. We can't substitute this backend for something else, no matter what.
+The API for this backend is provided by the backend manufacturer in the form of two DLLs and is currently built on .NET Framework 4.6.1 and will soon be upgraded to .NET Framework 4.8. In a year or two it most likely uses something else as 4.8 is the last version of .NET Framework.
+Most of our program is about a lot of other stuff that we would love to be able to code with something newer than .NET Framework 4.8, e.g., .NET 6 or 8.
+So now my question is, how can we have a Visual Studio solution with different projects where one targets .NET Framework 4.8 and others target .NET 6, say?</t>
+  </si>
+  <si>
+    <t>The universal solution is to run the different .net projects in different processes, and use your favorite type of Inter Process Communication (IPC) method to handle calls. There are many such methods to chose from but you could start by checking out gRPC.</t>
+  </si>
+  <si>
+    <t>Do note that this approach will mean a decent amount of overhead in development, since any calls need to go trough an extra communication layer.</t>
+  </si>
+  <si>
     <t>#SO 77751482_1</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77751482</t>
   </si>
   <si>
+    <t>Inside a microservice architecture, consider a service A which receives a request from an user and persist some data in to its database.
+Once persisted, service A has to notify service B. This notification action to service B can happen asynchronously(not needed immediately).
+Design
+A few ways to implement the above requirement could be:
+Approach #1
+service A persist(insert + commit) data in to DB
+pushes a message into a queue for service B to consume
+return success to the user
+Approach #2
+service A persist(insert + commit) data in to DB
+transaction outbox pattern with CDC and KAFKA
+service B is a subscriber to a topic in KAFKA and fetches the message
+Questions
+Option 1 is very simple as compared to option 2. But, it introduces dual write problem. In my previous organization(a mid size start-up), we followed option 1(used aws sqs) widely without any issue. Was it because 99.9% availability SLA given by aws and were lucky to have never faced any major issue? Is dual write problem really that big to worry about?
+Is there any other way?</t>
+  </si>
+  <si>
+    <t>Approach #1: Queue System
+Service A persists data in its database (insert + commit).
+Service A pushes a message into a queue (like AWS SQS) for Service B to consume.
+Service A returns success to the user.</t>
+  </si>
+  <si>
+    <t>Pros:
+It's straightforward to implement.
+Service A doesn't need to know about the internals of Service B.
+The queue can handle high loads and smooth out traffic spikes.
+Cons:
+If Service A successfully writes to the database but fails to send the message to the queue (or if the message gets lost in the queue), Service B won't be notified.
+Ensuring the data is in sync between the two services can be challenging.</t>
+  </si>
+  <si>
     <t>#SO 77751482_2</t>
   </si>
   <si>
+    <t>Approach #2: Transaction Outbox with CDC and Kafka
+Service A persists data in its database (insert + commit).
+Transaction outbox pattern is used, where an "outbox" table in the database is updated as part of the same transaction.
+Change Data Capture (CDC) picks up changes in the outbox table and pushes them to Kafka.
+Service B subscribes to a Kafka topic and fetches the message when it appears.</t>
+  </si>
+  <si>
+    <t>Pros:
+The dual-write problem is mitigated as both database write and message notification are part of the same transaction.
+Scalability and Performance: Kafka can handle high throughput and provides additional features like replaying messages or scaling consumers.
+Cons:
+Requires setting up and managing Kafka and CDC, which can be complex and might introduce new failure modes.
+More moving parts mean more monitoring, tuning, and maintenance.</t>
+  </si>
+  <si>
     <t>#SO 77815059</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77815059</t>
   </si>
   <si>
+    <t>If I have a component in InteractiveAuto render mode, in the .Client Project. Does it need an Web API? Because the code gets downloaded to the Client Machine.
+If it needs an Web API then can my Server project in Blazor Web App be configured to serve as an API? and how do i Handle the authentication and authorization part of the Web APIs? How can I authenticate my APIs in specific components where the renderMode is InteractiveAuto without asking the User to enter credentials again.</t>
+  </si>
+  <si>
+    <t>I suggest writing all API controllers and authentication logic in the server project. Create a models project and reference this in both the client and server projects,</t>
+  </si>
+  <si>
+    <t>so your authentication is not downloaded and only the model's class is downloaded to the client machine."</t>
+  </si>
+  <si>
     <t>#SO 77816547</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77816547</t>
   </si>
   <si>
+    <t>According to the Jetpack Compose guidelines, every screen should have its own UI state with its own viewModel*
+Let's say I have a wizard type of screens, where the user enters data on screen A, B, C and gets to the review screen on Screen D. Note that, all this is locally entered and managed data. So, no data layer is required for any pages except ScreenD..
+When i get to the Screen D, I need to display all the values entered from Screen A, B and C. Technically, i'd expect the shared state hoisted to the NavHost -- the lowest common ancestor. This means in addition to updating my current Screen state in mySetterMethod, I'd have to pass the updated state to the Navhost too. Is my understanding right?</t>
+  </si>
+  <si>
+    <t>hoist it to the navigation (as you did)
+use a shared view model
+use compose navigation with arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, you are right, in order to share and reuse the data from those 4 screens you would need to hoist the state (the lowest common ancestor is not a must but it does simplify things a lot), </t>
+  </si>
+  <si>
     <t>#SO 77841341</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77841341</t>
   </si>
   <si>
+    <t xml:space="preserve">Straight to the point. I'm about to start creating a web app using Blazor (chose Blazor due to my collage projects experiences). The idea behind the system is logistics, and I was thinking of creating this system out of separate parts that work and communicate together. For example:
+Transportation;
+Inventory;
+Packaging.
+What I want to do is create these parts one by one, and while I'm developing other ones, already made ones could be used by companies (clients). Let's say I already have those 3 mentioned services, and there are two companies, and I need them to be able to use only those services that are needed for them. E.g. one uses only transportation service to register cargo transportations, and the other one use all of them, and in the meanwhile I am developing an accounting service. Also I would need, as I understand, a separate database for every company that uses the system, so I read something about multi-tenancy.
+Now, for the architecture type, I'm thinking about using microservice architecture. </t>
+  </si>
+  <si>
+    <t>It's up to you to choose any kind of architecture, but I think Rome was not built in a day，so we'd better to estimate how many users would use this system and if the easiest architecture + minimal servers + poorest performance could afford this system and its users. If yes, then I'm afraid asp.net core MVC + only one server + one database should be the best option</t>
+  </si>
+  <si>
+    <t>If yes, then I'm afraid asp.net core MVC + only one server + one database should be the best option because it cost less.
+When I saw having those separate services and each of them having their own databases, what I have in my mind is an Azure service containing multiple web app + several databases.... It might be expensive, and if there's no so many users, you might waste much resources.
+Normally speaking, we should adjust the architecture based on the really usage, let's say Transportation is used heavily while Inventory is rarely used, but the whole project is also under control, then you can just scale out the web app. Or changing the architecture to separate out Transportation part and host it in a separate web app, and only scale up/out this single app. The same for databases. If there's too many rows data in all off the table, then we can use specific database for specific business part. If only some specific tables contain too much data/be hit very frequently, then we might divide these tables into several tables.</t>
+  </si>
+  <si>
     <t>#SO 77843622</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77843622</t>
   </si>
   <si>
+    <t>I am creating a solution that has an API (Microsoft.NET.Sdk.Web), domain (Microsoft.NET.Sdk), and MVC projects (Microsoft.NET.Sdk.Web) targeting .NET 8.
+In my domain I have two classes that look like this:
+public class ApplicationUserQuery
+{
+    private readonly string _connectionString;
+    public ApplicationUserQuery(string connectionString)
+    {
+        _connectionString = connectionString;
+    }
+    // ...
+}
+public class ApplicationUserService
+{
+    private readonly ApplicationUserQuery _applicationUserQuery;
+    public ApplicationUserService(ApplicationUserQuery applicationUserQuery)
+    {
+        _applicationUserQuery = applicationUserQuery;
+    }
+    // ...
+}
+To use the classes in my API project I am doing the following in my Program.cs:
+var applicationDatabaseConnectionString = builder.Configuration.GetConnectionString("ApplicationDatabase");
+if (applicationDatabaseConnectionString == null)
+{
+    throw new ArgumentNullException(nameof(applicationDatabaseConnectionString));
+}
+builder.Services.AddScoped(_ =&gt; new ApplicationUserQuery(applicationDatabaseConnectionString));
+builder.Services.AddScoped&lt;ApplicationUserService&gt;();
+This works, but it seems like a lot of boilerplate just for two classes and will continue to grow for every service/query class I create in my domain. Is there anyway to simplify this using the built-in .NET core stuff? I'm wanting to avoid using a 3rd party library like Ninject because of issues I have had with Ninject in particular on projects I do at work.</t>
+  </si>
+  <si>
+    <t>If you want to auto-register the dependencies, use a different library or implement it yourself - e.g. take the domain Assembly, enumerate all types that end with "Query" and register them as scoped</t>
+  </si>
+  <si>
+    <t>it's not that much code and you have it under your control.</t>
+  </si>
+  <si>
     <t>#SO 77863647</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77863647</t>
   </si>
   <si>
+    <t xml:space="preserve">I am working on my project using ASP.NET Core Web API. I have opted for a clean architecture approach, comprising Core, Infrastructure, Application and Presentation layers.
+The entities in my project are Employee (with a foreign key DepartmentId) and Department.
+I've read that the repository in the Infrastructure layer should exclusively work with entities. However, I'm facing a challenge: how can I retrieve an Employee along with their DepartmentName?
+I am considering using a DTO (Data Transfer Object), but the issue is that DTOs typically reside in the Application layer, not the Core layer.
+Could you please provide some solutions on how to achieve this with a more robust architecture?
+</t>
+  </si>
+  <si>
+    <t>AS for the Infrastructure Layer, usually been used in data retravel.
+I think you could try to use the DTO in application layer.</t>
+  </si>
+  <si>
+    <t>In the Application Layer, which contains business logic and orchestrates data from entities, conversion of Value Objects (VO) is typically handled. So, it's suitable to use DTO in this layer.</t>
+  </si>
+  <si>
     <t>#SO 77870378</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77870378</t>
   </si>
   <si>
+    <t>Im new to Blazor and started using it with .NET 8 Version.</t>
+  </si>
+  <si>
+    <t>Im confused on the part where even though i have selected WebAssembly render mode VS still created two separate projects. Whats the need for the startup project that references the client project? why not just combine the two?</t>
+  </si>
+  <si>
+    <t>Well according to your question, yeah there might be some confusion about the two separate projects when using Blazor WebAssembly, Yet it definitely provides a wide range of flexibility which includes, separation of the client and server projects in Blazor WebAssembly hosting model provides a clear separation of concerns.
+Not only this, it obviously allows for server-side functionality, facilitates integration with ASP.NET Core features, and offers flexibility in hosting and deployment options. While it might seem different from other frontend frameworks at first, it aligns well with the server-client architecture and the capabilities of the ASP.NET Core framework.
+Blazor WebAssembly can be standalone for simple, offline apps, but a separate server project unlocks improved security, scalability, complex server tasks, and potential offline features, making it ideal for more elaborate and demanding applications.But if you combine them together the complexity would increase and this might make the application less manageable. If you look at from design pattern point of view where decoupling or loosely coupled app are encouraged and tightly decoupled applications are not recomended.
+Therefore, as your application grows or requires server-side functionality, having a separate server project provides a scalable and maintainable architecture in those scenario its better to split your project this way.</t>
+  </si>
+  <si>
     <t>#SO 77875225</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77875225</t>
   </si>
   <si>
+    <t>My ultimate goals is to deploy a ECS/Fargate cluster on AWS. I know that the ALB can be a bit expensive, and I was wondering if I could use API gateway instead. I'll still have a few containers running (maybe 2-3 max at the beginning) so I'd still need some sort of load balancing capability.
+Is it possible?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your units of work share no or minimal state in memory that can be easily hydrated from the database, you might be better of implementing it in lambdas. </t>
+  </si>
+  <si>
+    <t>In this case, you can get away with an API gateway, as Lambda runtime will handle the balancing.</t>
+  </si>
+  <si>
     <t>#SO 78014054</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78014054</t>
   </si>
   <si>
+    <t>However, in an application where the classes (models) are designed based on OOP principles such as inheritance, and some classes inherit from others, separating these classes into their relevant microservices poses a challenge.</t>
+  </si>
+  <si>
+    <t>If you discover that you have code where, if you change code in one microservice, you also need to change code in another microservice, you need to do something about that coupling.</t>
+  </si>
+  <si>
+    <t>Rather, the old SOA catchphrase that services are autonomous seems to me to be the most useful guiding principle.</t>
+  </si>
+  <si>
     <t>#SO 78026098</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78026098</t>
   </si>
   <si>
+    <t xml:space="preserve">I'm implementing a Domain-Driven Design (DDD) architecture and want to leverage strongly typed IDs for my entities. My base AggregateRoot class looks like this:
+public abstract class AggregateRoot&lt;TId&gt;
+    : Entity&lt;TId&gt;
+    where TId : struct
+{
+    private readonly List&lt;IDomainEvent&gt; _domainEvents = [];
+    // ...
+}
+Here's an example entity:
+public readonly record struct AuctionId(Guid Value);
+public class Auction
+    : AggregateRoot&lt;AuctionId&gt;
+{
+    // ...
+}
+I have a domain event dispatcher interceptor (PublishDomainEventsInterceptor) which I want to work generically with all aggregates:
+internal sealed class PublishDomainEventsInterceptor 
+    : SaveChangesInterceptor 
+{
+    // ...
+    public async Task PublishDomainEvents(
+        DbContext? context)
+    {
+        // ...
+        // Problem: Need a generic way to handle strongly-typed IDs here
+        var entities = context.ChangeTracker
+            .Entries&lt;AggregateRoot&gt;() // Issue: Requires type argument
+            .Where(e =&gt; e.Entity.DomainEvents.Any())
+            .Select(e =&gt; e.Entity); 
+        // ...
+    }
+}
+How can I modify my PublishDomainEvents() method or related approach to make it work with AggregateRoot&lt;TId&gt; without knowing the specific TId type in advance? I want to maintain type safety and the benefits of strongly typed IDs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce a non-generic interface for AggregateRoot&lt;TId&gt; to implement and use it:
+public interface IAggregateRoot
+{
+   IEnumerable&lt;IDomainEvent&gt; DomainEvents { get; }
+}
+public abstract class AggregateRoot&lt;TId&gt; : Entity&lt;TId&gt;, IAggregateRoot
+    where TId : struct
+{
+    // ...
+}
+And usage:
+var entities = context.ChangeTracker
+    .Entries&lt;IAggregateRoot&gt;() 
+    .Where(e =&gt; e.Entity.DomainEvents.Any())
+    .Select(e =&gt; e.Entity); </t>
+  </si>
+  <si>
+    <t>Since your interceptor code does not actually need to use the strongly-typed Id the easiest option would be to introduce a non-generic interface for AggregateRoot&lt;TId&gt; to implement and use it</t>
+  </si>
+  <si>
     <t>#SO 78166966</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78166966</t>
   </si>
   <si>
+    <t>I don't like that I need to define my repositories in the domain layer... it is the application layer that defines what it wants... why don't I define the repository interface on the spot there, in the application layer, where it is needed, instead of in the domain layer?</t>
+  </si>
+  <si>
+    <t>This is why you define the interface in the domain and the implementation elsewhere.</t>
+  </si>
+  <si>
+    <t>The domain dictates the 'what' while other layers define the 'how'.</t>
+  </si>
+  <si>
     <t>#SO 78448261</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78448261</t>
   </si>
   <si>
+    <t>I have a project that creates elasticsearch index. I'm trying to increase write speed.
+I have read something about auto-generate ids.
+Allowing Elasticsearch to generate ids on your behalf should increase document creation speed since Elasticsearch won’t need to check for uniqueness.
+I can't use that because i need my own ids to search data but I can guarantee that the ids I produce are unique. Is there a way to disable uniqueness checking so I can look at the impact on performance?</t>
+  </si>
+  <si>
+    <t>If your index is always insert (never update/upsert), then you can just use their ids (UUID) and include your id as an indexed field. You can still search on it as needed.</t>
+  </si>
+  <si>
+    <t>The trick is if you need to update a document based on your id, you will need to see if the document is already in the index, which will require that uniqueness check, and you might as well keep the existing id and take advantage of the automatic uniqueness constraint and segment merge process</t>
+  </si>
+  <si>
     <t>#SO 78536441</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78536441</t>
   </si>
   <si>
+    <t>I am completely new to multi-modular architecture. I am using jetpack compose. Asking flaws in my thinking. Broadcast receiver and services don't contain ui logic, similar to activity. e can directly setuWp logic in presentation layer using the AppTheme block (it may not possible is xml approach, haven't used it in long time so i have no idea). Activities have rather different logic like splash activity may check user authorization or authentication. Depending if user is authorized, token expired, unauthorized or received an intent from external apps there may be different actions which isn't part of UI logic. Similarly MainActivity may deal differently according to message received from SplashActivity(or any other between the route) like setting the startDestination to settings page(message from SplashActivity).</t>
+  </si>
+  <si>
+    <t>So, I recommend some roles here to help you organize modules,
+if the module is a low-level module and it's shared across the application, like providing caching or networking, you can consider this is an infra/library module type.
+if the module is shared across the application and has a common business logic like auth module, remote config, or localization, you can consider this as a plugin module, and there are top of the infra module, which means they can use infra level module but it's not true in vice versa.
+if the module is just responsible for handling one job, like onboarding pages or setting pages, you can consider this as a feature module, they can use infra and plugins but they do not have dependency on another module.
+if the module is just for showing a complex page, for example, an e-commerce application with a heavy home page, and each section of the page comes from multiple modules, you need to create a coordinator module to connect those features on one page, and it gives you the power of isolation to develop and maintain each feature separately and use on a shared page.
+and the last you need to have one launcher module, this module is for bundling your app and sending it to the store, another benefit is that we you are in the development stage, you do not need to build all parts of the application, and you create one debug module for just testing your feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best practices for modularization are defining modules based on domain rather than UI/Service,
+it means instead of having auth-ui and auth-service modules, you need to combine them, however, in this way, you may encounter the "circular dependency" challenge, To prevent this problem, you need to define a role for each module,
+</t>
+  </si>
+  <si>
     <t>#SO 78552517</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78552517</t>
   </si>
   <si>
+    <t xml:space="preserve">I have a QTableView containing a column with checkboxes. I use a delegate for the checkbox because I want to align it in the center of the column. The one which is generated via the CheckStateRole isn't. The checkbox editor is made permanent for this column.
+To sort and filter the table I use a QSortFilterProxyModel. Sorting works and filtering with wildcards also. But if I remove the wildcard filter, the checkboxes of the formerly filtered rows are not drawn. Instead the column shows 0 or 1. already searched in internet for such a behaviour, but nothing found. What I can do to see the checkboxes again after clearing the wildcard filter? May be to call openPersistentEditor again, but how to know when?
+BTW: Is there a description of the interaction between delegates, views, models and so on? Until now I only found documentation about the classes and a very basic description of the model view architecture.
+</t>
+  </si>
+  <si>
+    <t>A possible solution, then, is to do what you already do within initialization, which is to call openPersistentEditor() for any new index. If you think about it, it makes sense: you're opening editors that didn't exist before, so you shall do the same whenever a "new" index is being shown (aka, restored by the filter).Note that a more appropriate and dynamical solution should use a QTableView subclass, which will:
+set the delegate on its own;
+implement a similar updateEditors() method;
+override setModel(), possibly disconnect the rowsInserted signal if a previous model existed, call the default implementation, and eventually connect the signal of the new model (if it exists) to the related method/slot;</t>
+  </si>
+  <si>
+    <t>While the above may result more complex, its benefit is that it will always work consistently, no matter if you're using the source mode, a proxy, or even a nested proxy.</t>
+  </si>
+  <si>
     <t>#Discussion 3597</t>
   </si>
   <si>
     <t>https://github.com/gethomepage/homepage/discussions/3597</t>
   </si>
   <si>
+    <t>While I was setting up homepage 2 days ago, I was hesitant to give it all those API keys, worrying they might get leaked if there is a bug. Just a day later, 0.9.2 was released, fixing such a bug, and confirming my fears.
+This made me think about how such issues could be prevented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have a backend service (completely separate process) that knows the credentials and essentially proxies the requests, forwarding them to the services and adding authentication. </t>
+  </si>
+  <si>
+    <t>That way, regardless of what happens in the frontend process, it should be practically impossible to leak any API keys.</t>
+  </si>
+  <si>
     <t>#Discussion 63</t>
   </si>
   <si>
     <t>https://github.com/nank1ro/flutter-shadcn-ui/discussions/63</t>
   </si>
   <si>
+    <t>Is it possible to use Getx pre-configured widget GetMaterialApp in combination with ShadApp? If so, how?</t>
+  </si>
+  <si>
+    <t>Please, don't use GetX if you can, especially if you are a beginner.</t>
+  </si>
+  <si>
+    <t>getx makes you learn getx, not flutter
+getx is a very large library but has very little documentation
+getx makes you avoid learning a crucial part of flutter (the BuildContext)
+getx makes you learn bad practices and uses bad practices in its own code (GlobalKeys are overused)
+getx makes your code very dependent on getx, making it extremely hard to replace later
+getx does not actually offer any unique features
+getx has a high like count on pub.dev but we suspect it to be acquired through abnormal means</t>
+  </si>
+  <si>
     <t>#Discussion 89</t>
   </si>
   <si>
     <t>https://github.com/earthboundkid/requests/discussions/89</t>
   </si>
   <si>
+    <t>I would be nice to be able to support alternative JSON libraries, like #87 and #88. JSON is just one kind of serialization. There's also XML, a la #79 / #82, and presumably other options like binary (Protobuf?) and whatnot.
+What if we add a new API like
+type Serializer = func(v any) ([]byte, error)
+type Deserializer = func([]byte, v any) error
+func (rb *Builder) Serialize(s Serializer, v any)
+func (rb *Builder) Deserialize(d Deserializer, v any)
+// Used if s or d are nil
+var (
+    DefaultSerializer = json.Marshal
+    DefaultDeserializer = json.Unmarshal
+)
+// Usage
+func init() {
+  requests.DefaultSerializer = gojson.Marshal
+  requests.DefaultDeserializer = gojson.Unmarshal
+}
+err := requests.
+  URL(url).
+  Serialize(nil, req).
+  Deserialize(nil, res).
+  Fetch(ctx)</t>
+  </si>
+  <si>
+    <t>On the one hand, you'd want to be able to just set it globally and get the new behavior everywhere. OTOH, you'd also want to be able to override a particular Builder's ToJSON method if a particular endpoint can't work with some serializer for some reason, instead of having to swap everything."</t>
+  </si>
+  <si>
+    <t>So I will prefer simple API for developers with simple methods to speed up some processes, instead of good from architectural point of view solution, that not obvious (using ToJSON is obvious, knowledge of 'Serialize will serialize request in JSON and you can choose serializer' is not obvious). It could work if 'Serialize' was on start, and we doesn't have ToJSON. But you need to preserve ToJSON for backward compatibility, so I think best solution is to work with what we already have.</t>
+  </si>
+  <si>
     <t>#Discussion 2109</t>
   </si>
   <si>
     <t>https://github.com/pymodbus-dev/pymodbus/discussions/2109</t>
   </si>
   <si>
+    <t>Let put it simpler - there's a client and I'm running a server. I want my server to poll the client's registers as soon as the client connected. The thing is the server class instance, ModbusTcpServer doesn't contain the client's methods such as read_input_registers(). From the raw TCP exchange point of view it doesn't matter whether the socket is a server socket or a client socket, so there should be a way to invert the "request -&gt; response" Modbus logic. Or am I wrong?</t>
+  </si>
+  <si>
+    <t>A server cannot poll a client</t>
+  </si>
+  <si>
+    <t>A server cannot poll a client, that is against the protocol. The client is the initiator, issues requests to a server and the server responds.</t>
+  </si>
+  <si>
     <t>#Discussion 37432</t>
   </si>
   <si>
     <t>https://github.com/apache/airflow/discussions/37432</t>
   </si>
   <si>
+    <t>I'm developing a listener plugin to monitor both DAG runs and task instances within Apache Airflow. This plugin requires additional custom packages for its functionality. I'm inquiring about the appropriate components within the Airflow architecture where these packages should be installed: the Web Server, Scheduler, or Workers. Any guidance based on the architectural considerations would be greatly appreciated.</t>
+  </si>
+  <si>
+    <t>use the same environment for everything.</t>
+  </si>
+  <si>
+    <t>Airlfow expects the same environment everywhere (for now at least). Due to various optimisiations and edge cases, different components can sometimes do different kinds od callbacks/listeners etc. or even do scheduling decisions in unexpected places (for example in workers or dag file preocessors).he same environment for everything.</t>
+  </si>
+  <si>
     <t>#Discussion 2090</t>
   </si>
   <si>
     <t>https://github.com/prisma/prisma/discussions/20920</t>
   </si>
   <si>
+    <t>We are currently evaluating prisma and are discussing possible architectures for a solution.
+The current approach is based von Next.JS, Prisma and MSSQL Server and involves the need that users can connect to different databases by configuration at runtime. So a user might have access to multiple databases by permission provided from a different backend and can choose at runtime to which db she wants to connect to. For now I'd assume that schema is structure-wise identical for all. So we wouldn't need to generate and maintain multiple prisma schemas - at least not for this. Potential user base is some 100s up to 1,000 of users, for concurrent users I wouldn't assume more than 50 (rather less).
+So we are wondering if there is a way to implement this using prisma.</t>
+  </si>
+  <si>
+    <t>Approach: maintain a map or comparable structure of prisma client instances in the nextjs app / node server instance in memory, one for each db / schema instance requested? That can obviously result in numerous prisma client instances based on the number of dbs/schemas requested. And would infer some complexity because we'd have to take care of purging the list when clients are not used for a certain amout of time. etc. The risks which come to mind are of course memory issues when there are too many prisma client instances etc., and also connection pooling issues on db side</t>
+  </si>
+  <si>
+    <t>You definitely want to go with b) here.
+Creating a database connection is costly, and you can not easily switch between databases on runtime. So I would suggest you keep a list of Prisma Clients and make sure to only use the correct one for the correct user. Prisma Client is not optimized for this use case, so it will use a bunch of memory for each instance - so you might need to manage the clients you have open. Usually that goes fine though and turns out not to be that big of a problem.</t>
+  </si>
+  <si>
     <t>#Discussion 626</t>
   </si>
   <si>
     <t>https://github.com/maxnowack/signaldb/discussions/626</t>
   </si>
   <si>
+    <t>The thing is, I'm currently building full-stack MPAs (rather than client-only SPAs) using the Deno Fresh framwork, which is Preact-based and supports the Islands architecture, but its primarily an SSR framework. I got Fresh+SignalDB working using signaldb-plugin-preact, but I'm not really sure if SignalDB makes sense in a MPA architecture with traditional navigation and not client-side navigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. I'm not super familiar with MPA and the Islands architecture myself, but from what I get, SignalDB should work fine with them. </t>
+  </si>
+  <si>
+    <t>Although using SignalDB might make your project a bit bigger, it could also make building your app faster and more enjoyable.
+The diagram you shared comes from Meteor, and actually, when I was making SignalDB, I was thinking about how Meteor handles data. I'm aiming to do something similar where you can set up a query with SignalDB, and it takes care of fetching your data and updating your page or part of it automatically whenever your data changes or gets updated (also see #394).
+But really, it depends a lot on how much data your app will be handling, how often you'll be reusing that data, and how you've set up SignalDB to save data.”</t>
+  </si>
+  <si>
     <t>#Discussion 9022</t>
   </si>
   <si>
     <t>https://github.com/dotnet/wpf/discussions/9022</t>
   </si>
   <si>
+    <t>I am relatively new to wpf and .net and I am developing a small application.
+I know that injecting pages and viewmodels with dependency injection is quite a popular approach, however I was interested if it is also a good approach so specify viewmodels in the xaml of the respective views like this:
+&lt;Page.DataContext&gt; &lt;viewModels:MainViewModel x:Name="ViewModel"/&gt; &lt;/Page.DataContext&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actively using dependency injection and understanding and applying the architectural designs of established frameworks, such as Prism, is recommended for effective software development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using Prism simplifies the management of dependency injection and view and view model coordination, which substantially aids in enhancing the maintainability and scalability of code. Employing such frameworks can help structure software architecture in a robust and manageable way, making the development process more efficient and effective.</t>
+  </si>
+  <si>
     <t>#Discussion 197</t>
   </si>
   <si>
     <t>https://github.com/reactwg/react-native-new-architecture/discussions/197</t>
   </si>
   <si>
+    <t>I have been experimenting with JSI and turbo modules lately.
+I thought this would be a magic solution for the performance issues but it seems that when I call a resources intensive function I still see a drop in the js thread.</t>
+  </si>
+  <si>
+    <t>With the New Architecture, you can access JSI which lets you practically "share memory" between JS and C++.</t>
+  </si>
+  <si>
+    <t>That allows for performance critical applications to don't do message passing through the bridge, which ends up eating up a lot of performance.</t>
+  </si>
+  <si>
     <t>#Discussion 251</t>
   </si>
   <si>
     <t>https://github.com/fraktalio/fmodel/discussions/251</t>
   </si>
   <si>
+    <t>I'm very new to the codebase and actually looking at ways to port the ideas to Python, so perhaps my issue is in translation. However, I've been looking at the Kotlin examples and I feel like it looks pretty straightforward.
+My bigger issue might be learning more about what SagaManagers and ActionPublishers are and how to wire them up.</t>
+  </si>
+  <si>
+    <t>Fmodel is not promoting Event-Driven architecture in the case of StateStored System.</t>
+  </si>
+  <si>
+    <t>The reason for that is that Events are not API in this case. It is not something you will store durably, and it is only fair not to extend and promote the state-stored system into an Event-Driven system, within the Fmodel.</t>
+  </si>
+  <si>
     <t>#Discussion 214</t>
   </si>
   <si>
     <t>https://github.com/ch4mpy/spring-addons/discussions/214</t>
   </si>
   <si>
+    <t xml:space="preserve">I'm designing a solution for authentication with Keycloak for an existing set of microservices.
+My PoC works fine using Spring Gateway and BFF in the same box, using session cookie to maintain the session. But since our architecture requires more than a single instance of the Gateway/BFF for resilience and performance, that means that we need to do some persistent and distributed session keeping (which I successfully tried using Redis and Spring HTTP Session).
+Now, is there a realistic way to avoid using sessions? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Smart" proxies routing all requests from a given device to the same BFF instance: when an existing instance is replaced, all the sessions it contained have to be re-build on next requests. </t>
+  </si>
+  <si>
+    <t>This requires a loop to the authorization server to get new tokens, which increase latency for this first requests and puts extra load on the authorization server.</t>
+  </si>
+  <si>
     <t>#Discussion 1879</t>
   </si>
   <si>
     <t>https://github.com/DioxusLabs/dioxus/discussions/1879</t>
   </si>
   <si>
+    <t>Dioxus looks great, but this part of the docs is a bit concerning to me: I must make the decision between copying, or definitely causing render reconciliation (which could become worse over time as the render tree grows).</t>
+  </si>
+  <si>
+    <t>Using Borrowed Props everywhere will result in large parts of your app rerunning every interaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrowed props can be very useful, but they do not allow for memorization so they will always rerun when the parent scope is rerendered. Because of this Borrowed Props should be reserved for components that are cheap to rerun or places where cloning data is an issue. </t>
+  </si>
+  <si>
     <t>#Discussion 442_1</t>
   </si>
   <si>
     <t>https://github.com/developmentseed/lonboard/discussions/442</t>
   </si>
   <si>
+    <t>One of the downsides of most, if not all, Python-based geospatial visualization libraries is that it is impossible to insert one or more data layers into the basemap such that place names are on top of the data layers. This is critical in my view for maintaining geospatial context. Is it possible in lonboard to perform this interleaving?</t>
+  </si>
+  <si>
+    <t>Mapbox/Maplibre expose a "custom style layer" where a user can write WebGL that gets added to the same context as Maplibre is already using. Deck.gl implements this with MapboxOverlay, so you can render some deck layers in the same context as Maplibre.</t>
+  </si>
+  <si>
+    <t>However this suffers from having "two cooks in the kitchen", where each tries to render in the same canvas but neither is truly aware of the other. So for example in this demo you can see poor polygon rendering when panning as the buildings drawn by Mapbox and the radius drawn by Deck z-fight.
+Another downside here is that Maplibre needs to be the parent and that Deck needs to be the child. This means that Deck is forced into all of Maplibre's constructs. It can only support Web Mercator. It can't use WebGPU. Deck can't manage view state itself. More discussion in #437.</t>
+  </si>
+  <si>
     <t>#Discussion 442_2</t>
   </si>
   <si>
+    <t>Another option, which I believe kepler.gl uses, is to render a Maplibre sandwich, where you render Maplibre above and below Deck: maplibre - deck - maplibre. So you render most of the basemap below the Deck context and the text/label layers above the deck context.</t>
+  </si>
+  <si>
+    <t>AdditionThis is pretty resource intensive because now you have three WebGL/WebGPU contexts! Additionally you always have to keep all three map views in sync. This is less tied to Maplibre because deck is drawing into its own canvas, so you won't get z-fighting like with MapboxOverlay. But it still can't use alternate projections.
+Additionally, this requires intricate knowledge of the Maplibre style being used for the basemap because you have to know which layer ids to render in the lower basemap and which in the upper basemap.ally, this requires intricate knowledge of the Maplibre style being used for the basemap because you have to know which layer ids to render in the lower basemap and which in the upper basemap.</t>
+  </si>
+  <si>
     <t>#Discussion 442_3</t>
   </si>
   <si>
+    <t>A third option is to render some basemap context in deck.gl. Deck.gl has a TileLayer and an MVTLayer, which can render things like text as part of the Deck canvas. This would also be necessary if/when we try to support alternate projections, as we couldn't use Maplibre for alternate projections.</t>
+  </si>
+  <si>
+    <t>But this has the downside of having to re-implement basemap properties in deck.gl, which may not be trivial. But if it's just light basemap context like admin boundaries and text labels, maybe that's a good approach.</t>
+  </si>
+  <si>
     <t>#Discussion 57209</t>
   </si>
   <si>
     <t>https://github.com/symfony/symfony/discussions/57209</t>
   </si>
   <si>
+    <t>Hello,
+This thread is not about a specific problem but a broader design discussion :
+In Symfony, how do you regroup a bunch of controller methods into a bunch of controller classes ?
+I mean, it's pretty obvious when you design a CRUD for an orphan entity but what about persisting a relation between 2 ou 3 entities ? What about generating a picture with GD from the content of 3 different entities in the model ? There are many use cases that don't fit into the paradigm 1-entity/1-route/1-controller/1-folder for templates.
+Particularly in a big project, what's your first criterion to choose the controller class you'll append a new method into ?</t>
+  </si>
+  <si>
+    <t>I’m currently a big fan of the Vertical Slice Architecture where instead of grouping files by whatever pattern or technical concern, you put all files specific to a slice (aka use-case) into a single folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it’s just missing the slices’ parts’ tight coupling: in your code changing the kettle would probably mean you have to change the tea cup and/or bag as well. This is another advantage of this architecture: it gathers together things that change for the same reasons.</t>
+  </si>
+  <si>
     <t>#Discussion 9521</t>
   </si>
   <si>
     <t>https://github.com/tauri-apps/tauri/discussions/9521</t>
   </si>
   <si>
+    <t>I just started with rust and tauri. I also came across webassembly (wasm) and webassembly system interace (wasi) which is also new to me. Can you point me to more details how the communication between javascript and rust is done?</t>
+  </si>
+  <si>
+    <t>in v1 we simply use the webview's postMessage apis to send json string messages (don't ask me how they work internally) and in v2 we additionally use http request (caught with native webview apis and without a webserver before they actually reach the network)</t>
+  </si>
+  <si>
+    <t>in v1 we simply use the webview's postMessage apis to send json string messages (don't ask me how they work internally) and in v2 we additionally use http request (caught with native webview apis and without a webserver before they actually reach the network) to be able to handle larger ipc payloads.</t>
+  </si>
+  <si>
     <t>#Discussion 11323</t>
   </si>
   <si>
     <t>https://github.com/apache/apisix/discussions/11323</t>
   </si>
   <si>
+    <t>Hi,
+In our project, for some specific externs services, we will have a service catalog which will provide information on the upstream service to use for a given user.
+I created a POC that uses these plugins:
+Openid-connect: checks the access token,
+Serverless pre-function: queries the service catalog and sets variables for upstream and access point,
+Traffic split: select the upstream,
+Proxy Rewrite: Sets endpoint.
+It works fine, but I wonder about the cost of such pipelines and especially the serverless one (regardless of the function itself).
+Thanks in advance !</t>
+  </si>
+  <si>
+    <t>It would be much better to let APISIX manage the forwarding data. If you can't, I suggest that you manage a local cache</t>
+  </si>
+  <si>
+    <t>In this case, indeed, you'll incur additional performance hits, not because of the pipeline in itself but because of the extra query. It would be much better to let APISIX manage the forwarding data. If you can't, I suggest that you manage a local cache, so you query the catalog only on the first request. Even better, you could pre-warm the cache.</t>
+  </si>
+  <si>
     <t>#Discussion 3504</t>
   </si>
   <si>
     <t>https://github.com/pocketbase/pocketbase/discussions/3504</t>
   </si>
   <si>
+    <t>I'm looking at doing a major overhaul of PocketHost in prep for v1.0, and I'm considering switching to Go because we learned a lot from the previous versions of PocketHost and are in need of some architectural changes to support multiple regions, etc. It would be a good time to switch, and probably the last chance. The "multitenant backend in 1 file" approach is showing a lot of appeal, too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The alternative is to write a Go proxy that launches separate Docker containers with PocketBase. </t>
+  </si>
+  <si>
+    <t>That's what the nodejs version does now, and it achieves great isolation, security, and resource management. But perhaps at the expense of performance.</t>
+  </si>
+  <si>
     <t>#Discussion 2792</t>
   </si>
   <si>
     <t>https://github.com/pointfreeco/swift-composable-architecture/discussions/2792</t>
   </si>
   <si>
+    <t>Architecture:
+App module have a main feature that contains NavigationStack and all child features have own modules. (with Tuist)
+Module 1: App that imports NetworkUI, xUI, yUI, zUI.
+Module 2: NetworkUI that imports NetworkKit
+Module 3: NetworkKit
+Module 4: xUI that imports xKit
+Module 5: xKit
+Module 6: yUI that imports yKit
+Module 7: yKit
+Module 8: zUI that imports zKit
+Module 8: zKit
+...
+Main feature:
+import ComposableArchitecture
+import SwiftUI
+import NetworkUI
+import xUI
+import yUI
+import zUI
+@Reducer
+public struct ModuleList {
+    @ObservableState
+    public struct State: Equatable {
+        var path = StackState&lt;Path.State&gt;()
+        public init(path: StackState&lt;Path.State&gt; = StackState&lt;Path.State&gt;()) {
+            self.path = path
+        }
+    }
+    public enum Action {
+        case path(StackAction&lt;Path.State, Path.Action&gt;)
+    }
+    public var body: some Reducer&lt;State, Action&gt; {
+        ...
+            .forEach(\.path, action: \.path) {
+                Path()
+            }
+    }
+    public init() {}
+    @Reducer
+    public struct Path {
+        @ObservableState
+        public enum State: Equatable {
+            case network(NetworkPath.State = .list())
+            // case x(XPath.State)
+            // case y(YPath.State)
+            // case z(ZPath.State)
+        }
+        public enum Action {
+            case network(NetworkPath.Action)
+            // case x(XPath.Action)
+            // case y(YPath.Action)
+            // case z(ZPath.Action)
+        }
+        public var body: some Reducer&lt;State, Action&gt; {
+            Scope(state: \.network, action: \.network) {
+                NetworkPath()
+            }
+            ...
+        }
+    }
+}
+@Reducer
+public struct NetworkPath {
+    @ObservableState
+    public enum State: Equatable {
+        case list(NetworkList.State = .init())
+        case detail(NetworkDetail.State)
+    }
+    public enum Action {
+        case list(NetworkList.Action)
+        case detail(NetworkDetail.Action)
+    }
+    public var body: some Reducer&lt;State, Action&gt; {
+        Scope(state: \.list, action: \.list) {
+            NetworkList()
+        }
+        Scope(state: \.detail, action: \.detail) {
+            NetworkDetail()
+        }
+    }
+}
+...
+NetworkUI feature:
+import ComposableArchitecture
+import SwiftUI
+import NetworkKit
+struct NetworkListView: View {
+    @Bindable var store: StoreOf&lt;NetworkList&gt;
+    var body: some View {
+        List {
+            ForEach(store.entities, id: \.id) { entity in
+                NavigationLink(state: ModuleList.Path.State.network(.detail(.init(entity: entity)))) {
+                    NetworkListCellView(store: Store(initialState: NetworkListCell.State(entity: entity)) {
+                        NetworkListCell()
+                    })
+                }
+            }
+        }
+        .listStyle(.plain)
+        .navigationTitle("Network")
+    }
+}
+The problem is in order to use NavigationLink we need ModuleList.Path.State. Which its part of the App, so we need to import App that couses Circular dependency between modules 'App' and 'NetworkUI'.
+How can i decouple NavigationStack and child features?</t>
+  </si>
+  <si>
+    <t>The second option is to pull Path.State (and all child feature States) into a separate module. Note that I am specifically saying only Path.State (and child stats). It is not necessary to pull the Path reducer or any child reducers into this module.</t>
+  </si>
+  <si>
+    <t>And then any child feature can depend on this module in order to construct navigation links, and it will be able to do so without building all other features and without circular dependency errors.</t>
+  </si>
+  <si>
     <t>#Discussion 326</t>
   </si>
   <si>
     <t>https://github.com/orgs/fief-dev/discussions/326</t>
   </si>
   <si>
+    <t>I would need some guidance about how to integrate Fief with a FastAPI service. Also, what are the best practices and architecture patterns to consider.
+The way I envision the integration with Fief is:
+It should handle all user management, authentication, session management, JWT Token lifecycle, user attributes and methods for user lifecycle. My apps should query Fief whenever there is a user event involved, like registration, authentication, session validation, tokens management, permissions and roles.
+Since Fief support custom user fields via the methods exposed in "user-fields", I was thinking to leverage this capability to extend users fields for the context of my application, and only keep a cache copy of the object in my local context via the session management context. The alternative would be to copy the user locally to the context of my app and fetch UID, Email and other shared fields from Fief (comes syncing the data disadvantage).</t>
+  </si>
+  <si>
+    <t>Regarding user fields, you can indeed have a local cache</t>
+  </si>
+  <si>
+    <t>Regarding user fields, you can indeed have a local cache to avoid having to ask them again to the Fief API. We show an example of this here: https://docs.fief.dev/integrate/python/fastapi/#caching-user-information It shows a simple in-memory cache, but it can be something more advanced, e.g. using Redis.</t>
+  </si>
+  <si>
     <t>#Discussion 787</t>
   </si>
   <si>
     <t>https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787</t>
   </si>
   <si>
+    <t>AWS documentation recommends that AWS service clients should be instantiated in the initialization code, not in the handler. But I could see that we are taking new connection during run time . Below snap shot of dynamo_dal_handler shown below. Will this affect the performance?</t>
+  </si>
+  <si>
+    <t>As you can see, there's a decorator in line 23 for cache and class itself is a singleton. That means that we create only one client class (until the cache expires) and reuse it as long as the function is warm for new invocations.
+It's not set in stone to init that connection as AWS recommends, i did a lazy init here and afterwards its warm for new invocation.</t>
+  </si>
+  <si>
+    <t>I dont think there's a difference in performance. TBH, putting way too things that init during the first run isnt that useful in my view and breaks the architectural layers model i discuss at : https://www.ranthebuilder.cloud/post/learn-how-to-write-aws-lambda-functions-with-architecture-layers</t>
+  </si>
+  <si>
     <t>#Discussion 21549</t>
   </si>
   <si>
     <t>https://github.com/keycloak/keycloak/discussions/21549</t>
   </si>
   <si>
+    <t>In order to let powerusers set up new tenants for our multi-tenant cloud application, we built a custom frontend (let's call it admin-ui). This is backed by a separate backend service, holding all the tenant and product information (let's call it admin-api).
+Whenever a poweruser creates a new tenant, the admin-api takes care of setting up the realm within keycloak (clients, idps, users, roles etc.).
+The architecture can thus be described as a service chaining in its simplest form: admin-ui &gt; admin-api &gt; keycloak-api. Each service is authenticated by keycloak as the auth-server.
+Whilst we have a client for the admin-ui using PKCE, we are reissueing tokens for admin-api with the client credentials grant. Behind that client credentials grant we have a service account, which holds the necessary permissions/roles for creating the recourses mentioned before.
+This works perfectly fine, until we have more than a certain amount of realms. At that point, the access token gets too large for the browser and/or NGINX to handle. Unfortunately omitting the roles from the default scope is not working, the keycloak-api is returning a 403 Forbidden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't you use the "admin-cli" or "security-admin-console" client? For those clients, Keycloak reads the roles directly from Keycloak, not from the token. </t>
+  </si>
+  <si>
+    <t>Hence, you don't need any roles in the token, it will stay small regardless of the amount of realms and associated roles.</t>
+  </si>
+  <si>
     <t>#Discussion 539</t>
   </si>
   <si>
     <t>https://github.com/burningalchemist/sql_exporter/discussions/539</t>
   </si>
   <si>
+    <t>I've had a look around the code, README, etc and I didn't find any means of auto-discovering target databases to scrape.
+Most scrapers like postgres_exporter and pg_exporter support querying pg_catalog.pg_database to enumerate databases available on the postgres instance and run metrics queries on each one during a scrape.
+Is there a means to do any similar sort of discovery with sql_exporter or does that have to be handled by some external co-ordinating tool that watches for DB creations/drops and updates the sql_exporter configured targets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> users organise/generate their configuration with the desired information obtained from the configuration management systems or available APIs.</t>
+  </si>
+  <si>
+    <t>It's tricky as each database engine keeps the logical database info in a specific place, so to support 30+ database engines, we would need to hardcode these locations and maintain them. Some of them (e.g. Snowflake) keep this information outside of the instance or it's not easily obtainable. In this case, it's easier and more consistent to let users organise/generate their configuration with the desired information obtained from the configuration management systems or available APIs.</t>
+  </si>
+  <si>
     <t>#Discussion 112</t>
   </si>
   <si>
     <t>https://github.com/xmolecules/jmolecules/discussions/112</t>
   </si>
   <si>
+    <t>Introduction
+I am using AggregateRoot, Entity, Identifier, and some another basic ddd interfaces. The class implementing those interfaces actually is JPA entity, isn't? So that it also act as a domain object. So when I use it with conjunction to the jmolecules-xxx-architecture annotations, I have no idea where to put it into.
+Cases
+For example, if I put the ddd classes in the InfrastructureLayer, the domain model definition attached to it (e.g. AggregateRoot) becomes meaningless. But if I put them in the DomainLayer, then the repository, which is placed in the InfrastructureLayer, just cannot use the class just for the method declaration. The ArchUnit test becomes failed in this case.</t>
+  </si>
+  <si>
+    <t>you would have to go for another architectural style, e.g. Onion Architecture.</t>
+  </si>
+  <si>
+    <t>To my understanding, if you want the repository implementation to be in the Infastructure Layer, you would have to go for another architectural style, e.g. Onion Architecture. There it would be alloweded that the repository implementation resides inside the Infrastrucutre Layer and references the Domain Layer from there.</t>
+  </si>
+  <si>
     <t>#Issue 2962</t>
   </si>
   <si>
     <t>https://github.com/Ivy-Apps/ivy-wallet/issues/2962</t>
   </si>
   <si>
+    <t>Ivy-Apps/ivy-wallet
+[Data Layer] Migrate the code to use the new the CategoryRepository</t>
+  </si>
+  <si>
+    <t>Utilize CategoryRepository for data manipulation operations
+Transition from direct CategoryDao and WriteCategoryDao interactions to using the repository</t>
+  </si>
+  <si>
+    <t>To phase out the old data management system
+To maintain uniformity in our architectural approach
+To enhance safety and facilitate ease of future extensions</t>
+  </si>
+  <si>
     <t>#Issue 515</t>
   </si>
   <si>
     <t>https://github.com/pulumi/pulumi-kubernetes-operator/issues/515</t>
   </si>
   <si>
+    <t>pulumi/pulumi-kubernetes-operator
+Hello Pulumi team! I've been using Pulumi for years and recently started using Pulumi Kubernetes Operator.
+Having 40+ stacks based on the same typescript npm project taken care of by one Pulumi operator installation I found design problems in the operator.
+When it runs npm install and Pulumi code for several stacks it consumes a lot of CPU and memory. But this happens only after git changes. So most of the time operator pod is doing nothing when there are no git changes. But I need to have it with proper CPU and Memory requests set to avoid OOM Kill. So the pod's resources are underutilized. It is burning money most of the time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a solution, I would decouple the "npm install" and "pulumi up" functionality from the operator pod into a worker pod so the operator could assign the worker pod onto one stack individually to provision it and once the stack is done the worker should die </t>
+  </si>
+  <si>
+    <t>As a solution, I would decouple the "npm install" and "pulumi up" functionality from the operator pod into a worker pod so the operator could assign the worker pod onto one stack individually to provision it and once the stack is done the worker should die to save costs. The operator pod should be only a controller for stacks and worker pods. This would make Pulumi Operator more scalable to suit big platforms having hundreds or thousands of stacks.</t>
+  </si>
+  <si>
     <t>#Issue 100</t>
   </si>
   <si>
     <t>https://github.com/Alexhuszagh/rust-lexical/issues/100</t>
   </si>
   <si>
+    <t>That's actual UB, this issue is more about the safety comments and how the invariants are upheld. The safe mode doesn't disable this code that has actual UB, either.</t>
+  </si>
+  <si>
+    <t>Might be cool to have a ValidBuffer&lt;FORMAT&gt; wrapper that allows calling these write functions in an encapsulated way.</t>
+  </si>
+  <si>
+    <t>A bunch of code relies on the radix being from amongst a valid set (e.g. get_table()). May benefit from being an enum; it's hard to tell if this invariant is being upheld.</t>
+  </si>
+  <si>
     <t>#Issue 406</t>
   </si>
   <si>
     <t>https://github.com/amannn/next-intl/issues/406</t>
   </si>
   <si>
+    <t>The Server Components integration of next-intl asynchronously resolves a config, e.g. to load messages.Many users have suggested an awaitable version of useTranslations with an API like await useTranslations(), await useTranslationsAsync(), await useTranslations().toPromise(), etc. While this would technically be possible, the ESLint config of React warns against using hooks in async components. Furthermore, built-in hooks from React like useId don't work in Server Components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do this, we currently use the use hook, which is primarily known for resolving promises in Client Components but also works in Server Components. </t>
+  </si>
+  <si>
+    <t>To do this, we currently use the use hook, which is primarily known for resolving promises in Client Components but also works in Server Components. The one limitation that comes with this is that the component can not be async. In my opinion, one of the biggest advantages of how the next-intl Server Components integration is implemented is that we use an identical API for Server as well as Client Components. With this, components that simply receive data and render translated content in return qualify as shared components that can render either in a Server or Client Component, depending on where they are imported from. In contrast, an async-only API doesn't support this and would force users to a place where components can only run in one environment depending on how they're authored. This is limiting and prevents certain architectural options.</t>
+  </si>
+  <si>
     <t>#Issue 2838</t>
   </si>
   <si>
     <t>https://github.com/opensrp/fhircore/issues/2838</t>
   </si>
   <si>
+    <t>Describe best practices for configuration-based ID assigned by building out example FHIR resources</t>
+  </si>
+  <si>
+    <t>Create an example resource to hold a list of IDs. ... but a Group resource seems sufficient with no members, e.g. here we store the IDs as text in a valueCodeableConcept in the characteristic field ... we abuse the quantity field to store an offset to the next ID to use.</t>
+  </si>
+  <si>
+    <t>The Group resource works well though I feel like we are semantically abusing it. ... By using Group.active and Group.quantity, it effectively tracks which IDs have been used and how to allocate the next available ID.</t>
+  </si>
+  <si>
     <t>#Issue 237</t>
   </si>
   <si>
     <t>https://github.com/open-feature/spec/issues/237</t>
   </si>
   <si>
+    <t xml:space="preserve">Hello, OpenFeatrue is very attractive, but it seems that it requires developers to hardcode a lot of if else, and I am not sure whether this will put a mental burden on developers. Are there any best practices or cases that you can provide? </t>
+  </si>
+  <si>
+    <t>having the flags at the right layers and structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally speaking one can reduce the mental burden by having the flags at the right layers and structure to prevent "ifs everywhere." </t>
+  </si>
+  <si>
     <t>#Issue 1754</t>
   </si>
   <si>
     <t>https://github.com/OWASP/ASVS/issues/1754</t>
   </si>
   <si>
+    <t>OWASP/ASVS
+Sensitive applications often store customer or user data that, in the wrong hands, can have profound implications for user privacy and security. While ASVS does touch upon data protection in storage and transit, the granularity of protection mechanisms at the database field/column level isn't explicitly addressed.</t>
+  </si>
+  <si>
+    <t>I propose the addition of a standard (or a set of standards) that highlights the importance and best practices for implementing field-level encryption in applications where sensitive data is stored.</t>
+  </si>
+  <si>
+    <t>Field-level encryption can ensure that sensitive data fields remain encrypted, rendering them unreadable to a DBA or any other unauthorized role, while still allowing them to manage the database.</t>
+  </si>
+  <si>
     <t>#Issue 1256</t>
   </si>
   <si>
     <t>https://github.com/openziti/ziti/issues/1256</t>
   </si>
   <si>
+    <t>openziti/ziti
+If you wish to access Console, Router, or Controller via the internet, you must open ports to the public internet and assign a public DNS record. This opens Ziti services to DDoS.</t>
+  </si>
+  <si>
+    <t>I propose implementing UDP hole-punching on the Controller and Router and Tunneler so they can see each other without opening the Controller and Router ports to the Internet. And since the Tunneler can now see the Controller and Router, you can also generate JWT locally on the Tunneller/Client.</t>
+  </si>
+  <si>
+    <t>Benefits of UDP hole-punching technique
+UDP hole-punching in products such as ZeroTier and Nebula that may be useful for OpenZiti:
+The supernode is a separate stand-alone service that does not influence sensitive services, such as the controller/router that does the main work and handles and enforces zero-trust, routing, and handle management. So, if the supernode is hacked, the other components will not be compromised.
+There are many supernodes across the Internet, so it is hard to DDoS all of them simultaneously
+Even if all supernodes are DDoSed and down, the peers that already established connection do not care about the supernode and continue working without an issue
+Only one port is opened, and you must be concerned about being open on the public Internet to one service that is not viral and acceptable if not working for hours or days.
+So please reconsider if you can utilize the UDP hole-punching technique similarly to how it is used with ZeroTier or Nebula in one way or another.</t>
+  </si>
+  <si>
     <t>#Issue 19526</t>
   </si>
   <si>
     <t>https://github.com/fleetdm/fleet/issues/19526</t>
   </si>
   <si>
+    <t>fleetdm/fleet
+The s3 carve module currently has a bucket lifecycle of 1 day. This means that not only carves, but also the software_installers/ prefix. We need to try and set a more complex lifecycle to fix this.</t>
+  </si>
+  <si>
+    <t>Add a distinct set of S3 configuration options specifically for the software installers (every option under S3 documented here: https://fleetdm.com/docs/configuration/fleet-server-configuration#s-3)
+The carves bucket needs to expire its objects, while the software installers should not
+For backwards compatibility, keep the old config options names to apply to 'carves', and if the software_installers_ configs are not set, then no S3 storage is configured for software installers (it falls back to local filesystem with all its limitations)..</t>
+  </si>
+  <si>
+    <t>Learning from past life: avoid config inheritance/trickle/auto-merging like the plague. Requires conventions/training, extremely bug prone. It’s often better to have duplication of config with good, crystal clear error messages for mis configurations of both (as long as the design is intentional and consistent).</t>
+  </si>
+  <si>
     <t>#Issue 1558</t>
   </si>
   <si>
     <t>https://github.com/Azure/Enterprise-Scale/issues/1558</t>
   </si>
   <si>
+    <t>Azure/Enterprise-Scale
+Deny or Audit resources without Encryption with a customer-managed key (CMK) is not part of the policy list. This means it lack recommendation on the scope. Back to some of the other ALZ policies questions, why do policy initiatives exist that are not used or recommended?</t>
+  </si>
+  <si>
+    <t>best practice (which might not be 'Microsoft best practice', but 'cloud security best practice') is to have as much control over your key lifecycle as possible. This can only be achieved using CMK to encrypt the DEK.</t>
+  </si>
+  <si>
+    <t>I understand that majority of small and medium-sized enterprises cannot establish this practice due to cost and resource constrains. Nevertheless, that does not mean that it is not best practice.
+Everything in Azure (and other CSPs) is encrypted by default (using MMK/PMK), which is also expected as a bare minimum for anyone to do business with a CSP. Majority of the "out of the box" security settings in CSPs are not industry best practice, it is more a security baseline (bare minimum).
+References CSA
+2.1.2 Key Management
+"... based on the Segregation of Duties security principle, key management ideally should be separated from the cloud provider hosting the data. This provides the greatest protection against both an external breach of the service provider as well as an attack originating from a privileged user/employee of the provider. Additionally, this segregation of duties prevents the cloud provider from unauthorized disclosure of customer data, such as compliance with a subpoena, without the customer knowledge or approval. The customers should retain complete control over their data and only they should be able to comply with disclosure requests."
+2.1.6 Data Integrity:
+"If the encryption key is stored with the CSP, the use of data encryption alone may not provide sufficient assurance that encrypted information has not been altered. Files placed into the cloud for storage may be subject to tampering or replacement in this case, and encryption alone cannot detect this. Combining data encryption with integrity protections such as digital signatures can ensure that data in the cloud remains both private and authentic. Where available, use of trusted time should be considered by using time-stamped signatures on data."
+3.1.1 Key Management:
+"Ideally, the customer maintains control of the encryption keys however, customers need to choose the approach that best matches their risk tolerance and the compliance, government, audit, and/or executive mandated requirements they need to follow."</t>
+  </si>
+  <si>
     <t>#Issue 45</t>
   </si>
   <si>
     <t>https://github.com/razshare/sveltekit-sse/issues/45</t>
   </si>
   <si>
+    <t>Consider adding some randomness to the beacon and maxTimeout parameters to prevent thundering-herd scenarios?</t>
+  </si>
+  <si>
+    <t>I think a new beaconVariance property is best fit for this.
+It would vary the actual frontend beacon by beaconVariance milliseconds, to avoid the thundering-herd effect.</t>
+  </si>
+  <si>
+    <t>It would vary the actual frontend beacon by beaconVariance milliseconds, to avoid the thundering-herd effect.</t>
+  </si>
+  <si>
     <t>#Issue 5410</t>
   </si>
   <si>
     <t>https://github.com/streetcomplete/StreetComplete/issues/5410</t>
   </si>
   <si>
+    <t>streetcomplete/StreetComplete
+The OSM API is a HTTP REST API that communicates chiefly in XML. This must be ported to Kotlin multiplatform.
+Currently, the Java library de.westnordost.osmapi is used for any communication with the OSM API 0.6, i.e. uploading map data, notes and gpx tracks, downloading map data, notes, user data, etc.
+The dependency to osmapi must be replaced with an implementation based on
+ideally the http client from Multiplatform HTTP Client (use Ktor Client) #5408 and
+a multiplatform XML parser / writer, which is stable, well-tested and ideally (semi-)official / well-maintained and ideally but not necessarily compatible with kotlinx-serialization. This is also important for other XML parsing in the app, i.e. Add GPX import functionality #5369
+using kotlinx-datetime to parse timestamps (already a dependency)</t>
+  </si>
+  <si>
+    <t>the decision is to use Ktor.With io.github.pdvrieze.xmlutil, I think it makes a better sense.</t>
+  </si>
+  <si>
+    <t>Cool! Indeed. Yes, xmlutil should work. The only http client that is multiplatform also for native is Ktor Client, as far as I know, so the decision is to use Ktor. OkHttp 5 is only multiplatform jvm+js.</t>
+  </si>
+  <si>
     <t>#Issue 8062</t>
   </si>
   <si>
     <t>https://github.com/dbt-labs/dbt-core/issues/8062</t>
   </si>
   <si>
+    <t>dbt-labs/dbt-core
+Because you must hard-code your database.schema.table name when setting a foreign key constraint:
+DAG dependencies are incorrect
+multi-environment is not supported (it's very hacky)</t>
+  </si>
+  <si>
+    <t>Instead, we should support ref in foreign key constraint expression - both at the model and column level.</t>
+  </si>
+  <si>
+    <t>This feature has become more important now that warehouses use foreign key constraints for better performance.”</t>
+  </si>
+  <si>
     <t>#Issue 537</t>
   </si>
   <si>
     <t>https://github.com/w3c/activitystreams/issues/537</t>
   </si>
   <si>
+    <t>problem: sometimes you want to have attachments in a certain order, but attachment is an unordered set by default</t>
+  </si>
+  <si>
+    <t>Use new orderedX properties。
+or example, given the following:
+{
+  "@context": [
+    "https://www.w3.org/ns/activitystreams",
+    {
+      "orderedAttachment": {
+        "@id": "as:attachment",
+        "@type": "@id",
+        "@container": "@list"
+       }
+    }
+  ],
+  "orderedAttachment": ["one", "two"],
+  "attachment": ["one", "two"]
+}
+It expands into the following:
+[
+  {
+    "https://www.w3.org/ns/activitystreams#attachment": [
+      {
+        "@id": "one"
+      },
+      {
+        "@id": "two"
+      },
+      {
+        "@list": [
+          {
+            "@id": "one"
+          },
+          {
+            "@id": "two"
+          }
+        ]
+      }
+    ]
+  }
+]
+Compacting against only AS2 without the orderedAttachment extension results in this:
+{
+  "@context": "https://www.w3.org/ns/activitystreams",
+  "attachment": [
+    "one",
+    "two",
+    {
+      "@list": [
+        "one",
+        "two"
+      ]
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Use new orderedX properties. This removes the ambiguity completely, for both LD-aware and plain-JSON consumers; however, it requires plain-JSON consumers to check for the new orderedX properties, and this may result in producers duplicating information in both the unordered and ordered properties, which has unintended consequences for the LD representation.</t>
+  </si>
+  <si>
     <t>#Issue 65</t>
   </si>
   <si>
     <t>https://github.com/valkey-io/valkey/issues/65</t>
   </si>
   <si>
+    <t>valkey-io/valkey
+Automated docker builds for each release and/or commit, pushed ghcr.io and/or docker hub's registry under the open source program for increased pull limits</t>
+  </si>
+  <si>
+    <t>use Debian "by default"</t>
+  </si>
+  <si>
+    <t>My 2c (as large-scale consumers of images ourselves and a re-packager of upstream images for our downstream consumers) is that adhering to the established practice is generally a smoother and more consistent experience for downstream users, who rely on timely upstream security updates, consistent platforms to extend, and stable inclusions. Debian and Alpine security best practices, disclosures, and transparency are A++ (in my opinion) and make my life far easier.
+A quick (albeit rudimentary) search of the official docker-library images shows over 100 based on Debian, ~90 on Alpine, 10 on Ubuntu, and none on Fedora, which would certainly lean towards them should adoption as an official image be sought (which it probably should 😉!).
+The projects whose images we support that have moved away from Debian/Alpine ((we've crossed paths with AL2, Oracle Linux, and UBI), are the ones that cause us the most lost time, usually require refactoring, and may have unpredictable security releases or unclear remediation pathways.</t>
+  </si>
+  <si>
     <t>#Issue 7560</t>
   </si>
   <si>
     <t>https://github.com/apache/rocketmq/issues/7560</t>
   </si>
   <si>
+    <t>apache/rocketmq
+Currently, the RocketMQ ACL design has the following limits:
+Non-standard IP whitelist control: As usual, IP whitelist is used for restricting users to access from specific IP or IP ranges. However, in the current RocketMQ ACL, the IP whitelist is used to bypass authentication, which is inconsistent with the common way. This inconsistency may lead to security issues as it allows untrusted IP addresses to bypass access control.
+Lack of a scalable interface definition: Currently, ACL configuration information is stored in YAML file pattern. However, in some cloud scenarios, there is a desire to achieve ACL configuration information extension through database storage or microservice provisioning, which is not very convenient in the current design. This limits the flexibility and scalability of ACL configuration, and may not be suitable for specific application scenarios. At the same time, the access control for control-related interfaces is relatively insufficient, resulting in the risk of cluster data leakage.
+Ineffective separation of users and permissions: Best practice is to separate the logic of creating users and setting permissions, clearly defining the responsibilities of each. However, in the current design, users and permissions are coupled in a single file, which can lead to the potential leakage of user passwords and subsequently, security issues.</t>
+  </si>
+  <si>
+    <t>Provide a relatively standardized and universal model to support user authentication for different operations on all resources in RocketMQ. This ensures consistency and comprehensiveness in permission control throughout the RocketMQ system.
+Offer a set of standardized interface abstractions for user and permission management, as well as authentication logic in RocketMQ, to facilitate extension and implementation. This enables users to flexibly customize ACL configurations based on their specific needs and seamlessly integrate with other systems.
+Implement separation of users and permissions, while supporting encryption of user passwords, to prevent security issues caused by password leakage. By separating user and permission management logic and employing appropriate encryption measures, user password security is ensured.
+Provide a certain level of compatibility with ACL 1.0 to facilitate a relatively seamless upgrade from ACL 1.0 to the 2.0 mode. This minimizes inconvenience during the upgrade process and preserves users' existing ACL configurations and permission settings.</t>
+  </si>
+  <si>
+    <t>Standardized IP whitelist control: The enhanced ACL design provides a more standardized IP whitelist control mechanism. It effectively restricts user requests to specific IP sources and blocks access from untrusted IP addresses.
+Scalable ACL configuration and authentication mechanism: The improved design allows for easy extension and implementation of ACL-related logic. Users can conveniently customize and expand ACL configurations to meet their specific requirements. Additionally, the ACL design includes access control for control-related interfaces, enhancing the overall security of the system.
+Effective separation of user and permission management: The optimized design successfully achieves a clear separation between user authentication and permission management, establishing explicit responsibilities and boundaries for each. This enhancement significantly improves the security of the system. Additionally, user passwords are securely encrypted, effectively reducing the risk of password leaks.</t>
+  </si>
+  <si>
     <t>#Issue 270</t>
   </si>
   <si>
     <t>https://github.com/openbao/openbao/issues/270</t>
   </si>
   <si>
+    <t>openbao/openbao
+I feel that Vault's design has become trapped in a cocoon of its own making.
+This includes investing significantly in features like Raft/replication and transactions, which, in my opinion, add an unnecessary burden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suggest pushing Vault towards functioning mainly as a controller layer, where each node can handle reads and all nodes can write, assuming the database supports transactions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's clear that there are numerous databases on the market that already support these features, like spanner, foundationDB.I wish it would rely more on databases for durability, reliability, and replication, rather than on Vault itself. </t>
+  </si>
+  <si>
     <t>#Issue 1461</t>
   </si>
   <si>
     <t>https://github.com/H-uru/Plasma/issues/1461</t>
   </si>
   <si>
+    <t>The Uru patcher was never designed to deal with bundles. It can patch flat files - but not bundles.
+Technically - the Uru patcher could approach a bundle as just another folder. But code signing would become an issue. The Uru patcher can add new files to a folder - but it cannot delete files that should no longer be present. This could cause the patcher to merge different versions of a bundle - which would lead to code signing errors.</t>
+  </si>
+  <si>
+    <t>I would propose adding a "Mac bundle" flag to the manifest. When the Mac bundle flag is encountered - instead of hashing based on a file, Uru will do a folder based hash. It will traverse the tree in alphabetical order and incrementally build a hash of the entire tree.</t>
+  </si>
+  <si>
+    <t>Bundles should never be merged - so the patcher would need to make sure the resulting bundle is exactly what is contained in the gzip."
+To the user - the application bundle looks like a single file and Uru should treat it that way.</t>
+  </si>
+  <si>
     <t>#Issue 1517</t>
   </si>
   <si>
     <t>https://github.com/k2-fsa/icefall/issues/1517</t>
   </si>
   <si>
+    <t>k2-fsa/icefall
+Hi, thanks for the great work on this library! We're currently using Kaldi in production and are looking to migrate to k2 / icefall. There are quite a lot of different models available already (great!) but this also makes it a bit difficult to understand what is the current recommended approach and best practices to implement k2 for training and deployment. Choices such as the encoder architecture, CTC vs transducer, decoding strategy, how well does punctuation work if adding it while training, etc. I know this is heavily usecase-dependent so I'll try to sketch ours.
+For context, our usecase:
+We are transcribing Dutch, mostly focussed on the healthcare domain.
+We need to support streaming ASR (and might need async as well). Low latency is important.
+We have ~1700 hours of general Dutch spoken data (mostly not punctuated; some punctuated), ~100 hours in-domain annotated (punctuated), ~1000+ hours in-domain unannotated.
+We have a lot of in-domain text data. Using this for Kaldi's language model (ngram) has greatly increased its performance. If possible, we want to use a language model for rescoring the output. The hybrid model works great as we have a lot of very specific words, e.g. medicine names, that can be boosted through textual data.
+It would be immensely appreciated if someone could give some recommendations and point in the right direction, considering the usecase. Especially concerning the following choices:
+CTC vs Transducer architecture and why?</t>
+  </si>
+  <si>
+    <t>We recommend Transducer</t>
+  </si>
+  <si>
+    <t>CTC vs Transducer architecture and why?
+We recommend Transducer because it has shown better performance on a wide range of benchmarks. Both models support streaming and transducer addresses the conditional independence assumption of CTC, making it a better ASR architecture.</t>
+  </si>
+  <si>
     <t>#Issue 313</t>
   </si>
   <si>
     <t>https://github.com/marcolivierarsenault/moonraker-home-assistant/issues/313</t>
   </si>
   <si>
+    <t>marcolivierarsenault/moonraker-home-assistant
+Option to unset state_class so the Long Term Statistics are not collected
+By default (after #284), a lot of entities have state_class set to measurement or similar which enables HA to save long term statistics for them. This grows DB size pretty quickly</t>
+  </si>
+  <si>
+    <t>Unless it's best practice in home assistant to do so, I will NOT change the state_class based on user config.</t>
+  </si>
+  <si>
+    <t>My concern is, measurement is used for more than long term storage. it is also use for statistics. So I want to follow best practices of the home assistant platform</t>
+  </si>
+  <si>
     <t>#Issue 2378</t>
   </si>
   <si>
     <t>https://github.com/grpc/grpc-dotnet/issues/2378</t>
   </si>
   <si>
+    <t>grpc/grpc-dotnet
+Assume I have an application that is both gRPC server and client.
+Some RPC called in the server leads to calling another RPC using the client.
+For example if one uses x-correlation-ids to track calls, what is the best practice to pass a metadata-element from one rpc to another?</t>
+  </si>
+  <si>
+    <t>A server interceptor is used to read the correlation data from the incoming call's metadata from ServerCallContext.RequestHeaders. It is stored in a suitable "ambient" storage location for correlation metadata, like in the current Activity or an AsyncLocal.
+Client interceptors know to look at the ambient storage and propagate the correlation metadata on outgoing calls via ClientInterceptorContext.CallOptions.</t>
+  </si>
+  <si>
+    <t>Using an intermediate storage location means that your in-process logging can be associated with the correlation metadata. It also allows you to propagate correlation metadata across protocols that send metadata differently.</t>
+  </si>
+  <si>
     <t>#Issue 33070</t>
   </si>
   <si>
     <t>https://github.com/Expensify/App/issues/33070</t>
   </si>
   <si>
+    <t>We will start with enabling the Proguard and removing any resources that aren't used in the app and in the app's library.</t>
+  </si>
+  <si>
+    <t>We will start with enabling the Proguard and removing any resources that aren't used in the app and in the app's library. I think we should try this and conduct a regression of the app and see if it negatively affects the app.</t>
+  </si>
+  <si>
+    <t>This is a great result, saving around 10-11 MB as compared to the results in Measurements phase, seems like magic
+some libraries might not be ready for it. There are cases when it can actually delete used code and resources if they are not referenced directly.
+Enabling Proguard requires extensive testing of the whole app... risk it breaks something might not be huge, but it might happen pretty much anywhere.
+I don't see gains being huge here and yet I can see some risks.</t>
+  </si>
+  <si>
     <t>#Issue 50480</t>
   </si>
   <si>
     <t>https://github.com/rails/rails/issues/50480</t>
   </si>
   <si>
+    <t>Out of the box, Action Cable will only work with a single process setup using the in-memory adapter. If you run multiple processes, let alone multiple app servers, you have to add Redis to the mix or be running PostgreSQL. Redis is great, but it's another moving part, and PostgreSQL is also lovely, but it's only one out of our 3 supported databases. Action Cable should work with multiple processes out of the box regardless of which of the supported databases you use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We ended up using Redis anyway for Campfire. But would ALSO like to see an action cable adapter for sqlite ship in the box. </t>
+  </si>
+  <si>
+    <t>We ended up using Redis anyway for Campfire because we wanted it for transient caching, so then it made sense to use it for Action Cable as well, since it's more efficient. But would ALSO like to see an action cable adapter for sqlite ship in the box. So nobody should need Redis.</t>
+  </si>
+  <si>
     <t>#Issue 57234</t>
   </si>
   <si>
     <t>https://github.com/WordPress/gutenberg/issues/57234</t>
   </si>
   <si>
+    <t>As previously discussed in #40447, it is a hard requirement that a *.asset.php file is present to register a block in WordPress. Otherwise, it throws a Warning: function register_block_script_handle was called incorrectly. The asset file (/wp-content/uploads/faustwp/blocks/block-a/index.asset.php) for the "editorScript" defined in "create-block/block-a" block definition is missing. (This message was added in version 5.5.0.), and the block will not appear in the inserter.</t>
+  </si>
+  <si>
+    <t>After reading the comments, I'm in favor of removing the _doing_it_wrong warning and continuing the script registration process with the default values provided. So it would be similar to what @josephfusco proposed in WordPress/wordpress-develop#5799 but without the filter, as we are essentially proceeding as it was always set to false</t>
+  </si>
+  <si>
+    <t>This would also allow developers flexibility in tooling and possibly set up custom webpack integrations (or even other build tools). Similarly, this may benefit progress toward the experiments in lazy-loading block infrastructure #2768.</t>
+  </si>
+  <si>
     <t>#Issue 133198</t>
   </si>
   <si>
     <t>https://github.com/flutter/flutter/issues/133198</t>
+  </si>
+  <si>
+    <t>Resetting individual command buffers is slow, and ARM says not to do it, and because of the threading restrictions we have to use our (important) raster thread to do this resetting (it can't happen in a background thread).</t>
+  </si>
+  <si>
+    <t>"Change the architecture so we create one command pool, per thread, per frame, and when the frame is done, we stop creating command buffers from that particular command pool, let the buffers finish (using the fence waiter), and then it's safe to move the command pool to a background thread to do the reset.</t>
+  </si>
+  <si>
+    <t>..let the buffers finish (using the fence waiter), and then it's safe to move the command pool to a background thread to do the reset (so the expensive work happens off the raster thread).
+...we create one command pool per thread, and re-use them by resetting individual command buffers; not as they come in, but the next time we need to use them, i.e. lazily garbageCollectIfEnabled.
+It's not 1ms here and there though, it's a couple 100 microseconds per raster thread, and it adds up.
+I think if for whatever reason it was faster to reset / recycle individual buffers that would be fine - however the real key here is being able to move that work out of the raster task runner</t>
   </si>
 </sst>
 </file>
@@ -1591,824 +3317,1735 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="79.5454545454545" customWidth="1"/>
+    <col min="3" max="4" width="26.0181818181818" customWidth="1"/>
+    <col min="5" max="5" width="40.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" spans="1:2">
+    <row r="1" ht="14.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="14.5" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="14.5" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="14.5" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="14.5" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" ht="14.5" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" ht="14.5" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="14.5" customHeight="1" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="14.5" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="14.5" customHeight="1" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" ht="14.5" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="14.5" customHeight="1" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" ht="14.5" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5" customHeight="1" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" ht="14.5" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" ht="14.5" customHeight="1" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="14.5" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="14.5" customHeight="1" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="14.5" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" ht="14.5" customHeight="1" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" ht="14.5" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" ht="14.5" customHeight="1" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" ht="14.5" customHeight="1" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" ht="14.5" customHeight="1" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" ht="14.5" customHeight="1" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" ht="14.5" customHeight="1" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" ht="14.5" customHeight="1" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" ht="14.5" customHeight="1" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" ht="14.5" customHeight="1" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" ht="14.5" customHeight="1" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" ht="14.5" customHeight="1" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" ht="14.5" customHeight="1" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" ht="14.5" customHeight="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" ht="14.5" customHeight="1" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" ht="14.5" customHeight="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" ht="14.5" customHeight="1" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" ht="14.5" customHeight="1" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" ht="14.5" customHeight="1" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" ht="14.5" customHeight="1" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" ht="14.5" customHeight="1" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" ht="14.5" customHeight="1" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" ht="14.5" customHeight="1" spans="1:2">
+        <v>149</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" ht="14.5" customHeight="1" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" ht="14.5" customHeight="1" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" ht="14.5" customHeight="1" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" ht="14.5" customHeight="1" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" ht="14.5" customHeight="1" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" ht="14.5" customHeight="1" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" ht="14.5" customHeight="1" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" ht="14.5" customHeight="1" spans="1:2">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" ht="14.5" customHeight="1" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" ht="14.5" customHeight="1" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" ht="14.5" customHeight="1" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" ht="14.5" customHeight="1" spans="1:2">
+        <v>179</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" ht="14.5" customHeight="1" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" ht="14.5" customHeight="1" spans="1:2">
+        <v>179</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" ht="14.5" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" ht="14.5" customHeight="1" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" ht="14.5" customHeight="1" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" ht="14.5" customHeight="1" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" ht="14.5" customHeight="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" ht="14.5" customHeight="1" spans="1:2">
+        <v>197</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" ht="14.5" customHeight="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" ht="14.5" customHeight="1" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" ht="14.5" customHeight="1" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" ht="14.5" customHeight="1" spans="1:2">
+        <v>207</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" ht="14.5" customHeight="1" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" ht="14.5" customHeight="1" spans="1:2">
+        <v>212</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" ht="14.5" customHeight="1" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" ht="14.5" customHeight="1" spans="1:2">
+        <v>217</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" ht="14.5" customHeight="1" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" ht="14.5" customHeight="1" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" ht="14.5" customHeight="1" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" ht="14.5" customHeight="1" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" ht="14.5" customHeight="1" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" ht="14.5" customHeight="1" spans="1:2">
+        <v>232</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" ht="14.5" customHeight="1" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" ht="14.5" customHeight="1" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" ht="14.5" customHeight="1" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" ht="14.5" customHeight="1" spans="1:2">
+        <v>242</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" ht="14.5" customHeight="1" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" ht="15.5" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" ht="14.5" customHeight="1" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" ht="15.5" spans="1:2">
+        <v>252</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" ht="14.5" customHeight="1" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" ht="15.5" spans="1:2">
+        <v>257</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" ht="14.5" customHeight="1" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" ht="15.5" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" ht="14.5" customHeight="1" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" ht="15.5" spans="1:2">
+        <v>267</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" ht="14.5" customHeight="1" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" ht="15.5" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" ht="14.5" customHeight="1" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" ht="15.5" spans="1:2">
+        <v>277</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" ht="14.5" customHeight="1" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" ht="15.5" spans="1:2">
+        <v>282</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" ht="14.5" customHeight="1" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" ht="15.5" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" ht="14.5" customHeight="1" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" ht="15.5" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" ht="14.5" customHeight="1" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" ht="15.5" spans="1:2">
+        <v>297</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" ht="14.5" customHeight="1" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" ht="15.5" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" ht="14.5" customHeight="1" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" ht="15.5" spans="1:2">
+        <v>307</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" ht="14.5" customHeight="1" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" ht="15.5" spans="1:2">
+        <v>312</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" ht="14.5" customHeight="1" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" ht="15.5" spans="1:2">
+        <v>312</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" ht="14.5" customHeight="1" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" ht="15.5" spans="1:2">
+        <v>312</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" ht="14.5" customHeight="1" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" ht="15.5" spans="1:2">
+        <v>323</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" ht="14.5" customHeight="1" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" ht="15.5" spans="1:2">
+        <v>328</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" ht="14.5" customHeight="1" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" ht="15.5" spans="1:2">
+        <v>333</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" ht="14.5" customHeight="1" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" ht="15.5" spans="1:2">
+        <v>338</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" ht="14.5" customHeight="1" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" ht="15.5" spans="1:2">
+        <v>343</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" ht="14.5" customHeight="1" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" ht="15.5" spans="1:2">
+        <v>348</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" ht="14.5" customHeight="1" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>352</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" ht="15.5" spans="1:2">
+        <v>353</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" ht="14.5" customHeight="1" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>357</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" ht="15.5" spans="1:2">
+        <v>358</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" ht="14.5" customHeight="1" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" ht="15.5" spans="1:2">
+        <v>363</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" ht="14.5" customHeight="1" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>146</v>
+        <v>367</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" ht="15.5" spans="1:2">
+        <v>368</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" ht="14.5" customHeight="1" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" ht="15.5" spans="1:2">
+        <v>373</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" ht="14.5" customHeight="1" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" ht="15.5" spans="1:2">
+        <v>378</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" ht="14.5" customHeight="1" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" ht="15.5" spans="1:2">
+        <v>383</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" ht="14.5" customHeight="1" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>154</v>
+        <v>387</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" ht="15.5" spans="1:2">
+        <v>388</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" ht="14.5" customHeight="1" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>156</v>
+        <v>392</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" ht="15.5" spans="1:2">
+        <v>393</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" ht="14.5" customHeight="1" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>158</v>
+        <v>397</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" ht="15.5" spans="1:2">
+        <v>398</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" ht="14.5" customHeight="1" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>160</v>
+        <v>402</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" ht="15.5" spans="1:2">
+        <v>403</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" ht="14.5" customHeight="1" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" ht="15.5" spans="1:2">
+        <v>408</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" ht="14.5" customHeight="1" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" ht="15.5" spans="1:2">
+        <v>413</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" ht="14.5" customHeight="1" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" ht="15.5" spans="1:2">
+        <v>418</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" ht="14.5" customHeight="1" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" ht="15.5" spans="1:2">
+        <v>423</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" ht="14.5" customHeight="1" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" ht="15.5" spans="1:2">
+        <v>428</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" ht="14.5" customHeight="1" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>172</v>
+        <v>432</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" ht="15.5" spans="1:2">
+        <v>433</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" ht="14.5" customHeight="1" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>437</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" ht="15.5" spans="1:2">
+        <v>438</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" ht="14.5" customHeight="1" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" ht="15.5" spans="1:2">
+        <v>443</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" ht="14.5" customHeight="1" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" ht="15.5" spans="1:2">
+        <v>448</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="93" ht="14.5" customHeight="1" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>180</v>
+        <v>452</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" ht="15.5" spans="1:2">
+        <v>453</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" ht="14.5" customHeight="1" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" ht="15.5" spans="1:2">
+        <v>458</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" ht="14.5" customHeight="1" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" ht="15.5" spans="1:2">
+        <v>463</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" ht="14.5" customHeight="1" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>186</v>
+        <v>467</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" ht="15.5" spans="1:2">
+        <v>468</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="97" ht="14.5" customHeight="1" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>472</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" ht="15.5" spans="1:2">
+        <v>473</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" ht="14.5" customHeight="1" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>190</v>
+        <v>477</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" ht="15.5" spans="1:2">
+        <v>478</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" ht="14.5" customHeight="1" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>192</v>
+        <v>482</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" ht="15.5" spans="1:2">
+        <v>483</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" ht="14.5" customHeight="1" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" ht="15.5" spans="1:2">
+        <v>488</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" ht="14.5" customHeight="1" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>196</v>
+        <v>492</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>197</v>
+        <v>493</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/Collected_Data.xlsx
+++ b/Collected_Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Selected Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Selected Data'!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Selected Data'!$F$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="604">
   <si>
     <t>ID</t>
   </si>
@@ -38,12 +38,18 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Archived Link</t>
+  </si>
+  <si>
     <t>Architecture Problem</t>
   </si>
   <si>
     <t>Architecture Decision</t>
   </si>
   <si>
+    <t>Type of Architecture Decision</t>
+  </si>
+  <si>
     <t>Design Rationale (Human Experts)</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/76284035</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622075942/https://stackoverflow.com/questions/76284035/two-backends-one-db-whats-the-best-way-to-integrate-data-with-django</t>
   </si>
   <si>
     <t>Currently I'm working in a project that will add a functionality to a legacy application.
@@ -73,6 +82,9 @@
     <t>My instinct in the situation is to modify the constructor, but Django really discourages changing Model constructors for various reasons. However, we can still achieve this functionality by connecting to formal signals Django fires off. You'd be looking at a pre-init signal or possibly post-init you'll have to test.</t>
   </si>
   <si>
+    <t>Implementation Decision</t>
+  </si>
+  <si>
     <t>In theory if you connect code to the pre-init signal of the original model it could call out to extended model table and ensure the relationships necessary exist before any code fires to work with the model. I think this approach would much more closely achieve what you're attempting to enforce without a lot of extra hassle and dead network calls.</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/76296961</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622080211/https://stackoverflow.com/questions/76296961/microservices-architecture-with-django</t>
   </si>
   <si>
     <t>I have some questions about creating microservices with Django.
@@ -99,6 +114,9 @@
     <t>Design your Monolithic application very well, separate out your concerns and business logic in a de-coupled design, even if it's a monolith. you have to have the mindset of: "if I want to swap this functionality for a microservice, how easily will it be to rip it out, what is the coupling, etc...)</t>
   </si>
   <si>
+    <t>Technology Decision</t>
+  </si>
+  <si>
     <t>A good design leads to scalability and maintainability which is most important. It also allows other people to contribute their expertise on a subset of the project, without needing to know the whole.</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/76313670</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622080415/https://stackoverflow.com/questions/76313670/guidance-on-long-running-azure-deployments</t>
   </si>
   <si>
     <t>We are currently developing a set of Bicep libraries as part of our infrastructure as code overally strategy and while deployments that take a few minutes to run are no issue we have to consider a slightly different approach to long running tasks.
@@ -122,32 +143,36 @@
 Adding more complexity to the bicep module structure, you need to make sure that ASE creation doesn't wait for a connection string from your SQL MI deployment.</t>
   </si>
   <si>
-    <t>#SO 77028441</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77028441</t>
-  </si>
-  <si>
-    <t>For context:
-I'm working on an Angular 15 app, where I distinguish between smart and dumb components. My smart components do have connection to services, whereas the dumb components only communicate via Inputs and Outputs with the smart component and do not get any services injected.
-Within the smart components I use a reactive declarative (rxjs) approach to react to events. However, by now these smart components involve many reactive streams which makes the component bloated.
-As these smart components are kind of "collectors" of many events and the "access" to the api service, I don't see reasonable way how I could break up the component into smaller parts.
-Question:
-I was thinking about using Design Patterns, e.g. the Facade Pattern, to declutter the component by putting the reactive streams into a separate service and the component would only have to subscribe to the final observables and handle the side effects (like UI updates).
-However, I wonder if this would be a smart approach and if there are better ways to deal with this situation.</t>
-  </si>
-  <si>
-    <t>Generally using a separate service for managing data is a valid approach. You can create "MySmartService", make it non-singleton, and declare it as a provider for MySmartComponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perhaps it makes sense to create several additional services - one for API , one for user events, etc. So every service has one purpose and follows single responsibility principle.
-</t>
+    <t>#Discussion 539</t>
+  </si>
+  <si>
+    <t>https://github.com/burningalchemist/sql_exporter/discussions/539</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050430/https://github.com/burningalchemist/sql_exporter/discussions/539</t>
+  </si>
+  <si>
+    <t>I've had a look around the code, README, etc and I didn't find any means of auto-discovering target databases to scrape.
+Most scrapers like postgres_exporter and pg_exporter support querying pg_catalog.pg_database to enumerate databases available on the postgres instance and run metrics queries on each one during a scrape.
+Is there a means to do any similar sort of discovery with sql_exporter or does that have to be handled by some external co-ordinating tool that watches for DB creations/drops and updates the sql_exporter configured targets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> users organise/generate their configuration with the desired information obtained from the configuration management systems or available APIs.</t>
+  </si>
+  <si>
+    <t>Component Decision</t>
+  </si>
+  <si>
+    <t>It's tricky as each database engine keeps the logical database info in a specific place, so to support 30+ database engines, we would need to hardcode these locations and maintain them. Some of them (e.g. Snowflake) keep this information outside of the instance or it's not easily obtainable. In this case, it's easier and more consistent to let users organise/generate their configuration with the desired information obtained from the configuration management systems or available APIs.</t>
   </si>
   <si>
     <t>#SO 77034818</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77034818</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622080704/https://stackoverflow.com/questions/77034818/conditional-type-based-on-generics-types-with-entry-properties-check</t>
   </si>
   <si>
     <t>I create a function who take an argument with two architecture. I do not enforce rules to give user flexibility which is my headache now. Anyway.
@@ -183,6 +208,9 @@
     <t>https://stackoverflow.com/questions/77059954</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622080804/https://stackoverflow.com/questions/77059954/correct-aggregate-roots-in-appointment-scheduling-application</t>
+  </si>
+  <si>
     <t>I'm working on an application where one of the modules is responsible for scheduling appointments. I have some problems with creating correct aggregate roots.
 There are DailySchedules where the owner of the business can define working slots. Customers can schedule appointments and there are two invariants:
 appointment has to fit to working slot,
@@ -194,6 +222,9 @@
     <t>#3 idea is to have DailySchedule and Appointment as the two AR and break the rule that there should be only one aggregate modified in a single transaction. It will look exactly like in #1 scenario, but I will be able to use optimistic locking on DailySchedule and persist new Appointment in a single transaction.</t>
   </si>
   <si>
+    <t>Design Pattern Decision</t>
+  </si>
+  <si>
     <t>This is how you avoid complexities like multiple, distributed transactions across aggregates. However, this only works once. When you add a second aggregate, you have to embrace either 2-phase commits, distributed transactions, or eventual consistency.</t>
   </si>
   <si>
@@ -201,6 +232,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77070210</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622080906/https://stackoverflow.com/questions/77070210/how-to-design-a-hotel-booking-system-with-a-on-hold-feature</t>
   </si>
   <si>
     <t>I encountered this system design question in a interview and I didn't have the best answer.
@@ -215,6 +249,9 @@
     <t>I'd actually consider a database of some sort which inserts hold rows with an explicit expiry time on them</t>
   </si>
   <si>
+    <t>Data Decision</t>
+  </si>
+  <si>
     <t>I'd actually consider a database of some sort which inserts hold rows with an explicit expiry time on them so that you can query it efficiently. It will give you lots of downstream advantages such as being able to easily extend the hold time, and being able to do things like find out historically interesting things like conversion rates.</t>
   </si>
   <si>
@@ -222,6 +259,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77143661</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622081144/https://stackoverflow.com/questions/77143661/trigger-aws-lambda-when-timestamp-is-fulfilled</t>
   </si>
   <si>
     <t>An external process calculates a timestamp related to an ID, for example:
@@ -245,6 +285,9 @@
     <t>https://stackoverflow.com/questions/77159234</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622081741/https://stackoverflow.com/questions/77159234/mental-model-for-control-plane-and-data-plane</t>
+  </si>
+  <si>
     <t>Question - What's the mental model people use for control plane vs data plane? How should I view control plane vs data plane for different kinds of resources?</t>
   </si>
   <si>
@@ -254,6 +297,9 @@
 typically, we care a bit more about latency in data plane, than control plane.</t>
   </si>
   <si>
+    <t>Architecture Pattern Decision</t>
+  </si>
+  <si>
     <t>data plane services do not depend on control plane ones, there is no Runtime dependency, only logical one. In other words, if my control plane services are down, my control services are still working fine (clearly new users won't be able to create new accounts, but existing users may stream as usual)
 data plane must have a better availability numbers (SLA), than control plane. This is not to say that control plane is under designed, but if I need to make a development/support trade off, I would pick data plane priorities first
 typically, we care a bit more about latency in data plane, than control plane. If I have to make a trade off on which part to optimize, I would pick data plane features as those affect my customers day to day experience</t>
@@ -263,6 +309,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77180441</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622082312/https://stackoverflow.com/questions/77180441/kafka-mirror-to-apache-kafka-from-aws-mks-cluster</t>
   </si>
   <si>
     <t>I'm confused about the architecture of mirroring a topic among an AWS MKS cluster (source) to another Apache Kafka cluster (target).
@@ -286,6 +335,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77185806</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622082354/https://stackoverflow.com/questions/77185806/what-is-the-exact-benefits-on-using-ports-adapters-in-hexagonal-architecture</t>
   </si>
   <si>
     <t>Lets say we have a typical implementation of the ports/adapter pattern:
@@ -328,6 +380,9 @@
     <t>https://stackoverflow.com/questions/77224893</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622082442/https://stackoverflow.com/questions/77224893/transactional-outbox-and-message-duplicates-with-mutiple-microservice-instances</t>
+  </si>
+  <si>
     <t>I have a Microservice that is having a Postgres database and I have some CRUD operations that I do with this service. For some of the insert operations, I need to pass on the newly inserted record to another service and I'm using a messaging system in between.
 The architecture pattern is like where I run several instances of this Microservice behind a load balancer and every insert is processed by one of the running instance of the Microservice. To implement the transactional outbox, I have a table where I write the intent and I have a simple polling mechanism in the Microservice itself that polls this table every minute to fetch the intent from the outbox table and sends it to a messaging system. Now I have several questions:
 If I run multiple instances of this Microservice, then I might end up having to select the same records by these multiple instances and this could result in duplicates, unnecessary resource utilization etc.,</t>
@@ -345,6 +400,9 @@
     <t>https://stackoverflow.com/questions/77246412</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622082547/https://stackoverflow.com/questions/77246412/should-i-create-a-separate-activity-for-different-user-types-in-a-jetpack-compos</t>
+  </si>
+  <si>
     <t xml:space="preserve">I'm developing an Android application using Jetpack Compose, and I'm facing a design decision regarding handling different user types, such as admin and user, within the app. </t>
   </si>
   <si>
@@ -358,6 +416,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77290436</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622082641/https://stackoverflow.com/questions/77290436/can-a-use-case-class-have-more-than-one-method-to-deal-with-the-business-logic</t>
   </si>
   <si>
     <t>Consider the following example in C# that I see in many languages of a use case that registers the user with the system, normally I always see a single execute or invoke function to perform the use case action.
@@ -410,6 +471,9 @@
     <t>https://stackoverflow.com/questions/77337477</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622082854/https://stackoverflow.com/questions/77337477/android-multi-module-architecture-domain-depends-on-data-or-vice-versa</t>
+  </si>
+  <si>
     <t>Some Android multi-module architecture examples show that domain layer depends on data. Others are vice versa.
 Android Developers site says:
 The domain layer is an optional layer that sits between the UI layer and the data layer.
@@ -444,12 +508,15 @@
     <t>https://stackoverflow.com/questions/77344662</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622082952/https://stackoverflow.com/questions/77344662/loading-remote-libraries-from-different-package</t>
+  </si>
+  <si>
     <t>I had a situation where I am going to develop two android applications and lets say the first application App A will be having the different libraries in it and the second application lets say App B that I develop should be able to load the libraries from the App A. User should not move between applications using Intents, user should be in the App B and he should never know that the libraries are from App A. We need to develop the applications such that user should feel that he is loading the libraries from the same application itself but in reality those applications will be in the other application.
 I think that we can achieve this by Package Visibility but not in greater detail. It would be really helpful if someone help me step by step process.
 I had thought of Content Providers, IPC Mechanisms like Messenger and AIDL but instead of that complex architecture I found that we can implement this by using the package visibility concept. Firstly we need to register the package of App A in App B and then load the libraries from App A in the App B. If someone knows how I can do this step by step, it would be really helpful for me.</t>
   </si>
   <si>
-    <t xml:space="preserve">If you do not like IPC, do not have two apps. </t>
+    <t>If you do not like IPC, do not have two apps.</t>
   </si>
   <si>
     <t>In addition to the complexity for you, there is complexity for the user. App B will not work — either entirely or in part — if App A is unavailable for any reason, such as:
@@ -463,6 +530,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77352234</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622083146/https://stackoverflow.com/questions/77352234/nextjs-13-server-components-vs-client-components-in-complex-ui</t>
   </si>
   <si>
     <t>I have some doubts on overall architecture of complex, data driven UIs. Taking the usual blog page example with a sidebar, header and logo where the idea is that:
@@ -486,6 +556,9 @@
     <t>ou also have the option of rendering SSR components as children of CSR components</t>
   </si>
   <si>
+    <t>Integration Decision</t>
+  </si>
+  <si>
     <t xml:space="preserve">you also have the option of rendering SSR components as children of CSR components, which would allow you to more dynamically choose how to structure your project.
 </t>
   </si>
@@ -494,6 +567,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77361294</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622083311/https://stackoverflow.com/questions/77361294/do-microservices-inter-communicate-using-api-calls-or-just-only-using-message-br</t>
   </si>
   <si>
     <t>I Developed two microservices and I integrated RabbitMQ also as a Message Broker. My concern is, Does microservice architecture allows inter-communication using direct API Calls or it totally depend on Message Broker for intercommunication?
@@ -520,6 +596,9 @@
     <t>https://stackoverflow.com/questions/77386644</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622083540/https://stackoverflow.com/questions/77386644/is-it-a-good-practice-to-use-kubernetes-cronjobs-for-dynamically-creating-and-ma</t>
+  </si>
+  <si>
     <t>I'm developing a microservices-based system where one of the microservices is a scheduler responsible for handling a large number of dynamic jobs. These jobs are created, modified, and deleted during runtime via the microservice's API.
 My plan is to use Kubernetes CronJobs to manage these jobs. However, I'm concerned about the scalability and performance implications of potentially dealing with thousands of dynamically created CronJobs.
 Is using Kubernetes CronJobs a recommended approach for efficiently managing a large number of dynamic jobs within a microservices architecture? If not, what alternative strategies or best practices should I consider for this use case? Any insights or recommendations from the community would be greatly appreciated.</t>
@@ -535,6 +614,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77390082</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622083708/https://stackoverflow.com/questions/77390082/how-to-secure-own-iframe-from-having-the-auth-token-stolen</t>
   </si>
   <si>
     <t>I am currently facing a problem with creating an iFrame for my ChatBot.
@@ -559,6 +641,9 @@
     <t>https://stackoverflow.com/questions/77395787</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622083757/https://stackoverflow.com/questions/77395787/blazor-server-and-entity-framework-entity-tracking-issues</t>
+  </si>
+  <si>
     <t>I'm creating a basic CRUD application with Blazor, .NET 6 and EF Core 6 with lazy loading.
 I've noticed a lot of integration issues when creating Web Component -&gt; Service -&gt; Repository -&gt; Generic Repository pattern. The issue that bugs me the most is when creating nesting components the tracking/disposal of EF Context seems to break a lot.
 I've also seen this video on how to use it correctly and I'm not sure if that is correct that you should instantiate context every time when doing a query to DB? Also the problem rises when you want to add some custom logic to the queries, like pagination.
@@ -573,32 +658,38 @@
     <t>The reason is that it either introduces complexity or ends up crippling the capabilities that EF can provide. (or both)</t>
   </si>
   <si>
-    <t>#SO 77401552</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77401552</t>
-  </si>
-  <si>
-    <t>What is best practice of bloc usage with nested data, when I have a list view, a detail view of the selected record and maybe a detail view of a subrecord?
-Let's say I have an app, showing some reports.
-Option A) One bloc for each view (e.g. AllReportsBloc, ReportsDetailBloc, ContactDetailBloc)
-image of architecture option a
-Option B) One single bloc for all three views (e.g. ReportsBloc)
-image of architecture option b
-I've tried both of them but neither option a nor option b seems to be a solid solution</t>
-  </si>
-  <si>
-    <t>Option A is the ideal answer.
-Since all of the blocs depends on the same repository, you can create a stream or a variable that can hold the updated Reports inside the repository.</t>
-  </si>
-  <si>
-    <t>This will listen to the updates coming from the exposed stream of the repository. In this way, you avoided the bloc-to-bloc communications and handled the logic for single-source of data properly.</t>
+    <t>#SO 77028441</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/77028441</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622080543/https://stackoverflow.com/questions/77028441/facade-pattern-for-rxjs-streams-for-cleaner-angular-architecture</t>
+  </si>
+  <si>
+    <t>For context:
+I'm working on an Angular 15 app, where I distinguish between smart and dumb components. My smart components do have connection to services, whereas the dumb components only communicate via Inputs and Outputs with the smart component and do not get any services injected.
+Within the smart components I use a reactive declarative (rxjs) approach to react to events. However, by now these smart components involve many reactive streams which makes the component bloated.
+As these smart components are kind of "collectors" of many events and the "access" to the api service, I don't see reasonable way how I could break up the component into smaller parts.
+Question:
+I was thinking about using Design Patterns, e.g. the Facade Pattern, to declutter the component by putting the reactive streams into a separate service and the component would only have to subscribe to the final observables and handle the side effects (like UI updates).
+However, I wonder if this would be a smart approach and if there are better ways to deal with this situation.</t>
+  </si>
+  <si>
+    <t>Generally using a separate service for managing data is a valid approach. You can create "MySmartService", make it non-singleton, and declare it as a provider for MySmartComponent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps it makes sense to create several additional services - one for API , one for user events, etc. So every service has one purpose and follows single responsibility principle.
+</t>
   </si>
   <si>
     <t>#SO 77448838</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77448838</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622084033/https://stackoverflow.com/questions/77448838/placement-of-business-logic-as-validation-of-data-in-architecture</t>
   </si>
   <si>
     <t>I have a budget entity in my domain which can be closed by the user if the budget is open. This means if the budget opens today and closes in seven days, in between this time I can close it, not before (I'd have to delete it), not after (can't do any action).
@@ -643,6 +734,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77476674</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622084125/https://stackoverflow.com/questions/77476674/cant-resolve-data-dependencies-in-blazor-server</t>
   </si>
   <si>
     <t>I am trying to implement clean architecture in my blazor server project. In my application layer I have this service.
@@ -703,6 +797,9 @@
     <t>https://stackoverflow.com/questions/77482900</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622084329/https://stackoverflow.com/questions/77482900/backfilling-new-column-using-value-from-go-code</t>
+  </si>
+  <si>
     <t>What is the best way to go about backfilling a new column with values that are from Go application code? Ideally I would go through each row, call the Go code, and use the return value as the column value. The Go code is stateful. That is, it acts on data structure that is updated on every new row and from this information computes a value.
 What I'm thinking about doing is having a migration that would add the new column as nullable, and then after the migration, run a Go program that would backfill the rows. However, it'd be better if all of this can be done in one migration, especially since this column should be NOT NULL from the start.
 We use Flyway for migrations. Our database is Postgres 11.5.</t>
@@ -720,6 +817,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77542899</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622084517/https://stackoverflow.com/questions/77542899/list-filtering-in-repository-in-clean-architeture</t>
   </si>
   <si>
     <t>I'm trying to implement repository layer of clean architecture based on SqlAlchemy. For now I'm trying to figure out how to work with filtering in different cases. The code:
@@ -811,6 +911,9 @@
     <t>https://stackoverflow.com/questions/77579165</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622084557/https://stackoverflow.com/questions/77579165/this-is-about-the-repository-layer-when-implementing-a-clean-architecture-using</t>
+  </si>
+  <si>
     <t>This Repository I'm learning how to develop apps along clean architecture while using Riverpod with Flutter. However, there are implementation methods for which the benefits are unclear.
 I can see the advantage of creating an abstract class for the Datasource layer part and directing dependencies to the abstract class rather than the concrete class. (Useful for improving the ease of refactoring when changing the package used or changing the concrete Datasource class for each platform) However, I don't understand the benefit of dividing the Repository layer class into abstract classes and concrete classes. I'm using Reiverpod so it shouldn't be for DI purposes. Also, I don't understand the benefit of creating an abstract class over a concrete class, such as in the Usecase layer.
 Why is the Repository class implemented with an abstract class and a concrete class? What are the benefits?</t>
@@ -827,6 +930,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77596691</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622084700/https://stackoverflow.com/questions/77596691/how-to-efficiently-organize-authentication-authorization-using-jwt-in-a-micros</t>
   </si>
   <si>
     <t>Following a tutorial on JWT HttpOnly cookie authorization in Spring boot, I have built a simple app that registers, logs in and logs out a user. It maps only post requests to /login /signup and /logout as a result. The Spring Security configuration in the app filters all incoming requests and populate the SecurityContext with authenticated object if the token is of a valid authenticated user.
@@ -848,6 +954,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77615623</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622084742/https://stackoverflow.com/questions/77615623/ways-to-implement-single-account-for-multiple-games-unity</t>
   </si>
   <si>
     <t>I'm currently developing 2 different multiplayer games on Unity where the user has to register (and subsequently log in) to be able to play.
@@ -872,6 +981,9 @@
     <t>https://stackoverflow.com/questions/77631866</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622084942/https://stackoverflow.com/questions/77631866/centralized-database-for-multiple-consumers-vs-local-datasets</t>
+  </si>
+  <si>
     <t>I was looking for some general advice for the following situation. Here is some context:
 An organization has an API that is used by multiple internal consuming applications to create, update and view specific information that is an important part of the calculations that these applications provide to end users, the data that this API provides is an input by the user which basically represents facts data about their org (sets of POST, PUT, GET endpoints). At the same time, it is important for the end users that this information they input is the SAME across applications which is why the central database is a big benefit as it offers a source of truth (this is why this API and its database have multiple consumers).</t>
   </si>
@@ -888,6 +1000,9 @@
     <t>https://stackoverflow.com/questions/77638871</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622085118/https://stackoverflow.com/questions/77638871/timerservice-that-will-close-auctions</t>
+  </si>
+  <si>
     <t>I am developing a Vertx-Spring based Java microservice that will handle creation, updates and deletion of auctions. It will also close auctions based on a timer. What are my options on achieving this functionality? Should I use the vertx.setTimer() methods to set timer events to close such auctions?</t>
   </si>
   <si>
@@ -897,30 +1012,24 @@
     <t>This way your backend services can validate any operations against the auction (bids, cancels, etc...) and your frontend will report the state of the auction, but the closed condition will have millisecond precision and you'll never try to close the same auction twice.</t>
   </si>
   <si>
-    <t>#SO 77652717</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77652717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our backend follows a three-layer architecture:
-- Presentation: This layer contains the endpoints.
-- Services: Here, we implement the business logic.
-- Data: This layer includes the Data Access Objects (DAOs) 
-    responsible for communicating with the database.
-In addition to this structure, we have some folders:
-- Models: This folder contains interfaces that represent our business objects.
-- Utils: Here, we manage logic that is not directly related to 
-    the business domain, such as handling dates, strings, and numbers.
-Now, regarding the placement of classes that implement the strategy pattern in this architecture:
-Considering that the implementation of the strategies involves business logic that may require access to different services, it can be challenging to avoid circular dependencies
-</t>
-  </si>
-  <si>
-    <t>It is possible to create a layer which can be called as Common and put all classes that may be required by different services.</t>
-  </si>
-  <si>
-    <t>Having such a library, it is possible to avoid circular dependencies.</t>
+    <t>#Issue 270</t>
+  </si>
+  <si>
+    <t>https://github.com/openbao/openbao/issues/270</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052631/https://github.com/openbao/openbao/issues/270</t>
+  </si>
+  <si>
+    <t>openbao/openbao
+I feel that Vault's design has become trapped in a cocoon of its own making.
+This includes investing significantly in features like Raft/replication and transactions, which, in my opinion, add an unnecessary burden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suggest pushing Vault towards functioning mainly as a controller layer, where each node can handle reads and all nodes can write, assuming the database supports transactions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's clear that there are numerous databases on the market that already support these features, like spanner, foundationDB.I wish it would rely more on databases for durability, reliability, and replication, rather than on Vault itself. </t>
   </si>
   <si>
     <t>#SO 77726069</t>
@@ -929,6 +1038,9 @@
     <t>https://stackoverflow.com/questions/77726069</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622085445/https://stackoverflow.com/questions/77726069/on-which-layer-is-the-data-warehousing-interface-placed-in-the-hexagonal-archite</t>
+  </si>
+  <si>
     <t>As shown in the figure, following the hexagonal architecture pattern, the storage interface seems to be placed in the application layer. But according to the DDD specification, the data storage interface should belong to the domain layer. So what is to be done?</t>
   </si>
   <si>
@@ -942,6 +1054,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77745340</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622085527/https://stackoverflow.com/questions/77745340/how-to-make-two-projects-with-incompatible-net-versions-talk</t>
   </si>
   <si>
     <t>We are developing a C# program that utilizes a third party backend. We can't substitute this backend for something else, no matter what.
@@ -960,6 +1075,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77751482</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622085753/https://stackoverflow.com/questions/77751482/microservices-async-communication-for-business-transaction</t>
   </si>
   <si>
     <t>Inside a microservice architecture, consider a service A which receives a request from an user and persist some data in to its database.
@@ -1018,6 +1136,9 @@
     <t>https://stackoverflow.com/questions/77815059</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622085856/https://stackoverflow.com/questions/77815059/regarding-blazor-web-app-net-8-and-migration-from-net-6</t>
+  </si>
+  <si>
     <t>If I have a component in InteractiveAuto render mode, in the .Client Project. Does it need an Web API? Because the code gets downloaded to the Client Machine.
 If it needs an Web API then can my Server project in Blazor Web App be configured to serve as an API? and how do i Handle the authentication and authorization part of the Web APIs? How can I authenticate my APIs in specific components where the renderMode is InteractiveAuto without asking the User to enter credentials again.</t>
   </si>
@@ -1032,6 +1153,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77816547</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622090046/https://stackoverflow.com/questions/77816547/how-to-manage-shared-ui-state-in-jetpack-compose</t>
   </si>
   <si>
     <t>According to the Jetpack Compose guidelines, every screen should have its own UI state with its own viewModel*
@@ -1051,6 +1175,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77841341</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622090208/https://stackoverflow.com/questions/77841341/architecture-and-azure-services-for-a-net-blazor-web-app</t>
   </si>
   <si>
     <t xml:space="preserve">Straight to the point. I'm about to start creating a web app using Blazor (chose Blazor due to my collage projects experiences). The idea behind the system is logistics, and I was thinking of creating this system out of separate parts that work and communicate together. For example:
@@ -1073,6 +1200,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/77843622</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622090505/https://stackoverflow.com/questions/77843622/dependency-injection-on-an-n-tier-solution-remove-boilerplate</t>
   </si>
   <si>
     <t>I am creating a solution that has an API (Microsoft.NET.Sdk.Web), domain (Microsoft.NET.Sdk), and MVC projects (Microsoft.NET.Sdk.Web) targeting .NET 8.
@@ -1118,6 +1248,9 @@
     <t>https://stackoverflow.com/questions/77863647</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622090905/https://stackoverflow.com/questions/77863647/seeking-guidance-on-retrieving-related-data-in-asp-net-core-web-api-using-clean</t>
+  </si>
+  <si>
     <t xml:space="preserve">I am working on my project using ASP.NET Core Web API. I have opted for a clean architecture approach, comprising Core, Infrastructure, Application and Presentation layers.
 The entities in my project are Employee (with a foreign key DepartmentId) and Department.
 I've read that the repository in the Infrastructure layer should exclusively work with entities. However, I'm facing a challenge: how can I retrieve an Employee along with their DepartmentName?
@@ -1139,6 +1272,9 @@
     <t>https://stackoverflow.com/questions/77870378</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622090948/https://stackoverflow.com/questions/77870378/two-separate-projects-for-blazor-web-app-wasm-is-confusing</t>
+  </si>
+  <si>
     <t>Im new to Blazor and started using it with .NET 8 Version.</t>
   </si>
   <si>
@@ -1157,6 +1293,9 @@
     <t>https://stackoverflow.com/questions/77875225</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622091156/https://stackoverflow.com/questions/77875225/can-i-use-aws-api-gateway-instead-of-an-application-load-balancer</t>
+  </si>
+  <si>
     <t>My ultimate goals is to deploy a ECS/Fargate cluster on AWS. I know that the ALB can be a bit expensive, and I was wondering if I could use API gateway instead. I'll still have a few containers running (maybe 2-3 max at the beginning) so I'd still need some sort of load balancing capability.
 Is it possible?</t>
   </si>
@@ -1164,28 +1303,39 @@
     <t xml:space="preserve">If your units of work share no or minimal state in memory that can be easily hydrated from the database, you might be better of implementing it in lambdas. </t>
   </si>
   <si>
+    <t>Deployment Decision</t>
+  </si>
+  <si>
     <t>In this case, you can get away with an API gateway, as Lambda runtime will handle the balancing.</t>
   </si>
   <si>
-    <t>#SO 78014054</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78014054</t>
-  </si>
-  <si>
-    <t>However, in an application where the classes (models) are designed based on OOP principles such as inheritance, and some classes inherit from others, separating these classes into their relevant microservices poses a challenge.</t>
-  </si>
-  <si>
-    <t>If you discover that you have code where, if you change code in one microservice, you also need to change code in another microservice, you need to do something about that coupling.</t>
-  </si>
-  <si>
-    <t>Rather, the old SOA catchphrase that services are autonomous seems to me to be the most useful guiding principle.</t>
+    <t>#Issue 1461</t>
+  </si>
+  <si>
+    <t>https://github.com/H-uru/Plasma/issues/1461</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052812/https://github.com/H-uru/Plasma/issues/1461</t>
+  </si>
+  <si>
+    <t>The Uru patcher was never designed to deal with bundles. It can patch flat files - but not bundles.
+Technically - the Uru patcher could approach a bundle as just another folder. But code signing would become an issue. The Uru patcher can add new files to a folder - but it cannot delete files that should no longer be present. This could cause the patcher to merge different versions of a bundle - which would lead to code signing errors.</t>
+  </si>
+  <si>
+    <t>I would propose adding a "Mac bundle" flag to the manifest. When the Mac bundle flag is encountered - instead of hashing based on a file, Uru will do a folder based hash. It will traverse the tree in alphabetical order and incrementally build a hash of the entire tree.</t>
+  </si>
+  <si>
+    <t>Bundles should never be merged - so the patcher would need to make sure the resulting bundle is exactly what is contained in the gzip."
+To the user - the application bundle looks like a single file and Uru should treat it that way.</t>
   </si>
   <si>
     <t>#SO 78026098</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78026098</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622091537/https://stackoverflow.com/questions/78026098/handling-generic-entities-in-entity-frameworks-change-tracker</t>
   </si>
   <si>
     <t xml:space="preserve">I'm implementing a Domain-Driven Design (DDD) architecture and want to leverage strongly typed IDs for my entities. My base AggregateRoot class looks like this:
@@ -1244,25 +1394,31 @@
     <t>Since your interceptor code does not actually need to use the strongly-typed Id the easiest option would be to introduce a non-generic interface for AggregateRoot&lt;TId&gt; to implement and use it</t>
   </si>
   <si>
-    <t>#SO 78166966</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78166966</t>
-  </si>
-  <si>
-    <t>I don't like that I need to define my repositories in the domain layer... it is the application layer that defines what it wants... why don't I define the repository interface on the spot there, in the application layer, where it is needed, instead of in the domain layer?</t>
-  </si>
-  <si>
-    <t>This is why you define the interface in the domain and the implementation elsewhere.</t>
-  </si>
-  <si>
-    <t>The domain dictates the 'what' while other layers define the 'how'.</t>
+    <t>#SO 78014054</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/78014054</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622091340/https://stackoverflow.com/questions/78014054/applying-oop-principles-to-microservices</t>
+  </si>
+  <si>
+    <t>However, in an application where the classes (models) are designed based on OOP principles such as inheritance, and some classes inherit from others, separating these classes into their relevant microservices poses a challenge.</t>
+  </si>
+  <si>
+    <t>If you discover that you have code where, if you change code in one microservice, you also need to change code in another microservice, you need to do something about that coupling.</t>
+  </si>
+  <si>
+    <t>Rather, the old SOA catchphrase that services are autonomous seems to me to be the most useful guiding principle.</t>
   </si>
   <si>
     <t>#SO 78448261</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78448261</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622091712/https://stackoverflow.com/questions/78448261/is-there-a-way-to-disable-the-elasticsearch-id-uniqueness-check</t>
   </si>
   <si>
     <t>I have a project that creates elasticsearch index. I'm trying to increase write speed.
@@ -1277,32 +1433,42 @@
     <t>The trick is if you need to update a document based on your id, you will need to see if the document is already in the index, which will require that uniqueness check, and you might as well keep the existing id and take advantage of the automatic uniqueness constraint and segment merge process</t>
   </si>
   <si>
-    <t>#SO 78536441</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78536441</t>
-  </si>
-  <si>
-    <t>I am completely new to multi-modular architecture. I am using jetpack compose. Asking flaws in my thinking. Broadcast receiver and services don't contain ui logic, similar to activity. e can directly setuWp logic in presentation layer using the AppTheme block (it may not possible is xml approach, haven't used it in long time so i have no idea). Activities have rather different logic like splash activity may check user authorization or authentication. Depending if user is authorized, token expired, unauthorized or received an intent from external apps there may be different actions which isn't part of UI logic. Similarly MainActivity may deal differently according to message received from SplashActivity(or any other between the route) like setting the startDestination to settings page(message from SplashActivity).</t>
-  </si>
-  <si>
-    <t>So, I recommend some roles here to help you organize modules,
-if the module is a low-level module and it's shared across the application, like providing caching or networking, you can consider this is an infra/library module type.
-if the module is shared across the application and has a common business logic like auth module, remote config, or localization, you can consider this as a plugin module, and there are top of the infra module, which means they can use infra level module but it's not true in vice versa.
-if the module is just responsible for handling one job, like onboarding pages or setting pages, you can consider this as a feature module, they can use infra and plugins but they do not have dependency on another module.
-if the module is just for showing a complex page, for example, an e-commerce application with a heavy home page, and each section of the page comes from multiple modules, you need to create a coordinator module to connect those features on one page, and it gives you the power of isolation to develop and maintain each feature separately and use on a shared page.
-and the last you need to have one launcher module, this module is for bundling your app and sending it to the store, another benefit is that we you are in the development stage, you do not need to build all parts of the application, and you create one debug module for just testing your feature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best practices for modularization are defining modules based on domain rather than UI/Service,
-it means instead of having auth-ui and auth-service modules, you need to combine them, however, in this way, you may encounter the "circular dependency" challenge, To prevent this problem, you need to define a role for each module,
+    <t>#SO 77652717</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/77652717</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622085329/https://stackoverflow.com/questions/77652717/where-design-pattern-should-go-in-3-three-layer-architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our backend follows a three-layer architecture:
+- Presentation: This layer contains the endpoints.
+- Services: Here, we implement the business logic.
+- Data: This layer includes the Data Access Objects (DAOs) 
+    responsible for communicating with the database.
+In addition to this structure, we have some folders:
+- Models: This folder contains interfaces that represent our business objects.
+- Utils: Here, we manage logic that is not directly related to 
+    the business domain, such as handling dates, strings, and numbers.
+Now, regarding the placement of classes that implement the strategy pattern in this architecture:
+Considering that the implementation of the strategies involves business logic that may require access to different services, it can be challenging to avoid circular dependencies
 </t>
   </si>
   <si>
+    <t>It is possible to create a layer which can be called as Common and put all classes that may be required by different services.</t>
+  </si>
+  <si>
+    <t>Having such a library, it is possible to avoid circular dependencies.</t>
+  </si>
+  <si>
     <t>#SO 78552517</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/78552517</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622091935/https://stackoverflow.com/questions/78552517/pyside6-qsortfilterproxymodel-filter-proxy-removes-peristent-editor</t>
   </si>
   <si>
     <t xml:space="preserve">I have a QTableView containing a column with checkboxes. I use a delegate for the checkbox because I want to align it in the center of the column. The one which is generated via the CheckStateRole isn't. The checkbox editor is made permanent for this column.
@@ -1326,6 +1492,9 @@
     <t>https://github.com/gethomepage/homepage/discussions/3597</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622092152/https://github.com/gethomepage/homepage/discussions/3597</t>
+  </si>
+  <si>
     <t>While I was setting up homepage 2 days ago, I was hesitant to give it all those API keys, worrying they might get leaked if there is a bug. Just a day later, 0.9.2 was released, fixing such a bug, and confirming my fears.
 This made me think about how such issues could be prevented</t>
   </si>
@@ -1340,6 +1509,9 @@
   </si>
   <si>
     <t>https://github.com/nank1ro/flutter-shadcn-ui/discussions/63</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622092303/https://github.com/nank1ro/flutter-shadcn-ui/discussions/63</t>
   </si>
   <si>
     <t>Is it possible to use Getx pre-configured widget GetMaterialApp in combination with ShadApp? If so, how?</t>
@@ -1361,6 +1533,9 @@
   </si>
   <si>
     <t>https://github.com/earthboundkid/requests/discussions/89</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622092447/https://github.com/earthboundkid/requests/discussions/89</t>
   </si>
   <si>
     <t>I would be nice to be able to support alternative JSON libraries, like #87 and #88. JSON is just one kind of serialization. There's also XML, a la #79 / #82, and presumably other options like binary (Protobuf?) and whatnot.
@@ -1398,6 +1573,9 @@
     <t>https://github.com/pymodbus-dev/pymodbus/discussions/2109</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622092548/https://github.com/pymodbus-dev/pymodbus/discussions/2109</t>
+  </si>
+  <si>
     <t>Let put it simpler - there's a client and I'm running a server. I want my server to poll the client's registers as soon as the client connected. The thing is the server class instance, ModbusTcpServer doesn't contain the client's methods such as read_input_registers(). From the raw TCP exchange point of view it doesn't matter whether the socket is a server socket or a client socket, so there should be a way to invert the "request -&gt; response" Modbus logic. Or am I wrong?</t>
   </si>
   <si>
@@ -1413,6 +1591,9 @@
     <t>https://github.com/apache/airflow/discussions/37432</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250622092628/https://github.com/apache/airflow/discussions/37432</t>
+  </si>
+  <si>
     <t>I'm developing a listener plugin to monitor both DAG runs and task instances within Apache Airflow. This plugin requires additional custom packages for its functionality. I'm inquiring about the appropriate components within the Airflow architecture where these packages should be installed: the Web Server, Scheduler, or Workers. Any guidance based on the architectural considerations would be greatly appreciated.</t>
   </si>
   <si>
@@ -1426,6 +1607,9 @@
   </si>
   <si>
     <t>https://github.com/prisma/prisma/discussions/20920</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622092844/https://github.com/prisma/prisma/discussions/20920</t>
   </si>
   <si>
     <t>We are currently evaluating prisma and are discussing possible architectures for a solution.
@@ -1433,7 +1617,7 @@
 So we are wondering if there is a way to implement this using prisma.</t>
   </si>
   <si>
-    <t>Approach: maintain a map or comparable structure of prisma client instances in the nextjs app / node server instance in memory, one for each db / schema instance requested? That can obviously result in numerous prisma client instances based on the number of dbs/schemas requested. And would infer some complexity because we'd have to take care of purging the list when clients are not used for a certain amout of time. etc. The risks which come to mind are of course memory issues when there are too many prisma client instances etc., and also connection pooling issues on db side</t>
+    <t>Approach: maintain a map or comparable structure of prisma client instances in the nextjs app / node server instance in memory, one for each db / schema instance requested. That can obviously result in numerous prisma client instances based on the number of dbs/schemas requested. And would infer some complexity because we'd have to take care of purging the list when clients are not used for a certain amout of time. etc. The risks which come to mind are of course memory issues when there are too many prisma client instances etc., and also connection pooling issues on db side</t>
   </si>
   <si>
     <t>You definitely want to go with b) here.
@@ -1446,10 +1630,13 @@
     <t>https://github.com/maxnowack/signaldb/discussions/626</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623041101/https://github.com/maxnowack/signaldb/discussions/626</t>
+  </si>
+  <si>
     <t>The thing is, I'm currently building full-stack MPAs (rather than client-only SPAs) using the Deno Fresh framwork, which is Preact-based and supports the Islands architecture, but its primarily an SSR framework. I got Fresh+SignalDB working using signaldb-plugin-preact, but I'm not really sure if SignalDB makes sense in a MPA architecture with traditional navigation and not client-side navigation.</t>
   </si>
   <si>
-    <t xml:space="preserve">. I'm not super familiar with MPA and the Islands architecture myself, but from what I get, SignalDB should work fine with them. </t>
+    <t xml:space="preserve">I'm not super familiar with MPA and the Islands architecture myself, but from what I get, SignalDB should work fine with them. </t>
   </si>
   <si>
     <t>Although using SignalDB might make your project a bit bigger, it could also make building your app faster and more enjoyable.
@@ -1463,6 +1650,9 @@
     <t>https://github.com/dotnet/wpf/discussions/9022</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623042214/https://github.com/dotnet/wpf/discussions/9022</t>
+  </si>
+  <si>
     <t>I am relatively new to wpf and .net and I am developing a small application.
 I know that injecting pages and viewmodels with dependency injection is quite a popular approach, however I was interested if it is also a good approach so specify viewmodels in the xaml of the respective views like this:
 &lt;Page.DataContext&gt; &lt;viewModels:MainViewModel x:Name="ViewModel"/&gt; &lt;/Page.DataContext&gt;</t>
@@ -1480,6 +1670,9 @@
     <t>https://github.com/reactwg/react-native-new-architecture/discussions/197</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623042343/https://github.com/reactwg/react-native-new-architecture/discussions/197</t>
+  </si>
+  <si>
     <t>I have been experimenting with JSI and turbo modules lately.
 I thought this would be a magic solution for the performance issues but it seems that when I call a resources intensive function I still see a drop in the js thread.</t>
   </si>
@@ -1496,6 +1689,9 @@
     <t>https://github.com/fraktalio/fmodel/discussions/251</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623042436/https://github.com/fraktalio/fmodel/discussions/251</t>
+  </si>
+  <si>
     <t>I'm very new to the codebase and actually looking at ways to port the ideas to Python, so perhaps my issue is in translation. However, I've been looking at the Kotlin examples and I feel like it looks pretty straightforward.
 My bigger issue might be learning more about what SagaManagers and ActionPublishers are and how to wire them up.</t>
   </si>
@@ -1510,6 +1706,9 @@
   </si>
   <si>
     <t>https://github.com/ch4mpy/spring-addons/discussions/214</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623042512/https://github.com/ch4mpy/spring-addons/discussions/214</t>
   </si>
   <si>
     <t xml:space="preserve">I'm designing a solution for authentication with Keycloak for an existing set of microservices.
@@ -1529,6 +1728,9 @@
     <t>https://github.com/DioxusLabs/dioxus/discussions/1879</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623042559/https://github.com/DioxusLabs/dioxus/discussions/1879</t>
+  </si>
+  <si>
     <t>Dioxus looks great, but this part of the docs is a bit concerning to me: I must make the decision between copying, or definitely causing render reconciliation (which could become worse over time as the render tree grows).</t>
   </si>
   <si>
@@ -1542,6 +1744,9 @@
   </si>
   <si>
     <t>https://github.com/developmentseed/lonboard/discussions/442</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623042641/https://github.com/developmentseed/lonboard/discussions/442</t>
   </si>
   <si>
     <t>One of the downsides of most, if not all, Python-based geospatial visualization libraries is that it is impossible to insert one or more data layers into the basemap such that place names are on top of the data layers. This is critical in my view for maintaining geospatial context. Is it possible in lonboard to perform this interleaving?</t>
@@ -1577,6 +1782,9 @@
   </si>
   <si>
     <t>https://github.com/symfony/symfony/discussions/57209</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623042829/https://github.com/symfony/symfony/discussions/57209</t>
   </si>
   <si>
     <t>Hello,
@@ -1598,6 +1806,9 @@
     <t>https://github.com/tauri-apps/tauri/discussions/9521</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623043030/https://github.com/tauri-apps/tauri/discussions/9521</t>
+  </si>
+  <si>
     <t>I just started with rust and tauri. I also came across webassembly (wasm) and webassembly system interace (wasi) which is also new to me. Can you point me to more details how the communication between javascript and rust is done?</t>
   </si>
   <si>
@@ -1611,6 +1822,9 @@
   </si>
   <si>
     <t>https://github.com/apache/apisix/discussions/11323</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623043434/https://github.com/apache/apisix/discussions/11323</t>
   </si>
   <si>
     <t>Hi,
@@ -1636,6 +1850,9 @@
     <t>https://github.com/pocketbase/pocketbase/discussions/3504</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623044009/https://github.com/pocketbase/pocketbase/discussions/3504</t>
+  </si>
+  <si>
     <t>I'm looking at doing a major overhaul of PocketHost in prep for v1.0, and I'm considering switching to Go because we learned a lot from the previous versions of PocketHost and are in need of some architectural changes to support multiple regions, etc. It would be a good time to switch, and probably the last chance. The "multitenant backend in 1 file" approach is showing a lot of appeal, too.</t>
   </si>
   <si>
@@ -1645,10 +1862,538 @@
     <t>That's what the nodejs version does now, and it achieves great isolation, security, and resource management. But perhaps at the expense of performance.</t>
   </si>
   <si>
+    <t>#SO 77401552</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/77401552</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622083906/https://stackoverflow.com/questions/77401552/granularity-of-bloc-usage-in-flutter-with-nested-data</t>
+  </si>
+  <si>
+    <t>What is best practice of bloc usage with nested data, when I have a list view, a detail view of the selected record and maybe a detail view of a subrecord?
+Let's say I have an app, showing some reports.
+Option A) One bloc for each view (e.g. AllReportsBloc, ReportsDetailBloc, ContactDetailBloc)
+image of architecture option a
+Option B) One single bloc for all three views (e.g. ReportsBloc)
+image of architecture option b
+I've tried both of them but neither option a nor option b seems to be a solid solution</t>
+  </si>
+  <si>
+    <t>Option A is the ideal answer.
+Since all of the blocs depends on the same repository, you can create a stream or a variable that can hold the updated Reports inside the repository.</t>
+  </si>
+  <si>
+    <t>This will listen to the updates coming from the exposed stream of the repository. In this way, you avoided the bloc-to-bloc communications and handled the logic for single-source of data properly.</t>
+  </si>
+  <si>
+    <t>#Discussion 326</t>
+  </si>
+  <si>
+    <t>https://github.com/orgs/fief-dev/discussions/326</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050206/https://github.com/orgs/fief-dev/discussions/326</t>
+  </si>
+  <si>
+    <t>I would need some guidance about how to integrate Fief with a FastAPI service. Also, what are the best practices and architecture patterns to consider.
+The way I envision the integration with Fief is:
+It should handle all user management, authentication, session management, JWT Token lifecycle, user attributes and methods for user lifecycle. My apps should query Fief whenever there is a user event involved, like registration, authentication, session validation, tokens management, permissions and roles.
+Since Fief support custom user fields via the methods exposed in "user-fields", I was thinking to leverage this capability to extend users fields for the context of my application, and only keep a cache copy of the object in my local context via the session management context. The alternative would be to copy the user locally to the context of my app and fetch UID, Email and other shared fields from Fief (comes syncing the data disadvantage).</t>
+  </si>
+  <si>
+    <t>Regarding user fields, you can indeed have a local cache</t>
+  </si>
+  <si>
+    <t>IntegrationDecision （example）</t>
+  </si>
+  <si>
+    <t>Regarding user fields, you can indeed have a local cache to avoid having to ask them again to the Fief API. We show an example of this here: https://docs.fief.dev/integrate/python/fastapi/#caching-user-information It shows a simple in-memory cache, but it can be something more advanced, e.g. using Redis.</t>
+  </si>
+  <si>
+    <t>#Discussion 787</t>
+  </si>
+  <si>
+    <t>https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050259/https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787</t>
+  </si>
+  <si>
+    <t>AWS documentation recommends that AWS service clients should be instantiated in the initialization code, not in the handler. But I could see that we are taking new connection during run time . Below snap shot of dynamo_dal_handler shown below. Will this affect the performance?</t>
+  </si>
+  <si>
+    <t>As you can see, there's a decorator in line 23 for cache and class itself is a singleton. That means that we create only one client class (until the cache expires) and reuse it as long as the function is warm for new invocations.
+It's not set in stone to init that connection as AWS recommends, i did a lazy init here and afterwards its warm for new invocation.</t>
+  </si>
+  <si>
+    <t>I dont think there's a difference in performance. TBH, putting way too things that init during the first run isnt that useful in my view and breaks the architectural layers model i discuss at : https://www.ranthebuilder.cloud/post/learn-how-to-write-aws-lambda-functions-with-architecture-layers</t>
+  </si>
+  <si>
+    <t>#Discussion 21549</t>
+  </si>
+  <si>
+    <t>https://github.com/keycloak/keycloak/discussions/21549</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050342/https://github.com/keycloak/keycloak/discussions/21549</t>
+  </si>
+  <si>
+    <t>In order to let powerusers set up new tenants for our multi-tenant cloud application, we built a custom frontend (let's call it admin-ui). This is backed by a separate backend service, holding all the tenant and product information (let's call it admin-api).
+Whenever a poweruser creates a new tenant, the admin-api takes care of setting up the realm within keycloak (clients, idps, users, roles etc.).
+The architecture can thus be described as a service chaining in its simplest form: admin-ui &gt; admin-api &gt; keycloak-api. Each service is authenticated by keycloak as the auth-server.
+Whilst we have a client for the admin-ui using PKCE, we are reissueing tokens for admin-api with the client credentials grant. Behind that client credentials grant we have a service account, which holds the necessary permissions/roles for creating the recourses mentioned before.
+This works perfectly fine, until we have more than a certain amount of realms. At that point, the access token gets too large for the browser and/or NGINX to handle. Unfortunately omitting the roles from the default scope is not working, the keycloak-api is returning a 403 Forbidden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't you use the "admin-cli" or "security-admin-console" client? For those clients, Keycloak reads the roles directly from Keycloak, not from the token. </t>
+  </si>
+  <si>
+    <t>Hence, you don't need any roles in the token, it will stay small regardless of the amount of realms and associated roles.</t>
+  </si>
+  <si>
+    <t>#Issue 7560</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/rocketmq/issues/7560</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052458/https://github.com/apache/rocketmq/issues/7560</t>
+  </si>
+  <si>
+    <t>apache/rocketmq
+Currently, the RocketMQ ACL design has the following limits:
+Non-standard IP whitelist control: As usual, IP whitelist is used for restricting users to access from specific IP or IP ranges. However, in the current RocketMQ ACL, the IP whitelist is used to bypass authentication, which is inconsistent with the common way. This inconsistency may lead to security issues as it allows untrusted IP addresses to bypass access control.
+Lack of a scalable interface definition: Currently, ACL configuration information is stored in YAML file pattern. However, in some cloud scenarios, there is a desire to achieve ACL configuration information extension through database storage or microservice provisioning, which is not very convenient in the current design. This limits the flexibility and scalability of ACL configuration, and may not be suitable for specific application scenarios. At the same time, the access control for control-related interfaces is relatively insufficient, resulting in the risk of cluster data leakage.
+Ineffective separation of users and permissions: Best practice is to separate the logic of creating users and setting permissions, clearly defining the responsibilities of each. However, in the current design, users and permissions are coupled in a single file, which can lead to the potential leakage of user passwords and subsequently, security issues.</t>
+  </si>
+  <si>
+    <t>Provide a relatively standardized and universal model to support user authentication for different operations on all resources in RocketMQ. This ensures consistency and comprehensiveness in permission control throughout the RocketMQ system.
+Offer a set of standardized interface abstractions for user and permission management, as well as authentication logic in RocketMQ, to facilitate extension and implementation. This enables users to flexibly customize ACL configurations based on their specific needs and seamlessly integrate with other systems.
+Implement separation of users and permissions, while supporting encryption of user passwords, to prevent security issues caused by password leakage. By separating user and permission management logic and employing appropriate encryption measures, user password security is ensured.
+Provide a certain level of compatibility with ACL 1.0 to facilitate a relatively seamless upgrade from ACL 1.0 to the 2.0 mode. This minimizes inconvenience during the upgrade process and preserves users' existing ACL configurations and permission settings.</t>
+  </si>
+  <si>
+    <t>Standardized IP whitelist control: The enhanced ACL design provides a more standardized IP whitelist control mechanism. It effectively restricts user requests to specific IP sources and blocks access from untrusted IP addresses.
+Scalable ACL configuration and authentication mechanism: The improved design allows for easy extension and implementation of ACL-related logic. Users can conveniently customize and expand ACL configurations to meet their specific requirements. Additionally, the ACL design includes access control for control-related interfaces, enhancing the overall security of the system.
+Effective separation of user and permission management: The optimized design successfully achieves a clear separation between user authentication and permission management, establishing explicit responsibilities and boundaries for each. This enhancement significantly improves the security of the system. Additionally, user passwords are securely encrypted, effectively reducing the risk of password leaks.</t>
+  </si>
+  <si>
+    <t>#Discussion 112</t>
+  </si>
+  <si>
+    <t>https://github.com/xmolecules/jmolecules/discussions/112</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050517/https://github.com/xmolecules/jmolecules/discussions/112</t>
+  </si>
+  <si>
+    <t>Introduction
+I am using AggregateRoot, Entity, Identifier, and some another basic ddd interfaces. The class implementing those interfaces actually is JPA entity, isn't? So that it also act as a domain object. So when I use it with conjunction to the jmolecules-xxx-architecture annotations, I have no idea where to put it into.
+Cases
+For example, if I put the ddd classes in the InfrastructureLayer, the domain model definition attached to it (e.g. AggregateRoot) becomes meaningless. But if I put them in the DomainLayer, then the repository, which is placed in the InfrastructureLayer, just cannot use the class just for the method declaration. The ArchUnit test becomes failed in this case.</t>
+  </si>
+  <si>
+    <t>you would have to go for another architectural style, e.g. Onion Architecture.</t>
+  </si>
+  <si>
+    <t>To my understanding, if you want the repository implementation to be in the Infastructure Layer, you would have to go for another architectural style, e.g. Onion Architecture. There it would be alloweded that the repository implementation resides inside the Infrastrucutre Layer and references the Domain Layer from there.</t>
+  </si>
+  <si>
+    <t>#Issue 2962</t>
+  </si>
+  <si>
+    <t>https://github.com/Ivy-Apps/ivy-wallet/issues/2962</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050712/https://github.com/Ivy-Apps/ivy-wallet/issues/2962</t>
+  </si>
+  <si>
+    <t>Ivy-Apps/ivy-wallet
+[Data Layer] Migrate the code to use the new the CategoryRepository</t>
+  </si>
+  <si>
+    <t>Utilize CategoryRepository for data manipulation operations
+Transition from direct CategoryDao and WriteCategoryDao interactions to using the repository</t>
+  </si>
+  <si>
+    <t>To phase out the old data management system
+To maintain uniformity in our architectural approach
+To enhance safety and facilitate ease of future extensions</t>
+  </si>
+  <si>
+    <t>#Issue 515</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-kubernetes-operator/issues/515</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050810/https://github.com/pulumi/pulumi-kubernetes-operator/issues/515</t>
+  </si>
+  <si>
+    <t>pulumi/pulumi-kubernetes-operator
+Hello Pulumi team! I've been using Pulumi for years and recently started using Pulumi Kubernetes Operator.
+Having 40+ stacks based on the same typescript npm project taken care of by one Pulumi operator installation I found design problems in the operator.
+When it runs npm install and Pulumi code for several stacks it consumes a lot of CPU and memory. But this happens only after git changes. So most of the time operator pod is doing nothing when there are no git changes. But I need to have it with proper CPU and Memory requests set to avoid OOM Kill. So the pod's resources are underutilized. It is burning money most of the time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a solution, I would decouple the "npm install" and "pulumi up" functionality from the operator pod into a worker pod so the operator could assign the worker pod onto one stack individually to provision it and once the stack is done the worker should die </t>
+  </si>
+  <si>
+    <t>As a solution, I would decouple the "npm install" and "pulumi up" functionality from the operator pod into a worker pod so the operator could assign the worker pod onto one stack individually to provision it and once the stack is done the worker should die to save costs. The operator pod should be only a controller for stacks and worker pods. This would make Pulumi Operator more scalable to suit big platforms having hundreds or thousands of stacks.</t>
+  </si>
+  <si>
+    <t>#Issue 100</t>
+  </si>
+  <si>
+    <t>https://github.com/Alexhuszagh/rust-lexical/issues/100</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050903/https://github.com/Alexhuszagh/rust-lexical/issues/100</t>
+  </si>
+  <si>
+    <t>That's actual UB, this issue is more about the safety comments and how the invariants are upheld. The safe mode doesn't disable this code that has actual UB, either.</t>
+  </si>
+  <si>
+    <t>Might be cool to have a ValidBuffer&lt;FORMAT&gt; wrapper that allows calling these write functions in an encapsulated way.</t>
+  </si>
+  <si>
+    <t>A bunch of code relies on the radix being from amongst a valid set (e.g. get_table()). May benefit from being an enum; it's hard to tell if this invariant is being upheld.</t>
+  </si>
+  <si>
+    <t>#Issue 406</t>
+  </si>
+  <si>
+    <t>https://github.com/amannn/next-intl/issues/406</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051123/https://github.com/amannn/next-intl/issues/406</t>
+  </si>
+  <si>
+    <t>The Server Components integration of next-intl asynchronously resolves a config, e.g. to load messages.Many users have suggested an awaitable version of useTranslations with an API like await useTranslations(), await useTranslationsAsync(), await useTranslations().toPromise(), etc. While this would technically be possible, the ESLint config of React warns against using hooks in async components. Furthermore, built-in hooks from React like useId don't work in Server Components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do this, we currently use the use hook, which is primarily known for resolving promises in Client Components but also works in Server Components. </t>
+  </si>
+  <si>
+    <t>To do this, we currently use the use hook, which is primarily known for resolving promises in Client Components but also works in Server Components. The one limitation that comes with this is that the component can not be async. In my opinion, one of the biggest advantages of how the next-intl Server Components integration is implemented is that we use an identical API for Server as well as Client Components. With this, components that simply receive data and render translated content in return qualify as shared components that can render either in a Server or Client Component, depending on where they are imported from. In contrast, an async-only API doesn't support this and would force users to a place where components can only run in one environment depending on how they're authored. This is limiting and prevents certain architectural options.</t>
+  </si>
+  <si>
+    <t>#Issue 2838</t>
+  </si>
+  <si>
+    <t>https://github.com/opensrp/fhircore/issues/2838</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051223/https://github.com/opensrp/fhircore/issues/2838</t>
+  </si>
+  <si>
+    <t>Describe best practices for configuration-based ID assigned by building out example FHIR resources</t>
+  </si>
+  <si>
+    <t>Create an example resource to hold a list of IDs. ... but a Group resource seems sufficient with no members, e.g. here we store the IDs as text in a valueCodeableConcept in the characteristic field ... we abuse the quantity field to store an offset to the next ID to use.</t>
+  </si>
+  <si>
+    <t>The Group resource works well though I feel like we are semantically abusing it. ... By using Group.active and Group.quantity, it effectively tracks which IDs have been used and how to allocate the next available ID.</t>
+  </si>
+  <si>
+    <t>#Issue 237</t>
+  </si>
+  <si>
+    <t>https://github.com/open-feature/spec/issues/237</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051311/https://github.com/open-feature/spec/issues/237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, OpenFeatrue is very attractive, but it seems that it requires developers to hardcode a lot of if else, and I am not sure whether this will put a mental burden on developers. Are there any best practices or cases that you can provide? </t>
+  </si>
+  <si>
+    <t>having the flags at the right layers and structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally speaking one can reduce the mental burden by having the flags at the right layers and structure to prevent "ifs everywhere." </t>
+  </si>
+  <si>
+    <t>#Issue 1754</t>
+  </si>
+  <si>
+    <t>https://github.com/OWASP/ASVS/issues/1754</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051454/https://github.com/OWASP/ASVS/issues/1754</t>
+  </si>
+  <si>
+    <t>OWASP/ASVS
+Sensitive applications often store customer or user data that, in the wrong hands, can have profound implications for user privacy and security. While ASVS does touch upon data protection in storage and transit, the granularity of protection mechanisms at the database field/column level isn't explicitly addressed.</t>
+  </si>
+  <si>
+    <t>I propose the addition of a standard (or a set of standards) that highlights the importance and best practices for implementing field-level encryption in applications where sensitive data is stored.</t>
+  </si>
+  <si>
+    <t>Field-level encryption can ensure that sensitive data fields remain encrypted, rendering them unreadable to a DBA or any other unauthorized role, while still allowing them to manage the database.</t>
+  </si>
+  <si>
+    <t>#Issue 1256</t>
+  </si>
+  <si>
+    <t>https://github.com/openziti/ziti/issues/1256</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051536/https://github.com/openziti/ziti/issues/1256</t>
+  </si>
+  <si>
+    <t>openziti/ziti
+If you wish to access Console, Router, or Controller via the internet, you must open ports to the public internet and assign a public DNS record. This opens Ziti services to DDoS.</t>
+  </si>
+  <si>
+    <t>I propose implementing UDP hole-punching on the Controller and Router and Tunneler so they can see each other without opening the Controller and Router ports to the Internet. And since the Tunneler can now see the Controller and Router, you can also generate JWT locally on the Tunneller/Client.</t>
+  </si>
+  <si>
+    <t>Benefits of UDP hole-punching technique
+UDP hole-punching in products such as ZeroTier and Nebula that may be useful for OpenZiti:
+The supernode is a separate stand-alone service that does not influence sensitive services, such as the controller/router that does the main work and handles and enforces zero-trust, routing, and handle management. So, if the supernode is hacked, the other components will not be compromised.
+There are many supernodes across the Internet, so it is hard to DDoS all of them simultaneously
+Even if all supernodes are DDoSed and down, the peers that already established connection do not care about the supernode and continue working without an issue
+Only one port is opened, and you must be concerned about being open on the public Internet to one service that is not viral and acceptable if not working for hours or days.
+So please reconsider if you can utilize the UDP hole-punching technique similarly to how it is used with ZeroTier or Nebula in one way or another.</t>
+  </si>
+  <si>
+    <t>#Issue 19526</t>
+  </si>
+  <si>
+    <t>https://github.com/fleetdm/fleet/issues/19526</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051631/https://github.com/fleetdm/fleet/issues/19526</t>
+  </si>
+  <si>
+    <t>fleetdm/fleet
+The s3 carve module currently has a bucket lifecycle of 1 day. This means that not only carves, but also the software_installers/ prefix. We need to try and set a more complex lifecycle to fix this.</t>
+  </si>
+  <si>
+    <t>Add a distinct set of S3 configuration options specifically for the software installers (every option under S3 documented here: https://fleetdm.com/docs/configuration/fleet-server-configuration#s-3)
+The carves bucket needs to expire its objects, while the software installers should not
+For backwards compatibility, keep the old config options names to apply to 'carves', and if the software_installers_ configs are not set, then no S3 storage is configured for software installers (it falls back to local filesystem with all its limitations)..</t>
+  </si>
+  <si>
+    <t>Learning from past life: avoid config inheritance/trickle/auto-merging like the plague. Requires conventions/training, extremely bug prone. It’s often better to have duplication of config with good, crystal clear error messages for mis configurations of both (as long as the design is intentional and consistent).</t>
+  </si>
+  <si>
+    <t>#Issue 1558</t>
+  </si>
+  <si>
+    <t>https://github.com/Azure/Enterprise-Scale/issues/1558</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051722/https://github.com/Azure/Enterprise-Scale/issues/1558</t>
+  </si>
+  <si>
+    <t>Azure/Enterprise-Scale
+Deny or Audit resources without Encryption with a customer-managed key (CMK) is not part of the policy list. This means it lack recommendation on the scope. Back to some of the other ALZ policies questions, why do policy initiatives exist that are not used or recommended?</t>
+  </si>
+  <si>
+    <t>best practice (which might not be 'Microsoft best practice', but 'cloud security best practice') is to have as much control over your key lifecycle as possible. This can only be achieved using CMK to encrypt the DEK.</t>
+  </si>
+  <si>
+    <t>I understand that majority of small and medium-sized enterprises cannot establish this practice due to cost and resource constrains. Nevertheless, that does not mean that it is not best practice.
+Everything in Azure (and other CSPs) is encrypted by default (using MMK/PMK), which is also expected as a bare minimum for anyone to do business with a CSP. Majority of the "out of the box" security settings in CSPs are not industry best practice, it is more a security baseline (bare minimum).
+References CSA
+2.1.2 Key Management
+"... based on the Segregation of Duties security principle, key management ideally should be separated from the cloud provider hosting the data. This provides the greatest protection against both an external breach of the service provider as well as an attack originating from a privileged user/employee of the provider. Additionally, this segregation of duties prevents the cloud provider from unauthorized disclosure of customer data, such as compliance with a subpoena, without the customer knowledge or approval. The customers should retain complete control over their data and only they should be able to comply with disclosure requests."
+2.1.6 Data Integrity:
+"If the encryption key is stored with the CSP, the use of data encryption alone may not provide sufficient assurance that encrypted information has not been altered. Files placed into the cloud for storage may be subject to tampering or replacement in this case, and encryption alone cannot detect this. Combining data encryption with integrity protections such as digital signatures can ensure that data in the cloud remains both private and authentic. Where available, use of trusted time should be considered by using time-stamped signatures on data."
+3.1.1 Key Management:
+"Ideally, the customer maintains control of the encryption keys however, customers need to choose the approach that best matches their risk tolerance and the compliance, government, audit, and/or executive mandated requirements they need to follow."</t>
+  </si>
+  <si>
+    <t>#Issue 45</t>
+  </si>
+  <si>
+    <t>https://github.com/razshare/sveltekit-sse/issues/45</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051817/https://github.com/razshare/sveltekit-sse/issues/45</t>
+  </si>
+  <si>
+    <t>Consider adding some randomness to the beacon and maxTimeout parameters to prevent thundering-herd scenarios?</t>
+  </si>
+  <si>
+    <t>I think a new beaconVariance property is best fit for this.
+It would vary the actual frontend beacon by beaconVariance milliseconds, to avoid the thundering-herd effect.</t>
+  </si>
+  <si>
+    <t>It would vary the actual frontend beacon by beaconVariance milliseconds, to avoid the thundering-herd effect.</t>
+  </si>
+  <si>
+    <t>#Issue 5410</t>
+  </si>
+  <si>
+    <t>https://github.com/streetcomplete/StreetComplete/issues/5410</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623051956/https://github.com/streetcomplete/StreetComplete/issues/5410</t>
+  </si>
+  <si>
+    <t>streetcomplete/StreetComplete
+The OSM API is a HTTP REST API that communicates chiefly in XML. This must be ported to Kotlin multiplatform.
+Currently, the Java library de.westnordost.osmapi is used for any communication with the OSM API 0.6, i.e. uploading map data, notes and gpx tracks, downloading map data, notes, user data, etc.
+The dependency to osmapi must be replaced with an implementation based on
+ideally the http client from Multiplatform HTTP Client (use Ktor Client) #5408 and
+a multiplatform XML parser / writer, which is stable, well-tested and ideally (semi-)official / well-maintained and ideally but not necessarily compatible with kotlinx-serialization. This is also important for other XML parsing in the app, i.e. Add GPX import functionality #5369
+using kotlinx-datetime to parse timestamps (already a dependency)</t>
+  </si>
+  <si>
+    <t>the decision is to use Ktor.With io.github.pdvrieze.xmlutil, I think it makes a better sense.</t>
+  </si>
+  <si>
+    <t>Cool! Indeed. Yes, xmlutil should work. The only http client that is multiplatform also for native is Ktor Client, as far as I know, so the decision is to use Ktor. OkHttp 5 is only multiplatform jvm+js.</t>
+  </si>
+  <si>
+    <t>#Issue 8062</t>
+  </si>
+  <si>
+    <t>https://github.com/dbt-labs/dbt-core/issues/8062</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052141/https://github.com/dbt-labs/dbt-core/issues/8062</t>
+  </si>
+  <si>
+    <t>dbt-labs/dbt-core
+Because you must hard-code your database.schema.table name when setting a foreign key constraint:
+DAG dependencies are incorrect
+multi-environment is not supported (it's very hacky)</t>
+  </si>
+  <si>
+    <t>Instead, we should support ref in foreign key constraint expression - both at the model and column level.</t>
+  </si>
+  <si>
+    <t>This feature has become more important now that warehouses use foreign key constraints for better performance.”</t>
+  </si>
+  <si>
+    <t>#Issue 537</t>
+  </si>
+  <si>
+    <t>https://github.com/w3c/activitystreams/issues/537</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052300/https://github.com/w3c/activitystreams/issues/537</t>
+  </si>
+  <si>
+    <t>problem: sometimes you want to have attachments in a certain order, but attachment is an unordered set by default</t>
+  </si>
+  <si>
+    <t>Use new orderedX properties。
+or example, given the following:
+{
+  "@context": [
+    "https://www.w3.org/ns/activitystreams",
+    {
+      "orderedAttachment": {
+        "@id": "as:attachment",
+        "@type": "@id",
+        "@container": "@list"
+       }
+    }
+  ],
+  "orderedAttachment": ["one", "two"],
+  "attachment": ["one", "two"]
+}
+It expands into the following:
+[
+  {
+    "https://www.w3.org/ns/activitystreams#attachment": [
+      {
+        "@id": "one"
+      },
+      {
+        "@id": "two"
+      },
+      {
+        "@list": [
+          {
+            "@id": "one"
+          },
+          {
+            "@id": "two"
+          }
+        ]
+      }
+    ]
+  }
+]
+Compacting against only AS2 without the orderedAttachment extension results in this:
+{
+  "@context": "https://www.w3.org/ns/activitystreams",
+  "attachment": [
+    "one",
+    "two",
+    {
+      "@list": [
+        "one",
+        "two"
+      ]
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Use new orderedX properties. This removes the ambiguity completely, for both LD-aware and plain-JSON consumers; however, it requires plain-JSON consumers to check for the new orderedX properties, and this may result in producers duplicating information in both the unordered and ordered properties, which has unintended consequences for the LD representation.</t>
+  </si>
+  <si>
+    <t>#Issue 65</t>
+  </si>
+  <si>
+    <t>https://github.com/valkey-io/valkey/issues/65</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052343/https://github.com/valkey-io/valkey/issues/65</t>
+  </si>
+  <si>
+    <t>valkey-io/valkey
+Automated docker builds for each release and/or commit, pushed ghcr.io and/or docker hub's registry under the open source program for increased pull limits</t>
+  </si>
+  <si>
+    <t>use Debian "by default"</t>
+  </si>
+  <si>
+    <t>My 2c (as large-scale consumers of images ourselves and a re-packager of upstream images for our downstream consumers) is that adhering to the established practice is generally a smoother and more consistent experience for downstream users, who rely on timely upstream security updates, consistent platforms to extend, and stable inclusions. Debian and Alpine security best practices, disclosures, and transparency are A++ (in my opinion) and make my life far easier.
+A quick (albeit rudimentary) search of the official docker-library images shows over 100 based on Debian, ~90 on Alpine, 10 on Ubuntu, and none on Fedora, which would certainly lean towards them should adoption as an official image be sought (which it probably should 😉!).
+The projects whose images we support that have moved away from Debian/Alpine ((we've crossed paths with AL2, Oracle Linux, and UBI), are the ones that cause us the most lost time, usually require refactoring, and may have unpredictable security releases or unclear remediation pathways.</t>
+  </si>
+  <si>
+    <t>#SO 78536441</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/78536441</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622091847/https://stackoverflow.com/questions/78536441/separate-module-for-activity-broadcast-receiver-and-services</t>
+  </si>
+  <si>
+    <t>I am completely new to multi-modular architecture. I am using jetpack compose. Asking flaws in my thinking. Broadcast receiver and services don't contain ui logic, similar to activity. e can directly setuWp logic in presentation layer using the AppTheme block (it may not possible is xml approach, haven't used it in long time so i have no idea). Activities have rather different logic like splash activity may check user authorization or authentication. Depending if user is authorized, token expired, unauthorized or received an intent from external apps there may be different actions which isn't part of UI logic. Similarly MainActivity may deal differently according to message received from SplashActivity(or any other between the route) like setting the startDestination to settings page(message from SplashActivity).</t>
+  </si>
+  <si>
+    <t>So, I recommend some roles here to help you organize modules,
+if the module is a low-level module and it's shared across the application, like providing caching or networking, you can consider this is an infra/library module type.
+if the module is shared across the application and has a common business logic like auth module, remote config, or localization, you can consider this as a plugin module, and there are top of the infra module, which means they can use infra level module but it's not true in vice versa.
+if the module is just responsible for handling one job, like onboarding pages or setting pages, you can consider this as a feature module, they can use infra and plugins but they do not have dependency on another module.
+if the module is just for showing a complex page, for example, an e-commerce application with a heavy home page, and each section of the page comes from multiple modules, you need to create a coordinator module to connect those features on one page, and it gives you the power of isolation to develop and maintain each feature separately and use on a shared page.
+and the last you need to have one launcher module, this module is for bundling your app and sending it to the store, another benefit is that we you are in the development stage, you do not need to build all parts of the application, and you create one debug module for just testing your feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best practices for modularization are defining modules based on domain rather than UI/Service,
+it means instead of having auth-ui and auth-service modules, you need to combine them, however, in this way, you may encounter the "circular dependency" challenge, To prevent this problem, you need to define a role for each module,
+</t>
+  </si>
+  <si>
     <t>#Discussion 2792</t>
   </si>
   <si>
     <t>https://github.com/pointfreeco/swift-composable-architecture/discussions/2792</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623050023/https://github.com/pointfreeco/swift-composable-architecture/discussions/2792</t>
   </si>
   <si>
     <t>Architecture:
@@ -1763,473 +2508,31 @@
     <t>And then any child feature can depend on this module in order to construct navigation links, and it will be able to do so without building all other features and without circular dependency errors.</t>
   </si>
   <si>
-    <t>#Discussion 326</t>
-  </si>
-  <si>
-    <t>https://github.com/orgs/fief-dev/discussions/326</t>
-  </si>
-  <si>
-    <t>I would need some guidance about how to integrate Fief with a FastAPI service. Also, what are the best practices and architecture patterns to consider.
-The way I envision the integration with Fief is:
-It should handle all user management, authentication, session management, JWT Token lifecycle, user attributes and methods for user lifecycle. My apps should query Fief whenever there is a user event involved, like registration, authentication, session validation, tokens management, permissions and roles.
-Since Fief support custom user fields via the methods exposed in "user-fields", I was thinking to leverage this capability to extend users fields for the context of my application, and only keep a cache copy of the object in my local context via the session management context. The alternative would be to copy the user locally to the context of my app and fetch UID, Email and other shared fields from Fief (comes syncing the data disadvantage).</t>
-  </si>
-  <si>
-    <t>Regarding user fields, you can indeed have a local cache</t>
-  </si>
-  <si>
-    <t>Regarding user fields, you can indeed have a local cache to avoid having to ask them again to the Fief API. We show an example of this here: https://docs.fief.dev/integrate/python/fastapi/#caching-user-information It shows a simple in-memory cache, but it can be something more advanced, e.g. using Redis.</t>
-  </si>
-  <si>
-    <t>#Discussion 787</t>
-  </si>
-  <si>
-    <t>https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787</t>
-  </si>
-  <si>
-    <t>AWS documentation recommends that AWS service clients should be instantiated in the initialization code, not in the handler. But I could see that we are taking new connection during run time . Below snap shot of dynamo_dal_handler shown below. Will this affect the performance?</t>
-  </si>
-  <si>
-    <t>As you can see, there's a decorator in line 23 for cache and class itself is a singleton. That means that we create only one client class (until the cache expires) and reuse it as long as the function is warm for new invocations.
-It's not set in stone to init that connection as AWS recommends, i did a lazy init here and afterwards its warm for new invocation.</t>
-  </si>
-  <si>
-    <t>I dont think there's a difference in performance. TBH, putting way too things that init during the first run isnt that useful in my view and breaks the architectural layers model i discuss at : https://www.ranthebuilder.cloud/post/learn-how-to-write-aws-lambda-functions-with-architecture-layers</t>
-  </si>
-  <si>
-    <t>#Discussion 21549</t>
-  </si>
-  <si>
-    <t>https://github.com/keycloak/keycloak/discussions/21549</t>
-  </si>
-  <si>
-    <t>In order to let powerusers set up new tenants for our multi-tenant cloud application, we built a custom frontend (let's call it admin-ui). This is backed by a separate backend service, holding all the tenant and product information (let's call it admin-api).
-Whenever a poweruser creates a new tenant, the admin-api takes care of setting up the realm within keycloak (clients, idps, users, roles etc.).
-The architecture can thus be described as a service chaining in its simplest form: admin-ui &gt; admin-api &gt; keycloak-api. Each service is authenticated by keycloak as the auth-server.
-Whilst we have a client for the admin-ui using PKCE, we are reissueing tokens for admin-api with the client credentials grant. Behind that client credentials grant we have a service account, which holds the necessary permissions/roles for creating the recourses mentioned before.
-This works perfectly fine, until we have more than a certain amount of realms. At that point, the access token gets too large for the browser and/or NGINX to handle. Unfortunately omitting the roles from the default scope is not working, the keycloak-api is returning a 403 Forbidden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can't you use the "admin-cli" or "security-admin-console" client? For those clients, Keycloak reads the roles directly from Keycloak, not from the token. </t>
-  </si>
-  <si>
-    <t>Hence, you don't need any roles in the token, it will stay small regardless of the amount of realms and associated roles.</t>
-  </si>
-  <si>
-    <t>#Discussion 539</t>
-  </si>
-  <si>
-    <t>https://github.com/burningalchemist/sql_exporter/discussions/539</t>
-  </si>
-  <si>
-    <t>I've had a look around the code, README, etc and I didn't find any means of auto-discovering target databases to scrape.
-Most scrapers like postgres_exporter and pg_exporter support querying pg_catalog.pg_database to enumerate databases available on the postgres instance and run metrics queries on each one during a scrape.
-Is there a means to do any similar sort of discovery with sql_exporter or does that have to be handled by some external co-ordinating tool that watches for DB creations/drops and updates the sql_exporter configured targets?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> users organise/generate their configuration with the desired information obtained from the configuration management systems or available APIs.</t>
-  </si>
-  <si>
-    <t>It's tricky as each database engine keeps the logical database info in a specific place, so to support 30+ database engines, we would need to hardcode these locations and maintain them. Some of them (e.g. Snowflake) keep this information outside of the instance or it's not easily obtainable. In this case, it's easier and more consistent to let users organise/generate their configuration with the desired information obtained from the configuration management systems or available APIs.</t>
-  </si>
-  <si>
-    <t>#Discussion 112</t>
-  </si>
-  <si>
-    <t>https://github.com/xmolecules/jmolecules/discussions/112</t>
-  </si>
-  <si>
-    <t>Introduction
-I am using AggregateRoot, Entity, Identifier, and some another basic ddd interfaces. The class implementing those interfaces actually is JPA entity, isn't? So that it also act as a domain object. So when I use it with conjunction to the jmolecules-xxx-architecture annotations, I have no idea where to put it into.
-Cases
-For example, if I put the ddd classes in the InfrastructureLayer, the domain model definition attached to it (e.g. AggregateRoot) becomes meaningless. But if I put them in the DomainLayer, then the repository, which is placed in the InfrastructureLayer, just cannot use the class just for the method declaration. The ArchUnit test becomes failed in this case.</t>
-  </si>
-  <si>
-    <t>you would have to go for another architectural style, e.g. Onion Architecture.</t>
-  </si>
-  <si>
-    <t>To my understanding, if you want the repository implementation to be in the Infastructure Layer, you would have to go for another architectural style, e.g. Onion Architecture. There it would be alloweded that the repository implementation resides inside the Infrastrucutre Layer and references the Domain Layer from there.</t>
-  </si>
-  <si>
-    <t>#Issue 2962</t>
-  </si>
-  <si>
-    <t>https://github.com/Ivy-Apps/ivy-wallet/issues/2962</t>
-  </si>
-  <si>
-    <t>Ivy-Apps/ivy-wallet
-[Data Layer] Migrate the code to use the new the CategoryRepository</t>
-  </si>
-  <si>
-    <t>Utilize CategoryRepository for data manipulation operations
-Transition from direct CategoryDao and WriteCategoryDao interactions to using the repository</t>
-  </si>
-  <si>
-    <t>To phase out the old data management system
-To maintain uniformity in our architectural approach
-To enhance safety and facilitate ease of future extensions</t>
-  </si>
-  <si>
-    <t>#Issue 515</t>
-  </si>
-  <si>
-    <t>https://github.com/pulumi/pulumi-kubernetes-operator/issues/515</t>
-  </si>
-  <si>
-    <t>pulumi/pulumi-kubernetes-operator
-Hello Pulumi team! I've been using Pulumi for years and recently started using Pulumi Kubernetes Operator.
-Having 40+ stacks based on the same typescript npm project taken care of by one Pulumi operator installation I found design problems in the operator.
-When it runs npm install and Pulumi code for several stacks it consumes a lot of CPU and memory. But this happens only after git changes. So most of the time operator pod is doing nothing when there are no git changes. But I need to have it with proper CPU and Memory requests set to avoid OOM Kill. So the pod's resources are underutilized. It is burning money most of the time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a solution, I would decouple the "npm install" and "pulumi up" functionality from the operator pod into a worker pod so the operator could assign the worker pod onto one stack individually to provision it and once the stack is done the worker should die </t>
-  </si>
-  <si>
-    <t>As a solution, I would decouple the "npm install" and "pulumi up" functionality from the operator pod into a worker pod so the operator could assign the worker pod onto one stack individually to provision it and once the stack is done the worker should die to save costs. The operator pod should be only a controller for stacks and worker pods. This would make Pulumi Operator more scalable to suit big platforms having hundreds or thousands of stacks.</t>
-  </si>
-  <si>
-    <t>#Issue 100</t>
-  </si>
-  <si>
-    <t>https://github.com/Alexhuszagh/rust-lexical/issues/100</t>
-  </si>
-  <si>
-    <t>That's actual UB, this issue is more about the safety comments and how the invariants are upheld. The safe mode doesn't disable this code that has actual UB, either.</t>
-  </si>
-  <si>
-    <t>Might be cool to have a ValidBuffer&lt;FORMAT&gt; wrapper that allows calling these write functions in an encapsulated way.</t>
-  </si>
-  <si>
-    <t>A bunch of code relies on the radix being from amongst a valid set (e.g. get_table()). May benefit from being an enum; it's hard to tell if this invariant is being upheld.</t>
-  </si>
-  <si>
-    <t>#Issue 406</t>
-  </si>
-  <si>
-    <t>https://github.com/amannn/next-intl/issues/406</t>
-  </si>
-  <si>
-    <t>The Server Components integration of next-intl asynchronously resolves a config, e.g. to load messages.Many users have suggested an awaitable version of useTranslations with an API like await useTranslations(), await useTranslationsAsync(), await useTranslations().toPromise(), etc. While this would technically be possible, the ESLint config of React warns against using hooks in async components. Furthermore, built-in hooks from React like useId don't work in Server Components.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To do this, we currently use the use hook, which is primarily known for resolving promises in Client Components but also works in Server Components. </t>
-  </si>
-  <si>
-    <t>To do this, we currently use the use hook, which is primarily known for resolving promises in Client Components but also works in Server Components. The one limitation that comes with this is that the component can not be async. In my opinion, one of the biggest advantages of how the next-intl Server Components integration is implemented is that we use an identical API for Server as well as Client Components. With this, components that simply receive data and render translated content in return qualify as shared components that can render either in a Server or Client Component, depending on where they are imported from. In contrast, an async-only API doesn't support this and would force users to a place where components can only run in one environment depending on how they're authored. This is limiting and prevents certain architectural options.</t>
-  </si>
-  <si>
-    <t>#Issue 2838</t>
-  </si>
-  <si>
-    <t>https://github.com/opensrp/fhircore/issues/2838</t>
-  </si>
-  <si>
-    <t>Describe best practices for configuration-based ID assigned by building out example FHIR resources</t>
-  </si>
-  <si>
-    <t>Create an example resource to hold a list of IDs. ... but a Group resource seems sufficient with no members, e.g. here we store the IDs as text in a valueCodeableConcept in the characteristic field ... we abuse the quantity field to store an offset to the next ID to use.</t>
-  </si>
-  <si>
-    <t>The Group resource works well though I feel like we are semantically abusing it. ... By using Group.active and Group.quantity, it effectively tracks which IDs have been used and how to allocate the next available ID.</t>
-  </si>
-  <si>
-    <t>#Issue 237</t>
-  </si>
-  <si>
-    <t>https://github.com/open-feature/spec/issues/237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, OpenFeatrue is very attractive, but it seems that it requires developers to hardcode a lot of if else, and I am not sure whether this will put a mental burden on developers. Are there any best practices or cases that you can provide? </t>
-  </si>
-  <si>
-    <t>having the flags at the right layers and structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generally speaking one can reduce the mental burden by having the flags at the right layers and structure to prevent "ifs everywhere." </t>
-  </si>
-  <si>
-    <t>#Issue 1754</t>
-  </si>
-  <si>
-    <t>https://github.com/OWASP/ASVS/issues/1754</t>
-  </si>
-  <si>
-    <t>OWASP/ASVS
-Sensitive applications often store customer or user data that, in the wrong hands, can have profound implications for user privacy and security. While ASVS does touch upon data protection in storage and transit, the granularity of protection mechanisms at the database field/column level isn't explicitly addressed.</t>
-  </si>
-  <si>
-    <t>I propose the addition of a standard (or a set of standards) that highlights the importance and best practices for implementing field-level encryption in applications where sensitive data is stored.</t>
-  </si>
-  <si>
-    <t>Field-level encryption can ensure that sensitive data fields remain encrypted, rendering them unreadable to a DBA or any other unauthorized role, while still allowing them to manage the database.</t>
-  </si>
-  <si>
-    <t>#Issue 1256</t>
-  </si>
-  <si>
-    <t>https://github.com/openziti/ziti/issues/1256</t>
-  </si>
-  <si>
-    <t>openziti/ziti
-If you wish to access Console, Router, or Controller via the internet, you must open ports to the public internet and assign a public DNS record. This opens Ziti services to DDoS.</t>
-  </si>
-  <si>
-    <t>I propose implementing UDP hole-punching on the Controller and Router and Tunneler so they can see each other without opening the Controller and Router ports to the Internet. And since the Tunneler can now see the Controller and Router, you can also generate JWT locally on the Tunneller/Client.</t>
-  </si>
-  <si>
-    <t>Benefits of UDP hole-punching technique
-UDP hole-punching in products such as ZeroTier and Nebula that may be useful for OpenZiti:
-The supernode is a separate stand-alone service that does not influence sensitive services, such as the controller/router that does the main work and handles and enforces zero-trust, routing, and handle management. So, if the supernode is hacked, the other components will not be compromised.
-There are many supernodes across the Internet, so it is hard to DDoS all of them simultaneously
-Even if all supernodes are DDoSed and down, the peers that already established connection do not care about the supernode and continue working without an issue
-Only one port is opened, and you must be concerned about being open on the public Internet to one service that is not viral and acceptable if not working for hours or days.
-So please reconsider if you can utilize the UDP hole-punching technique similarly to how it is used with ZeroTier or Nebula in one way or another.</t>
-  </si>
-  <si>
-    <t>#Issue 19526</t>
-  </si>
-  <si>
-    <t>https://github.com/fleetdm/fleet/issues/19526</t>
-  </si>
-  <si>
-    <t>fleetdm/fleet
-The s3 carve module currently has a bucket lifecycle of 1 day. This means that not only carves, but also the software_installers/ prefix. We need to try and set a more complex lifecycle to fix this.</t>
-  </si>
-  <si>
-    <t>Add a distinct set of S3 configuration options specifically for the software installers (every option under S3 documented here: https://fleetdm.com/docs/configuration/fleet-server-configuration#s-3)
-The carves bucket needs to expire its objects, while the software installers should not
-For backwards compatibility, keep the old config options names to apply to 'carves', and if the software_installers_ configs are not set, then no S3 storage is configured for software installers (it falls back to local filesystem with all its limitations)..</t>
-  </si>
-  <si>
-    <t>Learning from past life: avoid config inheritance/trickle/auto-merging like the plague. Requires conventions/training, extremely bug prone. It’s often better to have duplication of config with good, crystal clear error messages for mis configurations of both (as long as the design is intentional and consistent).</t>
-  </si>
-  <si>
-    <t>#Issue 1558</t>
-  </si>
-  <si>
-    <t>https://github.com/Azure/Enterprise-Scale/issues/1558</t>
-  </si>
-  <si>
-    <t>Azure/Enterprise-Scale
-Deny or Audit resources without Encryption with a customer-managed key (CMK) is not part of the policy list. This means it lack recommendation on the scope. Back to some of the other ALZ policies questions, why do policy initiatives exist that are not used or recommended?</t>
-  </si>
-  <si>
-    <t>best practice (which might not be 'Microsoft best practice', but 'cloud security best practice') is to have as much control over your key lifecycle as possible. This can only be achieved using CMK to encrypt the DEK.</t>
-  </si>
-  <si>
-    <t>I understand that majority of small and medium-sized enterprises cannot establish this practice due to cost and resource constrains. Nevertheless, that does not mean that it is not best practice.
-Everything in Azure (and other CSPs) is encrypted by default (using MMK/PMK), which is also expected as a bare minimum for anyone to do business with a CSP. Majority of the "out of the box" security settings in CSPs are not industry best practice, it is more a security baseline (bare minimum).
-References CSA
-2.1.2 Key Management
-"... based on the Segregation of Duties security principle, key management ideally should be separated from the cloud provider hosting the data. This provides the greatest protection against both an external breach of the service provider as well as an attack originating from a privileged user/employee of the provider. Additionally, this segregation of duties prevents the cloud provider from unauthorized disclosure of customer data, such as compliance with a subpoena, without the customer knowledge or approval. The customers should retain complete control over their data and only they should be able to comply with disclosure requests."
-2.1.6 Data Integrity:
-"If the encryption key is stored with the CSP, the use of data encryption alone may not provide sufficient assurance that encrypted information has not been altered. Files placed into the cloud for storage may be subject to tampering or replacement in this case, and encryption alone cannot detect this. Combining data encryption with integrity protections such as digital signatures can ensure that data in the cloud remains both private and authentic. Where available, use of trusted time should be considered by using time-stamped signatures on data."
-3.1.1 Key Management:
-"Ideally, the customer maintains control of the encryption keys however, customers need to choose the approach that best matches their risk tolerance and the compliance, government, audit, and/or executive mandated requirements they need to follow."</t>
-  </si>
-  <si>
-    <t>#Issue 45</t>
-  </si>
-  <si>
-    <t>https://github.com/razshare/sveltekit-sse/issues/45</t>
-  </si>
-  <si>
-    <t>Consider adding some randomness to the beacon and maxTimeout parameters to prevent thundering-herd scenarios?</t>
-  </si>
-  <si>
-    <t>I think a new beaconVariance property is best fit for this.
-It would vary the actual frontend beacon by beaconVariance milliseconds, to avoid the thundering-herd effect.</t>
-  </si>
-  <si>
-    <t>It would vary the actual frontend beacon by beaconVariance milliseconds, to avoid the thundering-herd effect.</t>
-  </si>
-  <si>
-    <t>#Issue 5410</t>
-  </si>
-  <si>
-    <t>https://github.com/streetcomplete/StreetComplete/issues/5410</t>
-  </si>
-  <si>
-    <t>streetcomplete/StreetComplete
-The OSM API is a HTTP REST API that communicates chiefly in XML. This must be ported to Kotlin multiplatform.
-Currently, the Java library de.westnordost.osmapi is used for any communication with the OSM API 0.6, i.e. uploading map data, notes and gpx tracks, downloading map data, notes, user data, etc.
-The dependency to osmapi must be replaced with an implementation based on
-ideally the http client from Multiplatform HTTP Client (use Ktor Client) #5408 and
-a multiplatform XML parser / writer, which is stable, well-tested and ideally (semi-)official / well-maintained and ideally but not necessarily compatible with kotlinx-serialization. This is also important for other XML parsing in the app, i.e. Add GPX import functionality #5369
-using kotlinx-datetime to parse timestamps (already a dependency)</t>
-  </si>
-  <si>
-    <t>the decision is to use Ktor.With io.github.pdvrieze.xmlutil, I think it makes a better sense.</t>
-  </si>
-  <si>
-    <t>Cool! Indeed. Yes, xmlutil should work. The only http client that is multiplatform also for native is Ktor Client, as far as I know, so the decision is to use Ktor. OkHttp 5 is only multiplatform jvm+js.</t>
-  </si>
-  <si>
-    <t>#Issue 8062</t>
-  </si>
-  <si>
-    <t>https://github.com/dbt-labs/dbt-core/issues/8062</t>
-  </si>
-  <si>
-    <t>dbt-labs/dbt-core
-Because you must hard-code your database.schema.table name when setting a foreign key constraint:
-DAG dependencies are incorrect
-multi-environment is not supported (it's very hacky)</t>
-  </si>
-  <si>
-    <t>Instead, we should support ref in foreign key constraint expression - both at the model and column level.</t>
-  </si>
-  <si>
-    <t>This feature has become more important now that warehouses use foreign key constraints for better performance.”</t>
-  </si>
-  <si>
-    <t>#Issue 537</t>
-  </si>
-  <si>
-    <t>https://github.com/w3c/activitystreams/issues/537</t>
-  </si>
-  <si>
-    <t>problem: sometimes you want to have attachments in a certain order, but attachment is an unordered set by default</t>
-  </si>
-  <si>
-    <t>Use new orderedX properties。
-or example, given the following:
-{
-  "@context": [
-    "https://www.w3.org/ns/activitystreams",
-    {
-      "orderedAttachment": {
-        "@id": "as:attachment",
-        "@type": "@id",
-        "@container": "@list"
-       }
-    }
-  ],
-  "orderedAttachment": ["one", "two"],
-  "attachment": ["one", "two"]
-}
-It expands into the following:
-[
-  {
-    "https://www.w3.org/ns/activitystreams#attachment": [
-      {
-        "@id": "one"
-      },
-      {
-        "@id": "two"
-      },
-      {
-        "@list": [
-          {
-            "@id": "one"
-          },
-          {
-            "@id": "two"
-          }
-        ]
-      }
-    ]
-  }
-]
-Compacting against only AS2 without the orderedAttachment extension results in this:
-{
-  "@context": "https://www.w3.org/ns/activitystreams",
-  "attachment": [
-    "one",
-    "two",
-    {
-      "@list": [
-        "one",
-        "two"
-      ]
-    }
-  ]
-}</t>
-  </si>
-  <si>
-    <t>Use new orderedX properties. This removes the ambiguity completely, for both LD-aware and plain-JSON consumers; however, it requires plain-JSON consumers to check for the new orderedX properties, and this may result in producers duplicating information in both the unordered and ordered properties, which has unintended consequences for the LD representation.</t>
-  </si>
-  <si>
-    <t>#Issue 65</t>
-  </si>
-  <si>
-    <t>https://github.com/valkey-io/valkey/issues/65</t>
-  </si>
-  <si>
-    <t>valkey-io/valkey
-Automated docker builds for each release and/or commit, pushed ghcr.io and/or docker hub's registry under the open source program for increased pull limits</t>
-  </si>
-  <si>
-    <t>use Debian "by default"</t>
-  </si>
-  <si>
-    <t>My 2c (as large-scale consumers of images ourselves and a re-packager of upstream images for our downstream consumers) is that adhering to the established practice is generally a smoother and more consistent experience for downstream users, who rely on timely upstream security updates, consistent platforms to extend, and stable inclusions. Debian and Alpine security best practices, disclosures, and transparency are A++ (in my opinion) and make my life far easier.
-A quick (albeit rudimentary) search of the official docker-library images shows over 100 based on Debian, ~90 on Alpine, 10 on Ubuntu, and none on Fedora, which would certainly lean towards them should adoption as an official image be sought (which it probably should 😉!).
-The projects whose images we support that have moved away from Debian/Alpine ((we've crossed paths with AL2, Oracle Linux, and UBI), are the ones that cause us the most lost time, usually require refactoring, and may have unpredictable security releases or unclear remediation pathways.</t>
-  </si>
-  <si>
-    <t>#Issue 7560</t>
-  </si>
-  <si>
-    <t>https://github.com/apache/rocketmq/issues/7560</t>
-  </si>
-  <si>
-    <t>apache/rocketmq
-Currently, the RocketMQ ACL design has the following limits:
-Non-standard IP whitelist control: As usual, IP whitelist is used for restricting users to access from specific IP or IP ranges. However, in the current RocketMQ ACL, the IP whitelist is used to bypass authentication, which is inconsistent with the common way. This inconsistency may lead to security issues as it allows untrusted IP addresses to bypass access control.
-Lack of a scalable interface definition: Currently, ACL configuration information is stored in YAML file pattern. However, in some cloud scenarios, there is a desire to achieve ACL configuration information extension through database storage or microservice provisioning, which is not very convenient in the current design. This limits the flexibility and scalability of ACL configuration, and may not be suitable for specific application scenarios. At the same time, the access control for control-related interfaces is relatively insufficient, resulting in the risk of cluster data leakage.
-Ineffective separation of users and permissions: Best practice is to separate the logic of creating users and setting permissions, clearly defining the responsibilities of each. However, in the current design, users and permissions are coupled in a single file, which can lead to the potential leakage of user passwords and subsequently, security issues.</t>
-  </si>
-  <si>
-    <t>Provide a relatively standardized and universal model to support user authentication for different operations on all resources in RocketMQ. This ensures consistency and comprehensiveness in permission control throughout the RocketMQ system.
-Offer a set of standardized interface abstractions for user and permission management, as well as authentication logic in RocketMQ, to facilitate extension and implementation. This enables users to flexibly customize ACL configurations based on their specific needs and seamlessly integrate with other systems.
-Implement separation of users and permissions, while supporting encryption of user passwords, to prevent security issues caused by password leakage. By separating user and permission management logic and employing appropriate encryption measures, user password security is ensured.
-Provide a certain level of compatibility with ACL 1.0 to facilitate a relatively seamless upgrade from ACL 1.0 to the 2.0 mode. This minimizes inconvenience during the upgrade process and preserves users' existing ACL configurations and permission settings.</t>
-  </si>
-  <si>
-    <t>Standardized IP whitelist control: The enhanced ACL design provides a more standardized IP whitelist control mechanism. It effectively restricts user requests to specific IP sources and blocks access from untrusted IP addresses.
-Scalable ACL configuration and authentication mechanism: The improved design allows for easy extension and implementation of ACL-related logic. Users can conveniently customize and expand ACL configurations to meet their specific requirements. Additionally, the ACL design includes access control for control-related interfaces, enhancing the overall security of the system.
-Effective separation of user and permission management: The optimized design successfully achieves a clear separation between user authentication and permission management, establishing explicit responsibilities and boundaries for each. This enhancement significantly improves the security of the system. Additionally, user passwords are securely encrypted, effectively reducing the risk of password leaks.</t>
-  </si>
-  <si>
-    <t>#Issue 270</t>
-  </si>
-  <si>
-    <t>https://github.com/openbao/openbao/issues/270</t>
-  </si>
-  <si>
-    <t>openbao/openbao
-I feel that Vault's design has become trapped in a cocoon of its own making.
-This includes investing significantly in features like Raft/replication and transactions, which, in my opinion, add an unnecessary burden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I suggest pushing Vault towards functioning mainly as a controller layer, where each node can handle reads and all nodes can write, assuming the database supports transactions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">it's clear that there are numerous databases on the market that already support these features, like spanner, foundationDB.I wish it would rely more on databases for durability, reliability, and replication, rather than on Vault itself. </t>
-  </si>
-  <si>
-    <t>#Issue 1461</t>
-  </si>
-  <si>
-    <t>https://github.com/H-uru/Plasma/issues/1461</t>
-  </si>
-  <si>
-    <t>The Uru patcher was never designed to deal with bundles. It can patch flat files - but not bundles.
-Technically - the Uru patcher could approach a bundle as just another folder. But code signing would become an issue. The Uru patcher can add new files to a folder - but it cannot delete files that should no longer be present. This could cause the patcher to merge different versions of a bundle - which would lead to code signing errors.</t>
-  </si>
-  <si>
-    <t>I would propose adding a "Mac bundle" flag to the manifest. When the Mac bundle flag is encountered - instead of hashing based on a file, Uru will do a folder based hash. It will traverse the tree in alphabetical order and incrementally build a hash of the entire tree.</t>
-  </si>
-  <si>
-    <t>Bundles should never be merged - so the patcher would need to make sure the resulting bundle is exactly what is contained in the gzip."
-To the user - the application bundle looks like a single file and Uru should treat it that way.</t>
+    <t>#SO 78166966</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/78166966</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250622091628/https://stackoverflow.com/questions/78166966/ddd-clean-architecture-why-not-define-repositories-in-the-application-layer</t>
+  </si>
+  <si>
+    <t>I don't like that I need to define my repositories in the domain layer... it is the application layer that defines what it wants... why don't I define the repository interface on the spot there, in the application layer, where it is needed, instead of in the domain layer?</t>
+  </si>
+  <si>
+    <t>This is why you define the interface in the domain and the implementation elsewhere.</t>
+  </si>
+  <si>
+    <t>The domain dictates the 'what' while other layers define the 'how'.</t>
   </si>
   <si>
     <t>#Issue 1517</t>
   </si>
   <si>
     <t>https://github.com/k2-fsa/icefall/issues/1517</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623052901/https://github.com/k2-fsa/icefall/issues/1517</t>
   </si>
   <si>
     <t>k2-fsa/icefall
@@ -2256,6 +2559,9 @@
     <t>https://github.com/marcolivierarsenault/moonraker-home-assistant/issues/313</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623053039/https://github.com/marcolivierarsenault/moonraker-home-assistant/issues/313</t>
+  </si>
+  <si>
     <t>marcolivierarsenault/moonraker-home-assistant
 Option to unset state_class so the Long Term Statistics are not collected
 By default (after #284), a lot of entities have state_class set to measurement or similar which enables HA to save long term statistics for them. This grows DB size pretty quickly</t>
@@ -2271,6 +2577,9 @@
   </si>
   <si>
     <t>https://github.com/grpc/grpc-dotnet/issues/2378</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623053207/https://github.com/grpc/grpc-dotnet/issues/2378</t>
   </si>
   <si>
     <t>grpc/grpc-dotnet
@@ -2292,6 +2601,9 @@
     <t>https://github.com/Expensify/App/issues/33070</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623053253/https://github.com/Expensify/App/issues/33070</t>
+  </si>
+  <si>
     <t>We will start with enabling the Proguard and removing any resources that aren't used in the app and in the app's library.</t>
   </si>
   <si>
@@ -2310,6 +2622,9 @@
     <t>https://github.com/rails/rails/issues/50480</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623053725/https://github.com/rails/rails/issues/50480</t>
+  </si>
+  <si>
     <t>Out of the box, Action Cable will only work with a single process setup using the in-memory adapter. If you run multiple processes, let alone multiple app servers, you have to add Redis to the mix or be running PostgreSQL. Redis is great, but it's another moving part, and PostgreSQL is also lovely, but it's only one out of our 3 supported databases. Action Cable should work with multiple processes out of the box regardless of which of the supported databases you use.</t>
   </si>
   <si>
@@ -2325,6 +2640,9 @@
     <t>https://github.com/WordPress/gutenberg/issues/57234</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20250623054107/https://github.com/WordPress/gutenberg/issues/57234</t>
+  </si>
+  <si>
     <t>As previously discussed in #40447, it is a hard requirement that a *.asset.php file is present to register a block in WordPress. Otherwise, it throws a Warning: function register_block_script_handle was called incorrectly. The asset file (/wp-content/uploads/faustwp/blocks/block-a/index.asset.php) for the "editorScript" defined in "create-block/block-a" block definition is missing. (This message was added in version 5.5.0.), and the block will not appear in the inserter.</t>
   </si>
   <si>
@@ -2338,6 +2656,9 @@
   </si>
   <si>
     <t>https://github.com/flutter/flutter/issues/133198</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20250623054245/https://github.com/flutter/flutter/issues/133198</t>
   </si>
   <si>
     <t>Resetting individual command buffers is slow, and ARM says not to do it, and because of the threading restrictions we have to use our (important) raster thread to do this resetting (it can't happen in a background thread).</t>
@@ -3067,6 +3388,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -3317,21 +3645,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="79.5454545454545" customWidth="1"/>
-    <col min="3" max="4" width="26.0181818181818" customWidth="1"/>
-    <col min="5" max="5" width="40.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="45.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="42.8181818181818" customWidth="1"/>
+    <col min="4" max="5" width="26.0181818181818" customWidth="1"/>
+    <col min="6" max="7" width="40.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" spans="1:5">
+    <row r="1" ht="14.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3347,1721 +3676,2516 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" ht="14.5" customHeight="1" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" ht="14.5" customHeight="1" spans="1:5">
+      <c r="G36" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" ht="14.5" customHeight="1" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>180</v>
+        <v>222</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" ht="14.5" customHeight="1" spans="1:5">
+        <v>225</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" ht="14.5" customHeight="1" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>222</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" ht="14.5" customHeight="1" spans="1:5">
+        <v>228</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" ht="14.5" customHeight="1" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>188</v>
+        <v>231</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" ht="14.5" customHeight="1" spans="1:5">
+        <v>234</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" ht="14.5" customHeight="1" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>237</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" ht="14.5" customHeight="1" spans="1:5">
+        <v>240</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" ht="14.5" customHeight="1" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>198</v>
+        <v>243</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" ht="14.5" customHeight="1" spans="1:5">
+        <v>246</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" ht="14.5" customHeight="1" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>203</v>
+        <v>249</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" ht="14.5" customHeight="1" spans="1:5">
+        <v>252</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" ht="14.5" customHeight="1" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>208</v>
+        <v>255</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" ht="14.5" customHeight="1" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" ht="14.5" customHeight="1" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>213</v>
+        <v>261</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" ht="14.5" customHeight="1" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" ht="14.5" customHeight="1" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>218</v>
+        <v>267</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" ht="14.5" customHeight="1" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" ht="14.5" customHeight="1" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>223</v>
+        <v>274</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" ht="14.5" customHeight="1" spans="1:5">
+        <v>277</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" ht="14.5" customHeight="1" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>280</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" ht="14.5" customHeight="1" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" ht="14.5" customHeight="1" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>233</v>
+        <v>286</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" ht="14.5" customHeight="1" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" ht="14.5" customHeight="1" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>238</v>
+        <v>292</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" ht="14.5" customHeight="1" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" ht="14.5" customHeight="1" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>243</v>
+        <v>298</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" ht="14.5" customHeight="1" spans="1:5">
+        <v>301</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" ht="14.5" customHeight="1" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>304</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" ht="14.5" customHeight="1" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" ht="14.5" customHeight="1" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>253</v>
+        <v>310</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" ht="14.5" customHeight="1" spans="1:5">
+        <v>313</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" ht="14.5" customHeight="1" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>258</v>
+        <v>316</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" ht="14.5" customHeight="1" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" ht="14.5" customHeight="1" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>263</v>
+        <v>322</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" ht="14.5" customHeight="1" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" ht="14.5" customHeight="1" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>268</v>
+        <v>328</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" ht="14.5" customHeight="1" spans="1:5">
+        <v>331</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" ht="14.5" customHeight="1" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" ht="14.5" customHeight="1" spans="1:5">
+      <c r="G56" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" ht="14.5" customHeight="1" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>278</v>
+        <v>340</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" ht="14.5" customHeight="1" spans="1:5">
+        <v>343</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" ht="14.5" customHeight="1" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>283</v>
+        <v>346</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" ht="14.5" customHeight="1" spans="1:5">
+        <v>349</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" ht="14.5" customHeight="1" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>288</v>
+        <v>352</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" ht="14.5" customHeight="1" spans="1:5">
+        <v>355</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" ht="14.5" customHeight="1" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>293</v>
+        <v>358</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" ht="14.5" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" ht="14.5" customHeight="1" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>298</v>
+        <v>364</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" ht="14.5" customHeight="1" spans="1:5">
+        <v>367</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" ht="14.5" customHeight="1" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>303</v>
+        <v>370</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" ht="14.5" customHeight="1" spans="1:5">
+        <v>373</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" ht="14.5" customHeight="1" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>308</v>
+        <v>376</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" ht="14.5" customHeight="1" spans="1:5">
+        <v>379</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" ht="14.5" customHeight="1" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" ht="14.5" customHeight="1" spans="1:5">
+        <v>385</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" ht="14.5" customHeight="1" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" ht="14.5" customHeight="1" spans="1:5">
+        <v>388</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" ht="14.5" customHeight="1" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" ht="14.5" customHeight="1" spans="1:5">
+        <v>391</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" ht="14.5" customHeight="1" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="68" ht="14.5" customHeight="1" spans="1:5">
+        <v>397</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" ht="14.5" customHeight="1" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>329</v>
+        <v>400</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" ht="14.5" customHeight="1" spans="1:5">
+        <v>403</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" ht="14.5" customHeight="1" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>334</v>
+        <v>406</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" ht="14.5" customHeight="1" spans="1:5">
+        <v>409</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" ht="14.5" customHeight="1" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>339</v>
+        <v>412</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="71" ht="14.5" customHeight="1" spans="1:5">
+        <v>415</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" ht="14.5" customHeight="1" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>344</v>
+        <v>418</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" ht="14.5" customHeight="1" spans="1:5">
+        <v>421</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" ht="14.5" customHeight="1" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>349</v>
+        <v>424</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" ht="14.5" customHeight="1" spans="1:5">
+        <v>427</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" ht="14.5" customHeight="1" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>354</v>
+        <v>431</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" ht="14.5" customHeight="1" spans="1:5">
+        <v>434</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" ht="14.5" customHeight="1" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>359</v>
+        <v>437</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" ht="14.5" customHeight="1" spans="1:5">
+        <v>440</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" ht="14.5" customHeight="1" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>364</v>
+        <v>443</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" ht="14.5" customHeight="1" spans="1:5">
+        <v>446</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" ht="14.5" customHeight="1" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>367</v>
+        <v>448</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>369</v>
+        <v>449</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="77" ht="14.5" customHeight="1" spans="1:5">
+        <v>452</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" ht="14.5" customHeight="1" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>374</v>
+        <v>455</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" ht="14.5" customHeight="1" spans="1:5">
+        <v>458</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" ht="14.5" customHeight="1" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>377</v>
+        <v>460</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>379</v>
+        <v>461</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="79" ht="14.5" customHeight="1" spans="1:5">
+        <v>464</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" ht="14.5" customHeight="1" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>384</v>
+        <v>467</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="80" ht="14.5" customHeight="1" spans="1:5">
+        <v>470</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" ht="14.5" customHeight="1" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>387</v>
+        <v>472</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>389</v>
+        <v>473</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" ht="14.5" customHeight="1" spans="1:5">
+        <v>476</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" ht="14.5" customHeight="1" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>394</v>
+        <v>479</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" ht="14.5" customHeight="1" spans="1:5">
+        <v>482</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" ht="14.5" customHeight="1" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>399</v>
+        <v>485</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="83" ht="14.5" customHeight="1" spans="1:5">
+        <v>488</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="83" ht="14.5" customHeight="1" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>402</v>
+        <v>490</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>404</v>
+        <v>491</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>405</v>
+        <v>493</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="84" ht="14.5" customHeight="1" spans="1:5">
+        <v>494</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" ht="14.5" customHeight="1" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>409</v>
+        <v>497</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" ht="14.5" customHeight="1" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" ht="14.5" customHeight="1" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>412</v>
+        <v>502</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>414</v>
+        <v>503</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="86" ht="14.5" customHeight="1" spans="1:5">
+        <v>506</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" ht="14.5" customHeight="1" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>419</v>
+        <v>509</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" ht="14.5" customHeight="1" spans="1:5">
+        <v>512</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" ht="14.5" customHeight="1" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>424</v>
+        <v>515</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="88" ht="14.5" customHeight="1" spans="1:5">
+        <v>518</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" ht="14.5" customHeight="1" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>429</v>
+        <v>521</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>430</v>
+        <v>523</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="89" ht="14.5" customHeight="1" spans="1:5">
+        <v>524</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="89" ht="14.5" customHeight="1" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>434</v>
+        <v>527</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="90" ht="14.5" customHeight="1" spans="1:5">
+        <v>530</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" ht="14.5" customHeight="1" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>439</v>
+        <v>533</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>440</v>
+        <v>535</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="91" ht="14.5" customHeight="1" spans="1:5">
+        <v>536</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" ht="14.5" customHeight="1" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>444</v>
+        <v>539</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="92" ht="14.5" customHeight="1" spans="1:5">
+        <v>542</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" ht="14.5" customHeight="1" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>447</v>
+        <v>544</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>449</v>
+        <v>545</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>450</v>
+        <v>547</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="93" ht="14.5" customHeight="1" spans="1:5">
+        <v>548</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="93" ht="14.5" customHeight="1" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>452</v>
+        <v>550</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>454</v>
+        <v>551</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="94" ht="14.5" customHeight="1" spans="1:5">
+        <v>554</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="94" ht="14.5" customHeight="1" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>457</v>
+        <v>556</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>459</v>
+        <v>557</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>460</v>
+        <v>559</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="95" ht="14.5" customHeight="1" spans="1:5">
+        <v>560</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="95" ht="14.5" customHeight="1" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>464</v>
+        <v>563</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>465</v>
+        <v>565</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="96" ht="14.5" customHeight="1" spans="1:5">
+        <v>566</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="96" ht="14.5" customHeight="1" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>467</v>
+        <v>568</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>469</v>
+        <v>569</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="97" ht="14.5" customHeight="1" spans="1:5">
+        <v>572</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="97" ht="14.5" customHeight="1" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>472</v>
+        <v>574</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>474</v>
+        <v>575</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="98" ht="14.5" customHeight="1" spans="1:5">
+        <v>578</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" ht="14.5" customHeight="1" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>479</v>
+        <v>581</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>480</v>
+        <v>583</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="99" ht="14.5" customHeight="1" spans="1:5">
+        <v>584</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" ht="14.5" customHeight="1" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>482</v>
+        <v>586</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>484</v>
+        <v>587</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>485</v>
+        <v>589</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="100" ht="14.5" customHeight="1" spans="1:5">
+        <v>590</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" ht="14.5" customHeight="1" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>489</v>
+        <v>593</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="101" ht="14.5" customHeight="1" spans="1:5">
+        <v>596</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" ht="14.5" customHeight="1" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>492</v>
+        <v>598</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>494</v>
+        <v>599</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>495</v>
+        <v>601</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>496</v>
+        <v>602</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:G101">
+    <sortCondition ref="E3"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="B37" r:id="rId1" display="https://stackoverflow.com/questions/77751482" tooltip="https://stackoverflow.com/questions/77751482"/>
-    <hyperlink ref="B41" r:id="rId2" display="https://stackoverflow.com/questions/77841341"/>
-    <hyperlink ref="B45" r:id="rId3" display="https://stackoverflow.com/questions/77875225"/>
-    <hyperlink ref="B48" r:id="rId4" display="https://stackoverflow.com/questions/78166966"/>
-    <hyperlink ref="B16" r:id="rId5" display="https://stackoverflow.com/questions/77337477"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://stackoverflow.com/questions/77337477"/>
+    <hyperlink ref="B41" r:id="rId2" display="https://stackoverflow.com/questions/77841341" tooltip="https://stackoverflow.com/questions/77841341"/>
+    <hyperlink ref="B45" r:id="rId3" display="https://stackoverflow.com/questions/77875225" tooltip="https://stackoverflow.com/questions/77875225"/>
+    <hyperlink ref="B94" r:id="rId4" display="https://stackoverflow.com/questions/78166966" tooltip="https://stackoverflow.com/questions/78166966"/>
+    <hyperlink ref="B16" r:id="rId5" display="https://stackoverflow.com/questions/77337477" tooltip="https://stackoverflow.com/questions/77337477"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://stackoverflow.com/questions/77337477" tooltip="https://stackoverflow.com/questions/77337477"/>
     <hyperlink ref="B38" r:id="rId1" display="https://stackoverflow.com/questions/77751482"/>
-    <hyperlink ref="B76" r:id="rId6" display="https://github.com/xmolecules/jmolecules/discussions/112"/>
+    <hyperlink ref="B76" r:id="rId6" display="https://github.com/xmolecules/jmolecules/discussions/112" tooltip="https://github.com/xmolecules/jmolecules/discussions/112"/>
     <hyperlink ref="B87" r:id="rId7" display="https://github.com/razshare/sveltekit-sse/issues/45" tooltip="https://github.com/razshare/sveltekit-sse/issues/45"/>
-    <hyperlink ref="B91" r:id="rId2" display="https://github.com/valkey-io/valkey/issues/65"/>
-    <hyperlink ref="B95" r:id="rId3" display="https://github.com/k2-fsa/icefall/issues/1517"/>
-    <hyperlink ref="B98" r:id="rId4" display="https://github.com/Expensify/App/issues/33070"/>
+    <hyperlink ref="B91" r:id="rId8" display="https://github.com/valkey-io/valkey/issues/65" tooltip="https://github.com/valkey-io/valkey/issues/65"/>
+    <hyperlink ref="B95" r:id="rId9" display="https://github.com/k2-fsa/icefall/issues/1517" tooltip="https://github.com/k2-fsa/icefall/issues/1517"/>
+    <hyperlink ref="B98" r:id="rId10" display="https://github.com/Expensify/App/issues/33070" tooltip="https://github.com/Expensify/App/issues/33070"/>
+    <hyperlink ref="B36" r:id="rId11" display="https://stackoverflow.com/questions/77745340" tooltip="https://stackoverflow.com/questions/77745340"/>
+    <hyperlink ref="B97" r:id="rId12" display="https://github.com/grpc/grpc-dotnet/issues/2378" tooltip="https://github.com/grpc/grpc-dotnet/issues/2378"/>
+    <hyperlink ref="B29" r:id="rId13" display="https://stackoverflow.com/questions/77579165" tooltip="https://stackoverflow.com/questions/77579165"/>
+    <hyperlink ref="B64" r:id="rId14" display="https://github.com/developmentseed/lonboard/discussions/442" tooltip="https://github.com/developmentseed/lonboard/discussions/442"/>
+    <hyperlink ref="B84" r:id="rId15" display="https://github.com/openziti/ziti/issues/1256" tooltip="https://github.com/openziti/ziti/issues/1256"/>
+    <hyperlink ref="B92" r:id="rId16" display="https://stackoverflow.com/questions/78536441" tooltip="https://stackoverflow.com/questions/78536441"/>
+    <hyperlink ref="B59" r:id="rId17" display="https://github.com/dotnet/wpf/discussions/9022" tooltip="https://github.com/dotnet/wpf/discussions/9022"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787" tooltip="https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787"/>
+    <hyperlink ref="B2" r:id="rId19" display="https://stackoverflow.com/questions/76284035"/>
+    <hyperlink ref="C2" r:id="rId20" display="https://web.archive.org/web/20250622075942/https://stackoverflow.com/questions/76284035/two-backends-one-db-whats-the-best-way-to-integrate-data-with-django"/>
+    <hyperlink ref="B3" r:id="rId21" display="https://stackoverflow.com/questions/76296961"/>
+    <hyperlink ref="C3" r:id="rId22" display="https://web.archive.org/web/20250622080211/https://stackoverflow.com/questions/76296961/microservices-architecture-with-django"/>
+    <hyperlink ref="B4" r:id="rId23" display="https://stackoverflow.com/questions/76313670"/>
+    <hyperlink ref="C4" r:id="rId24" display="https://web.archive.org/web/20250622080415/https://stackoverflow.com/questions/76313670/guidance-on-long-running-azure-deployments"/>
+    <hyperlink ref="B24" r:id="rId25" display="https://stackoverflow.com/questions/77028441" tooltip="https://stackoverflow.com/questions/77028441"/>
+    <hyperlink ref="C24" r:id="rId26" display="https://web.archive.org/web/20250622080543/https://stackoverflow.com/questions/77028441/facade-pattern-for-rxjs-streams-for-cleaner-angular-architecture"/>
+    <hyperlink ref="B6" r:id="rId27" display="https://stackoverflow.com/questions/77034818" tooltip="https://stackoverflow.com/questions/77034818"/>
+    <hyperlink ref="C6" r:id="rId28" display="https://web.archive.org/web/20250622080704/https://stackoverflow.com/questions/77034818/conditional-type-based-on-generics-types-with-entry-properties-check"/>
+    <hyperlink ref="B7" r:id="rId29" display="https://stackoverflow.com/questions/77059954" tooltip="https://stackoverflow.com/questions/77059954"/>
+    <hyperlink ref="C7" r:id="rId30" display="https://web.archive.org/web/20250622080804/https://stackoverflow.com/questions/77059954/correct-aggregate-roots-in-appointment-scheduling-application"/>
+    <hyperlink ref="B8" r:id="rId31" display="https://stackoverflow.com/questions/77070210" tooltip="https://stackoverflow.com/questions/77070210"/>
+    <hyperlink ref="C8" r:id="rId32" display="https://web.archive.org/web/20250622080906/https://stackoverflow.com/questions/77070210/how-to-design-a-hotel-booking-system-with-a-on-hold-feature"/>
+    <hyperlink ref="B9" r:id="rId33" display="https://stackoverflow.com/questions/77143661"/>
+    <hyperlink ref="C9" r:id="rId34" display="https://web.archive.org/web/20250622081144/https://stackoverflow.com/questions/77143661/trigger-aws-lambda-when-timestamp-is-fulfilled"/>
+    <hyperlink ref="B10" r:id="rId35" display="https://stackoverflow.com/questions/77159234"/>
+    <hyperlink ref="C10" r:id="rId36" display="https://web.archive.org/web/20250622081741/https://stackoverflow.com/questions/77159234/mental-model-for-control-plane-and-data-plane"/>
+    <hyperlink ref="B11" r:id="rId37" display="https://stackoverflow.com/questions/77180441"/>
+    <hyperlink ref="C11" r:id="rId38" display="https://web.archive.org/web/20250622082312/https://stackoverflow.com/questions/77180441/kafka-mirror-to-apache-kafka-from-aws-mks-cluster"/>
+    <hyperlink ref="B12" r:id="rId39" display="https://stackoverflow.com/questions/77185806"/>
+    <hyperlink ref="C12" r:id="rId40" display="https://web.archive.org/web/20250622082354/https://stackoverflow.com/questions/77185806/what-is-the-exact-benefits-on-using-ports-adapters-in-hexagonal-architecture"/>
+    <hyperlink ref="B13" r:id="rId41" display="https://stackoverflow.com/questions/77224893"/>
+    <hyperlink ref="C13" r:id="rId42" display="https://web.archive.org/web/20250622082442/https://stackoverflow.com/questions/77224893/transactional-outbox-and-message-duplicates-with-mutiple-microservice-instances"/>
+    <hyperlink ref="B14" r:id="rId43" display="https://stackoverflow.com/questions/77246412"/>
+    <hyperlink ref="C14" r:id="rId44" display="https://web.archive.org/web/20250622082547/https://stackoverflow.com/questions/77246412/should-i-create-a-separate-activity-for-different-user-types-in-a-jetpack-compos"/>
+    <hyperlink ref="B15" r:id="rId45" display="https://stackoverflow.com/questions/77290436"/>
+    <hyperlink ref="C15" r:id="rId46" display="https://web.archive.org/web/20250622082641/https://stackoverflow.com/questions/77290436/can-a-use-case-class-have-more-than-one-method-to-deal-with-the-business-logic"/>
+    <hyperlink ref="C16" r:id="rId47" display="https://web.archive.org/web/20250622082854/https://stackoverflow.com/questions/77337477/android-multi-module-architecture-domain-depends-on-data-or-vice-versa" tooltip="https://web.archive.org/web/20250622082854/https://stackoverflow.com/questions/77337477/android-multi-module-architecture-domain-depends-on-data-or-vice-versa"/>
+    <hyperlink ref="C17" r:id="rId47" display="https://web.archive.org/web/20250622082854/https://stackoverflow.com/questions/77337477/android-multi-module-architecture-domain-depends-on-data-or-vice-versa"/>
+    <hyperlink ref="B18" r:id="rId48" display="https://stackoverflow.com/questions/77344662"/>
+    <hyperlink ref="C18" r:id="rId49" display="https://web.archive.org/web/20250622082952/https://stackoverflow.com/questions/77344662/loading-remote-libraries-from-different-package"/>
+    <hyperlink ref="B19" r:id="rId50" display="https://stackoverflow.com/questions/77352234"/>
+    <hyperlink ref="C19" r:id="rId51" display="https://web.archive.org/web/20250622083146/https://stackoverflow.com/questions/77352234/nextjs-13-server-components-vs-client-components-in-complex-ui"/>
+    <hyperlink ref="B20" r:id="rId52" display="https://stackoverflow.com/questions/77361294"/>
+    <hyperlink ref="C20" r:id="rId53" display="https://web.archive.org/web/20250622083311/https://stackoverflow.com/questions/77361294/do-microservices-inter-communicate-using-api-calls-or-just-only-using-message-br"/>
+    <hyperlink ref="B21" r:id="rId54" display="https://stackoverflow.com/questions/77386644"/>
+    <hyperlink ref="C21" r:id="rId55" display="https://web.archive.org/web/20250622083540/https://stackoverflow.com/questions/77386644/is-it-a-good-practice-to-use-kubernetes-cronjobs-for-dynamically-creating-and-ma"/>
+    <hyperlink ref="B22" r:id="rId56" display="https://stackoverflow.com/questions/77390082"/>
+    <hyperlink ref="C22" r:id="rId57" display="https://web.archive.org/web/20250622083708/https://stackoverflow.com/questions/77390082/how-to-secure-own-iframe-from-having-the-auth-token-stolen"/>
+    <hyperlink ref="B23" r:id="rId58" display="https://stackoverflow.com/questions/77395787"/>
+    <hyperlink ref="C23" r:id="rId59" display="https://web.archive.org/web/20250622083757/https://stackoverflow.com/questions/77395787/blazor-server-and-entity-framework-entity-tracking-issues"/>
+    <hyperlink ref="B71" r:id="rId60" display="https://stackoverflow.com/questions/77401552"/>
+    <hyperlink ref="C71" r:id="rId61" display="https://web.archive.org/web/20250622083906/https://stackoverflow.com/questions/77401552/granularity-of-bloc-usage-in-flutter-with-nested-data"/>
+    <hyperlink ref="B25" r:id="rId62" display="https://stackoverflow.com/questions/77448838"/>
+    <hyperlink ref="C25" r:id="rId63" display="https://web.archive.org/web/20250622084033/https://stackoverflow.com/questions/77448838/placement-of-business-logic-as-validation-of-data-in-architecture"/>
+    <hyperlink ref="B26" r:id="rId64" display="https://stackoverflow.com/questions/77476674"/>
+    <hyperlink ref="C26" r:id="rId65" display="https://web.archive.org/web/20250622084125/https://stackoverflow.com/questions/77476674/cant-resolve-data-dependencies-in-blazor-server"/>
+    <hyperlink ref="B27" r:id="rId66" display="https://stackoverflow.com/questions/77482900"/>
+    <hyperlink ref="C27" r:id="rId67" display="https://web.archive.org/web/20250622084329/https://stackoverflow.com/questions/77482900/backfilling-new-column-using-value-from-go-code"/>
+    <hyperlink ref="B28" r:id="rId68" display="https://stackoverflow.com/questions/77542899" tooltip="https://stackoverflow.com/questions/77542899"/>
+    <hyperlink ref="C28" r:id="rId69" display="https://web.archive.org/web/20250622084517/https://stackoverflow.com/questions/77542899/list-filtering-in-repository-in-clean-architeture"/>
+    <hyperlink ref="C29" r:id="rId70" display="https://web.archive.org/web/20250622084557/https://stackoverflow.com/questions/77579165/this-is-about-the-repository-layer-when-implementing-a-clean-architecture-using"/>
+    <hyperlink ref="B30" r:id="rId71" display="https://stackoverflow.com/questions/77596691"/>
+    <hyperlink ref="C30" r:id="rId72" display="https://web.archive.org/web/20250622084700/https://stackoverflow.com/questions/77596691/how-to-efficiently-organize-authentication-authorization-using-jwt-in-a-micros"/>
+    <hyperlink ref="B31" r:id="rId73" display="https://stackoverflow.com/questions/77615623"/>
+    <hyperlink ref="C31" r:id="rId74" display="https://web.archive.org/web/20250622084742/https://stackoverflow.com/questions/77615623/ways-to-implement-single-account-for-multiple-games-unity"/>
+    <hyperlink ref="B32" r:id="rId75" display="https://stackoverflow.com/questions/77631866"/>
+    <hyperlink ref="C32" r:id="rId76" display="https://web.archive.org/web/20250622084942/https://stackoverflow.com/questions/77631866/centralized-database-for-multiple-consumers-vs-local-datasets"/>
+    <hyperlink ref="B33" r:id="rId77" display="https://stackoverflow.com/questions/77638871"/>
+    <hyperlink ref="C33" r:id="rId78" display="https://web.archive.org/web/20250622085118/https://stackoverflow.com/questions/77638871/timerservice-that-will-close-auctions"/>
+    <hyperlink ref="B50" r:id="rId79" display="https://stackoverflow.com/questions/77652717" tooltip="https://stackoverflow.com/questions/77652717"/>
+    <hyperlink ref="C50" r:id="rId80" display="https://web.archive.org/web/20250622085329/https://stackoverflow.com/questions/77652717/where-design-pattern-should-go-in-3-three-layer-architecture"/>
+    <hyperlink ref="B35" r:id="rId81" display="https://stackoverflow.com/questions/77726069"/>
+    <hyperlink ref="C35" r:id="rId82" display="https://web.archive.org/web/20250622085445/https://stackoverflow.com/questions/77726069/on-which-layer-is-the-data-warehousing-interface-placed-in-the-hexagonal-archite"/>
+    <hyperlink ref="C36" r:id="rId83" display="https://web.archive.org/web/20250622085527/https://stackoverflow.com/questions/77745340/how-to-make-two-projects-with-incompatible-net-versions-talk"/>
+    <hyperlink ref="C37" r:id="rId84" display="https://web.archive.org/web/20250622085753/https://stackoverflow.com/questions/77751482/microservices-async-communication-for-business-transaction"/>
+    <hyperlink ref="C38" r:id="rId84" display="https://web.archive.org/web/20250622085753/https://stackoverflow.com/questions/77751482/microservices-async-communication-for-business-transaction"/>
+    <hyperlink ref="B39" r:id="rId85" display="https://stackoverflow.com/questions/77815059"/>
+    <hyperlink ref="C39" r:id="rId86" display="https://web.archive.org/web/20250622085856/https://stackoverflow.com/questions/77815059/regarding-blazor-web-app-net-8-and-migration-from-net-6"/>
+    <hyperlink ref="B40" r:id="rId87" display="https://stackoverflow.com/questions/77816547" tooltip="https://stackoverflow.com/questions/77816547"/>
+    <hyperlink ref="C40" r:id="rId88" display="https://web.archive.org/web/20250622090046/https://stackoverflow.com/questions/77816547/how-to-manage-shared-ui-state-in-jetpack-compose"/>
+    <hyperlink ref="C41" r:id="rId89" display="https://web.archive.org/web/20250622090208/https://stackoverflow.com/questions/77841341/architecture-and-azure-services-for-a-net-blazor-web-app"/>
+    <hyperlink ref="B42" r:id="rId90" display="https://stackoverflow.com/questions/77843622"/>
+    <hyperlink ref="C42" r:id="rId91" display="https://web.archive.org/web/20250622090505/https://stackoverflow.com/questions/77843622/dependency-injection-on-an-n-tier-solution-remove-boilerplate"/>
+    <hyperlink ref="B43" r:id="rId92" display="https://stackoverflow.com/questions/77863647"/>
+    <hyperlink ref="C43" r:id="rId93" display="https://web.archive.org/web/20250622090905/https://stackoverflow.com/questions/77863647/seeking-guidance-on-retrieving-related-data-in-asp-net-core-web-api-using-clean"/>
+    <hyperlink ref="B44" r:id="rId94" display="https://stackoverflow.com/questions/77870378"/>
+    <hyperlink ref="C44" r:id="rId95" display="https://web.archive.org/web/20250622090948/https://stackoverflow.com/questions/77870378/two-separate-projects-for-blazor-web-app-wasm-is-confusing"/>
+    <hyperlink ref="C45" r:id="rId96" display="https://web.archive.org/web/20250622091156/https://stackoverflow.com/questions/77875225/can-i-use-aws-api-gateway-instead-of-an-application-load-balancer"/>
+    <hyperlink ref="B48" r:id="rId97" display="https://stackoverflow.com/questions/78014054"/>
+    <hyperlink ref="C48" r:id="rId98" display="https://web.archive.org/web/20250622091340/https://stackoverflow.com/questions/78014054/applying-oop-principles-to-microservices"/>
+    <hyperlink ref="B47" r:id="rId99" display="https://stackoverflow.com/questions/78026098" tooltip="https://stackoverflow.com/questions/78026098"/>
+    <hyperlink ref="C47" r:id="rId100" display="https://web.archive.org/web/20250622091537/https://stackoverflow.com/questions/78026098/handling-generic-entities-in-entity-frameworks-change-tracker"/>
+    <hyperlink ref="C94" r:id="rId101" display="https://web.archive.org/web/20250622091628/https://stackoverflow.com/questions/78166966/ddd-clean-architecture-why-not-define-repositories-in-the-application-layer"/>
+    <hyperlink ref="B49" r:id="rId102" display="https://stackoverflow.com/questions/78448261"/>
+    <hyperlink ref="C49" r:id="rId103" display="https://web.archive.org/web/20250622091712/https://stackoverflow.com/questions/78448261/is-there-a-way-to-disable-the-elasticsearch-id-uniqueness-check"/>
+    <hyperlink ref="C92" r:id="rId104" display="https://web.archive.org/web/20250622091847/https://stackoverflow.com/questions/78536441/separate-module-for-activity-broadcast-receiver-and-services"/>
+    <hyperlink ref="B51" r:id="rId105" display="https://stackoverflow.com/questions/78552517"/>
+    <hyperlink ref="C51" r:id="rId106" display="https://web.archive.org/web/20250622091935/https://stackoverflow.com/questions/78552517/pyside6-qsortfilterproxymodel-filter-proxy-removes-peristent-editor"/>
+    <hyperlink ref="B52" r:id="rId107" display="https://github.com/gethomepage/homepage/discussions/3597"/>
+    <hyperlink ref="C52" r:id="rId108" display="https://web.archive.org/web/20250622092152/https://github.com/gethomepage/homepage/discussions/3597"/>
+    <hyperlink ref="B53" r:id="rId109" display="https://github.com/nank1ro/flutter-shadcn-ui/discussions/63"/>
+    <hyperlink ref="C53" r:id="rId110" display="https://web.archive.org/web/20250622092303/https://github.com/nank1ro/flutter-shadcn-ui/discussions/63"/>
+    <hyperlink ref="B54" r:id="rId111" display="https://github.com/earthboundkid/requests/discussions/89"/>
+    <hyperlink ref="C54" r:id="rId112" display="https://web.archive.org/web/20250622092447/https://github.com/earthboundkid/requests/discussions/89"/>
+    <hyperlink ref="B55" r:id="rId113" display="https://github.com/pymodbus-dev/pymodbus/discussions/2109"/>
+    <hyperlink ref="C55" r:id="rId114" display="https://web.archive.org/web/20250622092548/https://github.com/pymodbus-dev/pymodbus/discussions/2109"/>
+    <hyperlink ref="B56" r:id="rId115" display="https://github.com/apache/airflow/discussions/37432"/>
+    <hyperlink ref="C56" r:id="rId116" display="https://web.archive.org/web/20250622092628/https://github.com/apache/airflow/discussions/37432"/>
+    <hyperlink ref="B57" r:id="rId117" display="https://github.com/prisma/prisma/discussions/20920"/>
+    <hyperlink ref="C57" r:id="rId118" display="https://web.archive.org/web/20250622092844/https://github.com/prisma/prisma/discussions/20920"/>
+    <hyperlink ref="B58" r:id="rId119" display="https://github.com/maxnowack/signaldb/discussions/626" tooltip="https://github.com/maxnowack/signaldb/discussions/626"/>
+    <hyperlink ref="C58" r:id="rId120" display="https://web.archive.org/web/20250623041101/https://github.com/maxnowack/signaldb/discussions/626"/>
+    <hyperlink ref="C59" r:id="rId121" display="https://web.archive.org/web/20250623042214/https://github.com/dotnet/wpf/discussions/9022"/>
+    <hyperlink ref="B60" r:id="rId122" display="https://github.com/reactwg/react-native-new-architecture/discussions/197"/>
+    <hyperlink ref="C60" r:id="rId123" display="https://web.archive.org/web/20250623042343/https://github.com/reactwg/react-native-new-architecture/discussions/197"/>
+    <hyperlink ref="B61" r:id="rId124" display="https://github.com/fraktalio/fmodel/discussions/251"/>
+    <hyperlink ref="C61" r:id="rId125" display="https://web.archive.org/web/20250623042436/https://github.com/fraktalio/fmodel/discussions/251"/>
+    <hyperlink ref="B62" r:id="rId126" display="https://github.com/ch4mpy/spring-addons/discussions/214"/>
+    <hyperlink ref="C62" r:id="rId127" display="https://web.archive.org/web/20250623042512/https://github.com/ch4mpy/spring-addons/discussions/214"/>
+    <hyperlink ref="B63" r:id="rId128" display="https://github.com/DioxusLabs/dioxus/discussions/1879"/>
+    <hyperlink ref="C63" r:id="rId129" display="https://web.archive.org/web/20250623042559/https://github.com/DioxusLabs/dioxus/discussions/1879"/>
+    <hyperlink ref="C64" r:id="rId130" display="https://web.archive.org/web/20250623042641/https://github.com/developmentseed/lonboard/discussions/442"/>
+    <hyperlink ref="C65" r:id="rId130" display="https://web.archive.org/web/20250623042641/https://github.com/developmentseed/lonboard/discussions/442"/>
+    <hyperlink ref="C66" r:id="rId130" display="https://web.archive.org/web/20250623042641/https://github.com/developmentseed/lonboard/discussions/442"/>
+    <hyperlink ref="B67" r:id="rId131" display="https://github.com/symfony/symfony/discussions/57209"/>
+    <hyperlink ref="C67" r:id="rId132" display="https://web.archive.org/web/20250623042829/https://github.com/symfony/symfony/discussions/57209"/>
+    <hyperlink ref="B68" r:id="rId133" display="https://github.com/tauri-apps/tauri/discussions/9521"/>
+    <hyperlink ref="C68" r:id="rId134" display="https://web.archive.org/web/20250623043030/https://github.com/tauri-apps/tauri/discussions/9521"/>
+    <hyperlink ref="B69" r:id="rId135" display="https://github.com/apache/apisix/discussions/11323"/>
+    <hyperlink ref="C69" r:id="rId136" display="https://web.archive.org/web/20250623043434/https://github.com/apache/apisix/discussions/11323"/>
+    <hyperlink ref="B70" r:id="rId137" display="https://github.com/pocketbase/pocketbase/discussions/3504" tooltip="https://github.com/pocketbase/pocketbase/discussions/3504"/>
+    <hyperlink ref="C70" r:id="rId138" display="https://web.archive.org/web/20250623044009/https://github.com/pocketbase/pocketbase/discussions/3504"/>
+    <hyperlink ref="B93" r:id="rId139" display="https://github.com/pointfreeco/swift-composable-architecture/discussions/2792"/>
+    <hyperlink ref="C93" r:id="rId140" display="https://web.archive.org/web/20250623050023/https://github.com/pointfreeco/swift-composable-architecture/discussions/2792"/>
+    <hyperlink ref="B72" r:id="rId141" display="https://github.com/orgs/fief-dev/discussions/326"/>
+    <hyperlink ref="C72" r:id="rId142" display="https://web.archive.org/web/20250623050206/https://github.com/orgs/fief-dev/discussions/326"/>
+    <hyperlink ref="C73" r:id="rId143" display="https://web.archive.org/web/20250623050259/https://github.com/ran-isenberg/aws-lambda-handler-cookbook/discussions/787"/>
+    <hyperlink ref="B74" r:id="rId144" display="https://github.com/keycloak/keycloak/discussions/21549"/>
+    <hyperlink ref="C74" r:id="rId145" display="https://web.archive.org/web/20250623050342/https://github.com/keycloak/keycloak/discussions/21549"/>
+    <hyperlink ref="B5" r:id="rId146" display="https://github.com/burningalchemist/sql_exporter/discussions/539"/>
+    <hyperlink ref="C5" r:id="rId147" display="https://web.archive.org/web/20250623050430/https://github.com/burningalchemist/sql_exporter/discussions/539"/>
+    <hyperlink ref="C76" r:id="rId148" display="https://web.archive.org/web/20250623050517/https://github.com/xmolecules/jmolecules/discussions/112"/>
+    <hyperlink ref="B77" r:id="rId149" display="https://github.com/Ivy-Apps/ivy-wallet/issues/2962"/>
+    <hyperlink ref="C77" r:id="rId150" display="https://web.archive.org/web/20250623050712/https://github.com/Ivy-Apps/ivy-wallet/issues/2962"/>
+    <hyperlink ref="B78" r:id="rId151" display="https://github.com/pulumi/pulumi-kubernetes-operator/issues/515"/>
+    <hyperlink ref="C78" r:id="rId152" display="https://web.archive.org/web/20250623050810/https://github.com/pulumi/pulumi-kubernetes-operator/issues/515"/>
+    <hyperlink ref="B79" r:id="rId153" display="https://github.com/Alexhuszagh/rust-lexical/issues/100"/>
+    <hyperlink ref="C79" r:id="rId154" display="https://web.archive.org/web/20250623050903/https://github.com/Alexhuszagh/rust-lexical/issues/100"/>
+    <hyperlink ref="B80" r:id="rId155" display="https://github.com/amannn/next-intl/issues/406"/>
+    <hyperlink ref="C80" r:id="rId156" display="https://web.archive.org/web/20250623051123/https://github.com/amannn/next-intl/issues/406"/>
+    <hyperlink ref="B81" r:id="rId157" display="https://github.com/opensrp/fhircore/issues/2838"/>
+    <hyperlink ref="C81" r:id="rId158" display="https://web.archive.org/web/20250623051223/https://github.com/opensrp/fhircore/issues/2838"/>
+    <hyperlink ref="B82" r:id="rId159" display="https://github.com/open-feature/spec/issues/237"/>
+    <hyperlink ref="C82" r:id="rId160" display="https://web.archive.org/web/20250623051311/https://github.com/open-feature/spec/issues/237"/>
+    <hyperlink ref="B83" r:id="rId161" display="https://github.com/OWASP/ASVS/issues/1754"/>
+    <hyperlink ref="C83" r:id="rId162" display="https://web.archive.org/web/20250623051454/https://github.com/OWASP/ASVS/issues/1754"/>
+    <hyperlink ref="C84" r:id="rId163" display="https://web.archive.org/web/20250623051536/https://github.com/openziti/ziti/issues/1256"/>
+    <hyperlink ref="B85" r:id="rId164" display="https://github.com/fleetdm/fleet/issues/19526"/>
+    <hyperlink ref="C85" r:id="rId165" display="https://web.archive.org/web/20250623051631/https://github.com/fleetdm/fleet/issues/19526"/>
+    <hyperlink ref="B86" r:id="rId166" display="https://github.com/Azure/Enterprise-Scale/issues/1558"/>
+    <hyperlink ref="C86" r:id="rId167" display="https://web.archive.org/web/20250623051722/https://github.com/Azure/Enterprise-Scale/issues/1558"/>
+    <hyperlink ref="C87" r:id="rId168" display="https://web.archive.org/web/20250623051817/https://github.com/razshare/sveltekit-sse/issues/45"/>
+    <hyperlink ref="B88" r:id="rId169" display="https://github.com/streetcomplete/StreetComplete/issues/5410"/>
+    <hyperlink ref="C88" r:id="rId170" display="https://web.archive.org/web/20250623051956/https://github.com/streetcomplete/StreetComplete/issues/5410"/>
+    <hyperlink ref="B89" r:id="rId171" display="https://github.com/dbt-labs/dbt-core/issues/8062"/>
+    <hyperlink ref="C89" r:id="rId172" display="https://web.archive.org/web/20250623052141/https://github.com/dbt-labs/dbt-core/issues/8062"/>
+    <hyperlink ref="B90" r:id="rId173" display="https://github.com/w3c/activitystreams/issues/537"/>
+    <hyperlink ref="C90" r:id="rId174" display="https://web.archive.org/web/20250623052300/https://github.com/w3c/activitystreams/issues/537"/>
+    <hyperlink ref="C91" r:id="rId175" display="https://web.archive.org/web/20250623052343/https://github.com/valkey-io/valkey/issues/65"/>
+    <hyperlink ref="B75" r:id="rId176" display="https://github.com/apache/rocketmq/issues/7560"/>
+    <hyperlink ref="C75" r:id="rId177" display="https://web.archive.org/web/20250623052458/https://github.com/apache/rocketmq/issues/7560"/>
+    <hyperlink ref="B34" r:id="rId178" display="https://github.com/openbao/openbao/issues/270"/>
+    <hyperlink ref="C34" r:id="rId179" display="https://web.archive.org/web/20250623052631/https://github.com/openbao/openbao/issues/270"/>
+    <hyperlink ref="B46" r:id="rId180" display="https://github.com/H-uru/Plasma/issues/1461"/>
+    <hyperlink ref="C46" r:id="rId181" display="https://web.archive.org/web/20250623052812/https://github.com/H-uru/Plasma/issues/1461"/>
+    <hyperlink ref="C95" r:id="rId182" display="https://web.archive.org/web/20250623052901/https://github.com/k2-fsa/icefall/issues/1517"/>
+    <hyperlink ref="B96" r:id="rId183" display="https://github.com/marcolivierarsenault/moonraker-home-assistant/issues/313"/>
+    <hyperlink ref="C96" r:id="rId184" display="https://web.archive.org/web/20250623053039/https://github.com/marcolivierarsenault/moonraker-home-assistant/issues/313"/>
+    <hyperlink ref="C97" r:id="rId185" display="https://web.archive.org/web/20250623053207/https://github.com/grpc/grpc-dotnet/issues/2378"/>
+    <hyperlink ref="C98" r:id="rId186" display="https://web.archive.org/web/20250623053253/https://github.com/Expensify/App/issues/33070"/>
+    <hyperlink ref="B99" r:id="rId187" display="https://github.com/rails/rails/issues/50480" tooltip="https://github.com/rails/rails/issues/50480"/>
+    <hyperlink ref="C99" r:id="rId188" display="https://web.archive.org/web/20250623053725/https://github.com/rails/rails/issues/50480"/>
+    <hyperlink ref="B100" r:id="rId189" display="https://github.com/WordPress/gutenberg/issues/57234" tooltip="https://github.com/WordPress/gutenberg/issues/57234"/>
+    <hyperlink ref="C100" r:id="rId190" display="https://web.archive.org/web/20250623054107/https://github.com/WordPress/gutenberg/issues/57234"/>
+    <hyperlink ref="B101" r:id="rId191" display="https://github.com/flutter/flutter/issues/133198"/>
+    <hyperlink ref="C101" r:id="rId192" display="https://web.archive.org/web/20250623054245/https://github.com/flutter/flutter/issues/133198"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
